--- a/data/hotels_by_city/Denver/Denver_shard_211.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_211.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="530">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33514-d119930-Reviews-Quality_Inn_Suites-Lakewood_Colorado.html</t>
   </si>
   <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Quality-Inn-Suites-Westminster-Broomfield.h120285.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1472 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r588600649-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>33514</t>
+  </si>
+  <si>
+    <t>119930</t>
+  </si>
+  <si>
+    <t>588600649</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Great Front Counter Staff</t>
+  </si>
+  <si>
+    <t>I stayed here last June.  The rates were fair.  The room was great and the young guy at the counter was more than helpful.  Hotels in that particular area used to all be pretty consistent, but things have changed.  So, it was a pleasant surprise to be treated well, particularly with a dog in tow.  THANKS</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r568169806-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>568169806</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t>Clean, quiet room.</t>
+  </si>
+  <si>
+    <t>We were here for five days.  Easy to find.  Ample parking.  Helpful staff.  Nicely prepared breakfast that was hot.  Room, dining area and parking area were clean.  Only two issues:  The tread mill was not working.  They are waiting for a replacement.  Second:  They do have a washing machine and dryer for guest use.  However, a guest had stuffed the washer and left for over an hour without activating the machine.  We went to a local laundry.  Suggest the management form a "stay with your laundry or remove it from machines" policy.  Our stay was pleasant and we would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Caitlin G, Manager at Quality Inn &amp; Suites, responded to this reviewResponded March 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2018</t>
+  </si>
+  <si>
+    <t>We were here for five days.  Easy to find.  Ample parking.  Helpful staff.  Nicely prepared breakfast that was hot.  Room, dining area and parking area were clean.  Only two issues:  The tread mill was not working.  They are waiting for a replacement.  Second:  They do have a washing machine and dryer for guest use.  However, a guest had stuffed the washer and left for over an hour without activating the machine.  We went to a local laundry.  Suggest the management form a "stay with your laundry or remove it from machines" policy.  Our stay was pleasant and we would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r567126863-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>567126863</t>
+  </si>
+  <si>
+    <t>03/17/2018</t>
+  </si>
+  <si>
+    <t>Basic hotel with old carpet and thin walls</t>
+  </si>
+  <si>
+    <t>Old dirty carpet, cigarette smoke smell coming in through the bathroom vent whenever it wasn't on, thin walls, and elevator that would shake violently.The breakfast was actually ok for the price.  This hotel is trying, but needs some upgrades to appearance and work on the elevator door which shudders (!).The beds were comfortable and clean.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Matt K, General Manager at Quality Inn &amp; Suites, responded to this reviewResponded March 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2018</t>
+  </si>
+  <si>
+    <t>Old dirty carpet, cigarette smoke smell coming in through the bathroom vent whenever it wasn't on, thin walls, and elevator that would shake violently.The breakfast was actually ok for the price.  This hotel is trying, but needs some upgrades to appearance and work on the elevator door which shudders (!).The beds were comfortable and clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r503876247-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>503876247</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>The room was ok. It does have a mini fridge and microwave. I had to ask for extra shampoo and conditioner and they gave us extra. The bed duvet cover was disgusting! There were brown stains on it. We only got to sleep with sheets. It was gross. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Kim K, Guest Relations Manager at Quality Inn &amp; Suites, responded to this reviewResponded September 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2017</t>
+  </si>
+  <si>
+    <t>The room was ok. It does have a mini fridge and microwave. I had to ask for extra shampoo and conditioner and they gave us extra. The bed duvet cover was disgusting! There were brown stains on it. We only got to sleep with sheets. It was gross. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r501960454-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>501960454</t>
+  </si>
+  <si>
+    <t>07/14/2017</t>
+  </si>
+  <si>
+    <t>Could be cleaner</t>
+  </si>
+  <si>
+    <t>Needs updated, Wi-Fi didn't work in room as advertised, No fan in bathroom causing a rusty door jam in bathroom.  Doors slamming at all hours of the night not the quietist place, parking is limited .  pay extra  $30. to go to La Quinta much cleaner quieter.MoreShow less</t>
+  </si>
+  <si>
+    <t>Needs updated, Wi-Fi didn't work in room as advertised, No fan in bathroom causing a rusty door jam in bathroom.  Doors slamming at all hours of the night not the quietist place, parking is limited .  pay extra  $30. to go to La Quinta much cleaner quieter.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r499454494-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>499454494</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>Quiet, good place to stop for the night</t>
+  </si>
+  <si>
+    <t>We stayed one night here with our little 9 pound Chihuahua. They do charge a $25 pet fee and they make you sign something that basically says if you sneak in your dog they will charge you $100 if you are caught. I have learned on this trip to make sure that you call the hotel in advance to make sure that they know you are coming with a dog because they can cancel your reservation if they don't have a "dog" room available. Other than that - the place is old but it is comfortable, cool and quiet. The breakfast was also decent, waffles, eggs, sausage. There are several places to eat not too far away from the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>We stayed one night here with our little 9 pound Chihuahua. They do charge a $25 pet fee and they make you sign something that basically says if you sneak in your dog they will charge you $100 if you are caught. I have learned on this trip to make sure that you call the hotel in advance to make sure that they know you are coming with a dog because they can cancel your reservation if they don't have a "dog" room available. Other than that - the place is old but it is comfortable, cool and quiet. The breakfast was also decent, waffles, eggs, sausage. There are several places to eat not too far away from the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r491480855-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>491480855</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>Decent place to get sleep!</t>
+  </si>
+  <si>
+    <t>Check-in was a breeze. All staff encountered were very friendly and customer-oriented. Breakfast in the mornings were good with a nice spread of different things. The beds and pillows were comfortable and the air conditioning in the rooms worked great along with the microwave and fridge. That being said, the rooms can use a bit of a refresh. There were screw holes left over from old furnishings and the bathtub made a creaking noise every time the shower was in use. We weren't in our rooms enough to be bothered by that - we just needed a place to sleep night. Overall, we had a nice stay and would come back again!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Check-in was a breeze. All staff encountered were very friendly and customer-oriented. Breakfast in the mornings were good with a nice spread of different things. The beds and pillows were comfortable and the air conditioning in the rooms worked great along with the microwave and fridge. That being said, the rooms can use a bit of a refresh. There were screw holes left over from old furnishings and the bathtub made a creaking noise every time the shower was in use. We weren't in our rooms enough to be bothered by that - we just needed a place to sleep night. Overall, we had a nice stay and would come back again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r490954711-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>490954711</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t>Decent for overnight stay</t>
+  </si>
+  <si>
+    <t>The interior could use a refresh but bathrooms were clean, plenty of towels and nice variety for breakfast. Plenty places very close by  to eat dinner. A bit pricey but that's what this market can get. Fridge,  microwave and coffee maker in room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Matt K, General Manager at Quality Inn &amp; Suites, responded to this reviewResponded June 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2017</t>
+  </si>
+  <si>
+    <t>The interior could use a refresh but bathrooms were clean, plenty of towels and nice variety for breakfast. Plenty places very close by  to eat dinner. A bit pricey but that's what this market can get. Fridge,  microwave and coffee maker in room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r484495961-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>484495961</t>
+  </si>
+  <si>
+    <t>05/15/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>We have been here for about 50 days.. we recently moved out here to be closer to family and we have had a great stay.. the staff is very accommodating and friendly.. my kids are older and so they tend to get excited and loud so the staff let's me know and we always make it right.. It has been a wonderful experience.. thank you personally staff at the Quality Inn in Lakewood..</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r465793983-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>465793983</t>
+  </si>
+  <si>
+    <t>03/09/2017</t>
+  </si>
+  <si>
+    <t>A Very Good Motel with Comfy Beds!</t>
+  </si>
+  <si>
+    <t>This is a good Quality Inn. The best thing to me about this place was the bed! The pillows were nice and the mattress was as good as it gets. Easy to sleep!The location is easy to get to and it is close enough to Denver without being buried in the middle of it. The property could probably use a bit of renovating, but it was not at all dirty.. The staff was to a person very friendly and helpful. We got a very good rate from them through Choice since it was a four day stay. Their vending is a bit limited if that kind of thing is important to you. All coke products which I found annoying (but I'm a Pepsi guy). I would definitely stay here again without question. This Quality Inn will not disappoint you!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Kim K, Guest Relations Manager at Quality Inn &amp; Suites, responded to this reviewResponded March 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2017</t>
+  </si>
+  <si>
+    <t>This is a good Quality Inn. The best thing to me about this place was the bed! The pillows were nice and the mattress was as good as it gets. Easy to sleep!The location is easy to get to and it is close enough to Denver without being buried in the middle of it. The property could probably use a bit of renovating, but it was not at all dirty.. The staff was to a person very friendly and helpful. We got a very good rate from them through Choice since it was a four day stay. Their vending is a bit limited if that kind of thing is important to you. All coke products which I found annoying (but I'm a Pepsi guy). I would definitely stay here again without question. This Quality Inn will not disappoint you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r463852429-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>463852429</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>a great place to stay</t>
+  </si>
+  <si>
+    <t>We had one day in Denver and then we were off to the ski resorts. We stayed here once we landed at the airport. It was an easy drive and I believe you can take the train from the airport to hotel. It is a great location and the staff is so friendly. We had a sick baby (that we left with our parents at home) the night before flew out from PA. It was an early flight and we were exhausted upon arrival. They let us check in 2 hours early. I was able to rest and shower so we could get to meetings with people that day. I would highly recommend this place. It was clean and the bed was so comfortable. Breakfast was amazing!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>We had one day in Denver and then we were off to the ski resorts. We stayed here once we landed at the airport. It was an easy drive and I believe you can take the train from the airport to hotel. It is a great location and the staff is so friendly. We had a sick baby (that we left with our parents at home) the night before flew out from PA. It was an early flight and we were exhausted upon arrival. They let us check in 2 hours early. I was able to rest and shower so we could get to meetings with people that day. I would highly recommend this place. It was clean and the bed was so comfortable. Breakfast was amazing!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r448368463-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>448368463</t>
+  </si>
+  <si>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>Great staff, great prices, nice hotel!</t>
+  </si>
+  <si>
+    <t>We were pleasantly surprised by the Lakewood Quality Inn.  We did not expect facilities and breakfast this nice at such a reasonable price in Denver.  The room was clean, the bed comfortable, and the staff was amazingly friendly and helpful.  We plan to stay here again on our next trip to Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Matt K, Manager at Quality Inn &amp; Suites, responded to this reviewResponded January 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2017</t>
+  </si>
+  <si>
+    <t>We were pleasantly surprised by the Lakewood Quality Inn.  We did not expect facilities and breakfast this nice at such a reasonable price in Denver.  The room was clean, the bed comfortable, and the staff was amazingly friendly and helpful.  We plan to stay here again on our next trip to Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r431659340-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>431659340</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>Convenient, clean and comfortable</t>
+  </si>
+  <si>
+    <t>Booked on line for 2 nights in Colorado.  A very nice motel with clean,comfortable rooms.  The complimentary breakfast is from 6/10.  This is in an area where there is probable 5 nice motels located off of a main hwy.  tried to book another night on our way back through Lakewood for the same price. Was advised to check on line.  Unfortunately was not able to get the same deal.  Made a mistake and booked a Motel 6 further uptown.  Felt uncomfortable there.  Stayed only one night.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Kim K, Guest Relations Manager at Quality Inn &amp; Suites, responded to this reviewResponded October 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2016</t>
+  </si>
+  <si>
+    <t>Booked on line for 2 nights in Colorado.  A very nice motel with clean,comfortable rooms.  The complimentary breakfast is from 6/10.  This is in an area where there is probable 5 nice motels located off of a main hwy.  tried to book another night on our way back through Lakewood for the same price. Was advised to check on line.  Unfortunately was not able to get the same deal.  Made a mistake and booked a Motel 6 further uptown.  Felt uncomfortable there.  Stayed only one night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r429504109-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>429504109</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>This property ticked all of my boxes</t>
+  </si>
+  <si>
+    <t>This was the 6th hotel/motel I have stayed at during my current Colorado trip and frankly it is the only one that has ticked everyone of my boxes.
+The chairs were the right height for the table, the refrigerator was medium large, there was a Mico-weave, the exhaust fan in the bathroom did not come on with the light, it had a proper shower head, the wash basin/sink was not in the bathroom, I was able to park right next to the lobby, there was plenty of luggage trolleys, there was a Wal-Mart within 5 minutes drive, it was off a main highway, the bed was fine, the pillows the same as most ok motels and there was plenty of room to spread out and open my two large suitcases, although i would have preferred an extra double bed to put them on. Even the WiFi worked, there were plenty of power points and there was plenty of serious news channels on the TV.
+I wish it was closer to the I25 and Denver downtown. But not much they could do about that. I was somewhat annoyed that they charged my credit card without confirming that i was ok with that. I was not as i use a different card to hold the booking than the one i pay with, which is a US$ card. They offered to reverse the charge but i would still have been hit with an...This was the 6th hotel/motel I have stayed at during my current Colorado trip and frankly it is the only one that has ticked everyone of my boxes.The chairs were the right height for the table, the refrigerator was medium large, there was a Mico-weave, the exhaust fan in the bathroom did not come on with the light, it had a proper shower head, the wash basin/sink was not in the bathroom, I was able to park right next to the lobby, there was plenty of luggage trolleys, there was a Wal-Mart within 5 minutes drive, it was off a main highway, the bed was fine, the pillows the same as most ok motels and there was plenty of room to spread out and open my two large suitcases, although i would have preferred an extra double bed to put them on. Even the WiFi worked, there were plenty of power points and there was plenty of serious news channels on the TV.I wish it was closer to the I25 and Denver downtown. But not much they could do about that. I was somewhat annoyed that they charged my credit card without confirming that i was ok with that. I was not as i use a different card to hold the booking than the one i pay with, which is a US$ card. They offered to reverse the charge but i would still have been hit with an international surcharge for the first charge.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Kim K, Guest Relations Manager at Quality Inn &amp; Suites, responded to this reviewResponded October 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2016</t>
+  </si>
+  <si>
+    <t>This was the 6th hotel/motel I have stayed at during my current Colorado trip and frankly it is the only one that has ticked everyone of my boxes.
+The chairs were the right height for the table, the refrigerator was medium large, there was a Mico-weave, the exhaust fan in the bathroom did not come on with the light, it had a proper shower head, the wash basin/sink was not in the bathroom, I was able to park right next to the lobby, there was plenty of luggage trolleys, there was a Wal-Mart within 5 minutes drive, it was off a main highway, the bed was fine, the pillows the same as most ok motels and there was plenty of room to spread out and open my two large suitcases, although i would have preferred an extra double bed to put them on. Even the WiFi worked, there were plenty of power points and there was plenty of serious news channels on the TV.
+I wish it was closer to the I25 and Denver downtown. But not much they could do about that. I was somewhat annoyed that they charged my credit card without confirming that i was ok with that. I was not as i use a different card to hold the booking than the one i pay with, which is a US$ card. They offered to reverse the charge but i would still have been hit with an...This was the 6th hotel/motel I have stayed at during my current Colorado trip and frankly it is the only one that has ticked everyone of my boxes.The chairs were the right height for the table, the refrigerator was medium large, there was a Mico-weave, the exhaust fan in the bathroom did not come on with the light, it had a proper shower head, the wash basin/sink was not in the bathroom, I was able to park right next to the lobby, there was plenty of luggage trolleys, there was a Wal-Mart within 5 minutes drive, it was off a main highway, the bed was fine, the pillows the same as most ok motels and there was plenty of room to spread out and open my two large suitcases, although i would have preferred an extra double bed to put them on. Even the WiFi worked, there were plenty of power points and there was plenty of serious news channels on the TV.I wish it was closer to the I25 and Denver downtown. But not much they could do about that. I was somewhat annoyed that they charged my credit card without confirming that i was ok with that. I was not as i use a different card to hold the booking than the one i pay with, which is a US$ card. They offered to reverse the charge but i would still have been hit with an international surcharge for the first charge.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r428262857-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>428262857</t>
+  </si>
+  <si>
+    <t>10/15/2016</t>
+  </si>
+  <si>
+    <t>Pretty good</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel for 3 nights during our week-long trip to Colorado. The room was clean and modern, the in-room amenities (coffee pot, tv, microwave, fridge) were all great. Breakfast was really good as well. The staff was friendly. There were just two small issues with our stay: lots of noise coming from other areas of the hotel all throughout our stay, and the elevator and hallway had a smoke smell despite being non-smoking. Otherwise it was fine. MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel for 3 nights during our week-long trip to Colorado. The room was clean and modern, the in-room amenities (coffee pot, tv, microwave, fridge) were all great. Breakfast was really good as well. The staff was friendly. There were just two small issues with our stay: lots of noise coming from other areas of the hotel all throughout our stay, and the elevator and hallway had a smoke smell despite being non-smoking. Otherwise it was fine. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r420219623-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>420219623</t>
+  </si>
+  <si>
+    <t>09/19/2016</t>
+  </si>
+  <si>
+    <t>Scary</t>
+  </si>
+  <si>
+    <t>Gross hotel, the staff was unfriendly, graffiti on the walls of the elevator. Makeup on the "clean" pillow cases and towels. If you're going to stay here, bring your own linens and never walk barefoot.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Kim K, Guest Relations Manager at Quality Inn &amp; Suites, responded to this reviewResponded September 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2016</t>
+  </si>
+  <si>
+    <t>Gross hotel, the staff was unfriendly, graffiti on the walls of the elevator. Makeup on the "clean" pillow cases and towels. If you're going to stay here, bring your own linens and never walk barefoot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r419760118-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>419760118</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>Ok for the night</t>
+  </si>
+  <si>
+    <t>Quality inn missed the mark on the little things but overall it was an acceptable stay. The bed and bathroom were clean but the mattress was not that comfortable, kind of hard. I couldn't adjust the shower head in the bathroom. I grabbed the ice bucket to get ice and it had water in it already.  I was going to make coffee in the room with the little coffee maker and they only had decaf packets.  The property was quiet so I was able to sleep. If I were staying longer than one night, I'd choose a different hotel though.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Quality inn missed the mark on the little things but overall it was an acceptable stay. The bed and bathroom were clean but the mattress was not that comfortable, kind of hard. I couldn't adjust the shower head in the bathroom. I grabbed the ice bucket to get ice and it had water in it already.  I was going to make coffee in the room with the little coffee maker and they only had decaf packets.  The property was quiet so I was able to sleep. If I were staying longer than one night, I'd choose a different hotel though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r411536755-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>411536755</t>
+  </si>
+  <si>
+    <t>08/27/2016</t>
+  </si>
+  <si>
+    <t>Good experience and plenty of things around so you can walk to dinner and not have to bother with driving your car.  If you want to be in this area for the night make sure to make a reservation as this place was booked solid the night I stayed by 5pm and all the other motels were too.  Seems to be a busy area to stay inMoreShow less</t>
+  </si>
+  <si>
+    <t>Kim K, Guest Relations Manager at Quality Inn &amp; Suites, responded to this reviewResponded September 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2016</t>
+  </si>
+  <si>
+    <t>Good experience and plenty of things around so you can walk to dinner and not have to bother with driving your car.  If you want to be in this area for the night make sure to make a reservation as this place was booked solid the night I stayed by 5pm and all the other motels were too.  Seems to be a busy area to stay inMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r400617272-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>400617272</t>
+  </si>
+  <si>
+    <t>08/02/2016</t>
+  </si>
+  <si>
+    <t>Works for us!</t>
+  </si>
+  <si>
+    <t>Met our expectations for a quick evening snooze. Was clean and good value. Convenient location right next to highway 6/Colfax and relatively easy access to I 70. Staff was accommodating. Breakfast was OK-nothing fancy for sure… About what I expected. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Kim K, Guest Relations Manager at Quality Inn &amp; Suites, responded to this reviewResponded August 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2016</t>
+  </si>
+  <si>
+    <t>Met our expectations for a quick evening snooze. Was clean and good value. Convenient location right next to highway 6/Colfax and relatively easy access to I 70. Staff was accommodating. Breakfast was OK-nothing fancy for sure… About what I expected. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r398655004-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>398655004</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>a value even if it showing it's age</t>
+  </si>
+  <si>
+    <t>Rooms are fine for just a night or so... Location is good. Babies crying 6 rooms away.. YIKES!! Returned from working on the 2nd day stay and the room was half done.. My bed was tossed together trash can was not emptied, and no bath floor mat or hand towels for the sink had been laid out.. There was an outside light there boar in and brightened up the whole room like lights had been left on.. Tough sleeping.. Breakfast was good. Nice selection.. Printer at business station did not work.. My front staff experience was fine.. So all in all I was ok but not a first choice for next time,..MoreShow less</t>
+  </si>
+  <si>
+    <t>Rooms are fine for just a night or so... Location is good. Babies crying 6 rooms away.. YIKES!! Returned from working on the 2nd day stay and the room was half done.. My bed was tossed together trash can was not emptied, and no bath floor mat or hand towels for the sink had been laid out.. There was an outside light there boar in and brightened up the whole room like lights had been left on.. Tough sleeping.. Breakfast was good. Nice selection.. Printer at business station did not work.. My front staff experience was fine.. So all in all I was ok but not a first choice for next time,..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r383435392-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>383435392</t>
+  </si>
+  <si>
+    <t>06/17/2016</t>
+  </si>
+  <si>
+    <t>Nice, but very smoky</t>
+  </si>
+  <si>
+    <t>They are working hard to improve the property (it is June 2016 now).The smell of tobacco smoke permeates the building from the time I walked, and it also remains attached to my clothing a day later.  They currently do not allow smoking in the building.They obviously are trying hard to remove the smell, but that is going to take some time.The room was nice (but still smelled of tobacco). The room had a small fridge, microwave, and coffee maker.The shower was very nice, and had more flow than most hotel showers.I would stay here again if the price is competitive, but likely would not pay a premium.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Kim K, Guest Relations Manager at Quality Inn &amp; Suites, responded to this reviewResponded June 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2016</t>
+  </si>
+  <si>
+    <t>They are working hard to improve the property (it is June 2016 now).The smell of tobacco smoke permeates the building from the time I walked, and it also remains attached to my clothing a day later.  They currently do not allow smoking in the building.They obviously are trying hard to remove the smell, but that is going to take some time.The room was nice (but still smelled of tobacco). The room had a small fridge, microwave, and coffee maker.The shower was very nice, and had more flow than most hotel showers.I would stay here again if the price is competitive, but likely would not pay a premium.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r377711606-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>377711606</t>
+  </si>
+  <si>
+    <t>05/29/2016</t>
+  </si>
+  <si>
+    <t>Never again!</t>
+  </si>
+  <si>
+    <t>My check-in experience was actually quite good. The staff was friendly and courteous.  The facility is beginning to show wear and tear. Maintenance could use a lot of improvement. Housekeeping never made it to our room after our second night of a three night stay. There is plenty of room for improvement.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Kim K, Guest Relations Manager at Quality Inn &amp; Suites, responded to this reviewResponded May 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2016</t>
+  </si>
+  <si>
+    <t>My check-in experience was actually quite good. The staff was friendly and courteous.  The facility is beginning to show wear and tear. Maintenance could use a lot of improvement. Housekeeping never made it to our room after our second night of a three night stay. There is plenty of room for improvement.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r374098974-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>374098974</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>Deferred maintenance - dirty</t>
+  </si>
+  <si>
+    <t>If shabby, dirty and noisy are your idea of a good time then this property is for you. We recently stayed following a concert at Red Rocks and picked the property for the value and the location. The lobby is shabby and tired. The elevator is missing the cosmetic  roof panel having been broken off at some before. It screeches and shudders to a stop convulsively. The room was dirty with visible spatter on the walls, filthy door jams, black grout, one fourth of the mirror frame was missing, the paint is chipped and coming off the walls. We were awakened very early by the maid staff knocking loudly "housekeeping " on an adjacent doorway and then chattering very loudly in spanish. The price was right at $100.00 per night. We skipped breakfast concerned about cleanliness. Is anyone managing this property? Would not suggest.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kim K, Guest Relations Manager at Quality Inn &amp; Suites, responded to this reviewResponded May 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2016</t>
+  </si>
+  <si>
+    <t>If shabby, dirty and noisy are your idea of a good time then this property is for you. We recently stayed following a concert at Red Rocks and picked the property for the value and the location. The lobby is shabby and tired. The elevator is missing the cosmetic  roof panel having been broken off at some before. It screeches and shudders to a stop convulsively. The room was dirty with visible spatter on the walls, filthy door jams, black grout, one fourth of the mirror frame was missing, the paint is chipped and coming off the walls. We were awakened very early by the maid staff knocking loudly "housekeeping " on an adjacent doorway and then chattering very loudly in spanish. The price was right at $100.00 per night. We skipped breakfast concerned about cleanliness. Is anyone managing this property? Would not suggest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r374041204-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>374041204</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Decent price (for the area). Clean room, walls are cracked in the bathroom and at the outside wall. Beds were comfortable, air conditioner  worked. Breakfast was the usual fare. Would stay again. Here is the usual disclaimer to reach the 200 word minimum. MoreShow less</t>
+  </si>
+  <si>
+    <t>Decent price (for the area). Clean room, walls are cracked in the bathroom and at the outside wall. Beds were comfortable, air conditioner  worked. Breakfast was the usual fare. Would stay again. Here is the usual disclaimer to reach the 200 word minimum. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r360491305-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>360491305</t>
+  </si>
+  <si>
+    <t>03/31/2016</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>I was originally scheduled to stay here for two days; unfortunately, snow cancelled my flight to Denver.  I called the hotel and they graciously changed my stay to one night (without a change in the rate...which has actually happened at other hotels). My room was comfortable and the bathroom adequate.  The breakfast was what one typically finds at a QIS. On the downside, I was never recognized as being a Choice member, i.e., I never received my Choice welcome "kit."</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r355437847-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>355437847</t>
+  </si>
+  <si>
+    <t>03/14/2016</t>
+  </si>
+  <si>
+    <t>Soft tissue</t>
+  </si>
+  <si>
+    <t>We chose this inn in Lakewood because the rate for.seniors was really good.  We found it to be every thing we wanted, very clean, convenient eating places, comfortable beds, a desk in front of a mirror for easy grooming, comfortable new chairs, hot water, and equipped with everything you expect in a modern inn.  I was so glad to find easy to reach electric outlets, enough for charging our phones and my tablet, and still have outlets for our appliances.  Two of the friendly staff, Patrick and Susie, graciously helped me with a problem I had with my tablet.  The breakfast provided was varied and above expectations.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r341968315-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>341968315</t>
+  </si>
+  <si>
+    <t>01/22/2016</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE UNTIL THEY CHANGE THEIR POLICY ON ID!!!!!</t>
+  </si>
+  <si>
+    <t>This hotel REQUIRES an actual COPY of your drivers license to check in--they will send you away if you refuse.  Everything an identity thief needs to steal your ID is on that piece of paper--and you have no control over it once you leave the desk.  This is not a Choice Hotels policy--it is merely one overzealous franchisee.It is absolutely insane in today's world to let a hotel keep a copy of your drivers license.  I have no problem SHOWING them the ID, and I could even be okay with them writing down the number, but there is absolutely NO reason for them to need a copy of it.If you value your identity, I would recommend staying elsewhere until they learn that this policy is dangerous for their guests.......MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>This hotel REQUIRES an actual COPY of your drivers license to check in--they will send you away if you refuse.  Everything an identity thief needs to steal your ID is on that piece of paper--and you have no control over it once you leave the desk.  This is not a Choice Hotels policy--it is merely one overzealous franchisee.It is absolutely insane in today's world to let a hotel keep a copy of your drivers license.  I have no problem SHOWING them the ID, and I could even be okay with them writing down the number, but there is absolutely NO reason for them to need a copy of it.If you value your identity, I would recommend staying elsewhere until they learn that this policy is dangerous for their guests.......More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r311034373-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>311034373</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>Saved my vacation!</t>
+  </si>
+  <si>
+    <t>Stood here last minute after my reservation at another hotel fell through. The rooms are clean and updated. Loved how spacious and comfortable the beds were. Breakfast was typical. I enjoyed the pancakes and sausage. Definitely would stay there again.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r310989010-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>310989010</t>
+  </si>
+  <si>
+    <t>BEWARE AND GO ELSEWHERE!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>9/12-14/15 - BEWARE AND GO ELSEWHERE!!!!!!!!!! Quality Inn in Lakewood, CO - I made the reservation in advance and requested a ground floor room due to my 80 year old handicapped mother. Received the confirmation and was told it wouldn’t be a problem and that we should be able to check in early. Called the morning of and was told we could check in early and confirmed everything. Got a call later that day asking if I was still checking in and said that the credit card they had on file didn’t work and when I asked about the ground floor room, I was told that they didn’t have that information. They said they were full and couldn’t put us on the ground floor and put us on the 2nd floor in room 209. The room was dirty. There was a hole in the shower wall, the plate was about to fall off and the shower curtain didn’t cover the tub, so water got everywhere. Went to breakfast yesterday (9/13) morning and they ran out of food. Went to check out this morning and the elevator is broken down!!! I asked the front desk when it would be fixed and they said that the repairman was called and should be there around 7am to 7:15am. We left at 8:30am and the repairman still hadn’t shown up and we had to get my 80 year old mother down the steps with...9/12-14/15 - BEWARE AND GO ELSEWHERE!!!!!!!!!! Quality Inn in Lakewood, CO - I made the reservation in advance and requested a ground floor room due to my 80 year old handicapped mother. Received the confirmation and was told it wouldn’t be a problem and that we should be able to check in early. Called the morning of and was told we could check in early and confirmed everything. Got a call later that day asking if I was still checking in and said that the credit card they had on file didn’t work and when I asked about the ground floor room, I was told that they didn’t have that information. They said they were full and couldn’t put us on the ground floor and put us on the 2nd floor in room 209. The room was dirty. There was a hole in the shower wall, the plate was about to fall off and the shower curtain didn’t cover the tub, so water got everywhere. Went to breakfast yesterday (9/13) morning and they ran out of food. Went to check out this morning and the elevator is broken down!!! I asked the front desk when it would be fixed and they said that the repairman was called and should be there around 7am to 7:15am. We left at 8:30am and the repairman still hadn’t shown up and we had to get my 80 year old mother down the steps with her walker!!! My daughter stayed in room 204 and it was filthy as well. She found an old bar of soap in the shower and when she walked from the shower to the bed her feet were black from the filth. Also her door didn’t shut on its own and could be pushed open without a problem. The staff didn’t seem to care about our problems at all!!! I will never stay there again!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>9/12-14/15 - BEWARE AND GO ELSEWHERE!!!!!!!!!! Quality Inn in Lakewood, CO - I made the reservation in advance and requested a ground floor room due to my 80 year old handicapped mother. Received the confirmation and was told it wouldn’t be a problem and that we should be able to check in early. Called the morning of and was told we could check in early and confirmed everything. Got a call later that day asking if I was still checking in and said that the credit card they had on file didn’t work and when I asked about the ground floor room, I was told that they didn’t have that information. They said they were full and couldn’t put us on the ground floor and put us on the 2nd floor in room 209. The room was dirty. There was a hole in the shower wall, the plate was about to fall off and the shower curtain didn’t cover the tub, so water got everywhere. Went to breakfast yesterday (9/13) morning and they ran out of food. Went to check out this morning and the elevator is broken down!!! I asked the front desk when it would be fixed and they said that the repairman was called and should be there around 7am to 7:15am. We left at 8:30am and the repairman still hadn’t shown up and we had to get my 80 year old mother down the steps with...9/12-14/15 - BEWARE AND GO ELSEWHERE!!!!!!!!!! Quality Inn in Lakewood, CO - I made the reservation in advance and requested a ground floor room due to my 80 year old handicapped mother. Received the confirmation and was told it wouldn’t be a problem and that we should be able to check in early. Called the morning of and was told we could check in early and confirmed everything. Got a call later that day asking if I was still checking in and said that the credit card they had on file didn’t work and when I asked about the ground floor room, I was told that they didn’t have that information. They said they were full and couldn’t put us on the ground floor and put us on the 2nd floor in room 209. The room was dirty. There was a hole in the shower wall, the plate was about to fall off and the shower curtain didn’t cover the tub, so water got everywhere. Went to breakfast yesterday (9/13) morning and they ran out of food. Went to check out this morning and the elevator is broken down!!! I asked the front desk when it would be fixed and they said that the repairman was called and should be there around 7am to 7:15am. We left at 8:30am and the repairman still hadn’t shown up and we had to get my 80 year old mother down the steps with her walker!!! My daughter stayed in room 204 and it was filthy as well. She found an old bar of soap in the shower and when she walked from the shower to the bed her feet were black from the filth. Also her door didn’t shut on its own and could be pushed open without a problem. The staff didn’t seem to care about our problems at all!!! I will never stay there again!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r310718206-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>310718206</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>Needs some TLC</t>
+  </si>
+  <si>
+    <t>Room was clean and comfortable enough.  However the elevator quit working the afternoon we got there, and was still inoperable the next day.  Of the three vending machines I saw, two were empty and the third had a sign posted "Notify desk and we will come up and unlock the machine for you" - it was broken.  On the bright side, the breakfast was more than I expected, with sausage patties and scrambled eggs in addition to the waffles, cereal and pastries that have become the norm in most hotels.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r300087360-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>300087360</t>
+  </si>
+  <si>
+    <t>08/16/2015</t>
+  </si>
+  <si>
+    <t>Filthy hotel!</t>
+  </si>
+  <si>
+    <t>They need to change their name--Quality is definitely not a fitting name. My first clue was when I got to the front door--the handles were absolutely filthy! When I got to the room, it had a terrible smell--supposedly I was given a non-smoking room, but I don't think so. I went to the bathroom sink to wash my hands and no water came out. I checked the pillows and sheets on my bed and they were dirty. I went downstairs and told them what I had found and told them I would not stay there. The young man at the front desk told me he could try to find sheets that weren't stained, but they couldn't afford brand new sheets like larger hotels--blah, blah, blah. Really? They did credit my card and I could not leave quickly enough. I will never stay at a "Quality" Inn again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>They need to change their name--Quality is definitely not a fitting name. My first clue was when I got to the front door--the handles were absolutely filthy! When I got to the room, it had a terrible smell--supposedly I was given a non-smoking room, but I don't think so. I went to the bathroom sink to wash my hands and no water came out. I checked the pillows and sheets on my bed and they were dirty. I went downstairs and told them what I had found and told them I would not stay there. The young man at the front desk told me he could try to find sheets that weren't stained, but they couldn't afford brand new sheets like larger hotels--blah, blah, blah. Really? They did credit my card and I could not leave quickly enough. I will never stay at a "Quality" Inn again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r297370574-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>297370574</t>
+  </si>
+  <si>
+    <t>08/09/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impressed! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My family stayed here the first weekend of Aug. The lobby area was clean and the staff were very friendly. The hotel is in decent shape. When we got to our room which was a king bed with a fold out sofa we were impressed with how big it was. The bathroom was also big. The room was clean, the pool and hottub were clean as well. I will be staying here again and I will also recommend it others. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r292579449-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>292579449</t>
+  </si>
+  <si>
+    <t>07/26/2015</t>
+  </si>
+  <si>
+    <t>Average Quality Inn</t>
+  </si>
+  <si>
+    <t>A little dirty and a little run down, but from my experience that is typical for Denver. This place has decent sized rooms, friendly staff, and a decent breakfast offering. It is close to Red Rocks and Bandimeer Speedway.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r281373797-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>281373797</t>
+  </si>
+  <si>
+    <t>06/19/2015</t>
+  </si>
+  <si>
+    <t>Cigarette Smoke Galore!</t>
+  </si>
+  <si>
+    <t>Our room was filled with cigarette smoke upon check-in and when we told the front desk clerk, we were told that the hotel was booked and they couldn't do anything for us. Went next door to Comfort Inn and Suites and were taken care of and happy in our smokeless room. There are signs posted everywhere stating that the Quality Inn and Suites is a non-smoking hotel but this is definitely NOT the truth as we smelled cigarette smoke as soon as we exited the elevator. In addition, this hotel looks tired and in serious need of some deep cleaning and renovations. *If you are a smoker, you'll be at home here at this hotel*MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Our room was filled with cigarette smoke upon check-in and when we told the front desk clerk, we were told that the hotel was booked and they couldn't do anything for us. Went next door to Comfort Inn and Suites and were taken care of and happy in our smokeless room. There are signs posted everywhere stating that the Quality Inn and Suites is a non-smoking hotel but this is definitely NOT the truth as we smelled cigarette smoke as soon as we exited the elevator. In addition, this hotel looks tired and in serious need of some deep cleaning and renovations. *If you are a smoker, you'll be at home here at this hotel*More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r279917470-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>279917470</t>
+  </si>
+  <si>
+    <t>06/13/2015</t>
+  </si>
+  <si>
+    <t>One night in Lakewood</t>
+  </si>
+  <si>
+    <t>Sarah and I stayed here for one night while attending a concert at Red Rocks (the best venue in the world!).  Our room, a king suite, was spacious, well equipped and clean.  The free breakfast exceeded my expectations by far. The only problem we had was the hair dryer crapped out on Sarah, but she was able to get a new one from the front desk that worked great!  Location was very convenient to major highways.  Overall, a very pleasant stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r277276160-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>277276160</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t>Good for a quick trip but not an extended stay</t>
+  </si>
+  <si>
+    <t>It was a good location, close to the highway, stores, activities and safe area. The hotel was fairly clean. It was good for what we needed it for, 2 nights to sleep somewhere. The negatives were someone was in a fight or something in our room because their was a hole in the bathroom door and the bathroom shower, which was covered with plastic. They should have fixed that before renting that room out. The room door kept getting stuck because the latch was not screwed in. The halls smelled like weed, I get we are in Colorado, but for how much the front desk lady lectured me about not smoking cigarettes in the room, I would think it would not smell like weed. The breakfast was also a disappointment. Overall for the price, it was ok for a quick trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>It was a good location, close to the highway, stores, activities and safe area. The hotel was fairly clean. It was good for what we needed it for, 2 nights to sleep somewhere. The negatives were someone was in a fight or something in our room because their was a hole in the bathroom door and the bathroom shower, which was covered with plastic. They should have fixed that before renting that room out. The room door kept getting stuck because the latch was not screwed in. The halls smelled like weed, I get we are in Colorado, but for how much the front desk lady lectured me about not smoking cigarettes in the room, I would think it would not smell like weed. The breakfast was also a disappointment. Overall for the price, it was ok for a quick trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r262571295-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>262571295</t>
+  </si>
+  <si>
+    <t>03/29/2015</t>
+  </si>
+  <si>
+    <t>Not impressed</t>
+  </si>
+  <si>
+    <t>We had booked this room in advance on booking.com, brought the PIN and confirmation code to the hotel, and they didn't get our reservation. I don't know if this was an error on booking.com's end or the hotel's end, but it was disappointing. They were unable to honor the rate we were initially quoted as well. Regardless, we needed a place to stay, and the lady at the front desk was very friendly and helped us get a room even though it wasn't what we wanted. The elevator was shaky, creaky, and unsettling. I opted for the stairs for the remainder of our stay. There was a big paint bucket in our hallway catching water from a leak in the ceiling. The building looked old and worn down. The blankets and sheets were old and scratchy and uncomfortable. The mattress itself was pretty comfy, though. The hallway also smelled like smoke, and the walls must have been thin because we could hear everything going on in the room beside us. I thought that maybe that's just what you get when you only pay $87 a night, but we stayed in another hotel in Colorado Springs for the same price and it was REALLY nice. So, not worth our money. It wasn't a TERRIBLE experience, but I don't feel like I got much for the money I spent.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>We had booked this room in advance on booking.com, brought the PIN and confirmation code to the hotel, and they didn't get our reservation. I don't know if this was an error on booking.com's end or the hotel's end, but it was disappointing. They were unable to honor the rate we were initially quoted as well. Regardless, we needed a place to stay, and the lady at the front desk was very friendly and helped us get a room even though it wasn't what we wanted. The elevator was shaky, creaky, and unsettling. I opted for the stairs for the remainder of our stay. There was a big paint bucket in our hallway catching water from a leak in the ceiling. The building looked old and worn down. The blankets and sheets were old and scratchy and uncomfortable. The mattress itself was pretty comfy, though. The hallway also smelled like smoke, and the walls must have been thin because we could hear everything going on in the room beside us. I thought that maybe that's just what you get when you only pay $87 a night, but we stayed in another hotel in Colorado Springs for the same price and it was REALLY nice. So, not worth our money. It wasn't a TERRIBLE experience, but I don't feel like I got much for the money I spent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r258731096-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>258731096</t>
+  </si>
+  <si>
+    <t>03/10/2015</t>
+  </si>
+  <si>
+    <t>Disappointed for the price</t>
+  </si>
+  <si>
+    <t>I wished had gone across the street and got a room at the Holiday Inn it would have been cheaper than the suite plus it had a restaurant onsite.  Upon checking in the room they issued had a strong odor of cigarette smoke even though the entire hotel was non-smoking.  So we had to get another room on the 2nd floor.  The floor appearance was not great as ceiling tiles were missing and water was leaking down on people as they walked through the hallway.  The room itself was not bad but furniture had been abused (iron burnt imprint on chair) and the door would slam shut.    Overall the room was clean and not too shabby but then again I paid for a suite.  Upon checking in I requested late check-out by one hour which was approved.  At 1201 my key card quit working luckily I still had a family member in the room or we would have been locked out taking our luggage to the car.  I would not recommend this hotel to anyone as there are several within the same location.MoreShow less</t>
+  </si>
+  <si>
+    <t>I wished had gone across the street and got a room at the Holiday Inn it would have been cheaper than the suite plus it had a restaurant onsite.  Upon checking in the room they issued had a strong odor of cigarette smoke even though the entire hotel was non-smoking.  So we had to get another room on the 2nd floor.  The floor appearance was not great as ceiling tiles were missing and water was leaking down on people as they walked through the hallway.  The room itself was not bad but furniture had been abused (iron burnt imprint on chair) and the door would slam shut.    Overall the room was clean and not too shabby but then again I paid for a suite.  Upon checking in I requested late check-out by one hour which was approved.  At 1201 my key card quit working luckily I still had a family member in the room or we would have been locked out taking our luggage to the car.  I would not recommend this hotel to anyone as there are several within the same location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r251472118-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>251472118</t>
+  </si>
+  <si>
+    <t>01/28/2015</t>
+  </si>
+  <si>
+    <t>Horrible motel</t>
+  </si>
+  <si>
+    <t>This motel is nasty. A homeless guy jumped on the back of my truck and tried to bust my window. I complained to the front desk they did nothing and took my late check out. This is a awful motel there were spots of fluids all over the walls and ceilings like someone threw stuff everywhere the blankets had holes in them and the bathroom had mold growing in it</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r231904837-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>231904837</t>
+  </si>
+  <si>
+    <t>09/30/2014</t>
+  </si>
+  <si>
+    <t>Very Disappointed!!!</t>
+  </si>
+  <si>
+    <t>On business we were put up at this Quality Inn and I have to say it was not a good week. The hotel claims to be smoke free however the halls CONSTANTLY smelled of marijuana! I couldn't open my window to air the smell out of the room because there was not a screen and bees would come in. Morning, noon and night the smell was awful! The breakfast offered was just ok---the eggs were dry and not much to choose from. The side entrance to the hotel claimed to be locked 24 hours for guest safety but the lock was broke the entire visit, allowing anyone to enter the hotel at any time. The room itself is spacious and for the most part clean, you can tell the housekeepers work hard. However, the front desk staff was mostly rude and not helpful. The elevator seems to be on the decline as it is a jerky ride up and down. If you have little ones that you don't want around marijuana, do not stay here!!!The plus side is the Old Chicago across the street! Overall, I would give this hotel a poor rating and hope that in the future they attempt to make it right. I would not stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>On business we were put up at this Quality Inn and I have to say it was not a good week. The hotel claims to be smoke free however the halls CONSTANTLY smelled of marijuana! I couldn't open my window to air the smell out of the room because there was not a screen and bees would come in. Morning, noon and night the smell was awful! The breakfast offered was just ok---the eggs were dry and not much to choose from. The side entrance to the hotel claimed to be locked 24 hours for guest safety but the lock was broke the entire visit, allowing anyone to enter the hotel at any time. The room itself is spacious and for the most part clean, you can tell the housekeepers work hard. However, the front desk staff was mostly rude and not helpful. The elevator seems to be on the decline as it is a jerky ride up and down. If you have little ones that you don't want around marijuana, do not stay here!!!The plus side is the Old Chicago across the street! Overall, I would give this hotel a poor rating and hope that in the future they attempt to make it right. I would not stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r230129921-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>230129921</t>
+  </si>
+  <si>
+    <t>09/21/2014</t>
+  </si>
+  <si>
+    <t>Decent for the price</t>
+  </si>
+  <si>
+    <t>Before arriving I was very concerned the room would be dirty and moldy, but was pleasantly surprised my room was clean! However, the positive surprises ended there. During my stay they ran out of regular coffee for the in room coffee makers. Even after I saw a shipment of coffee being delivered, the staff continued to only refill the decaf coffee in the rooms. I would advise staying away from any breakfast food they prepared (stick to prepackaged food being offered). For a cheap and clean place to stay for a night or two the Quality Inn would be fine, but I would not recommend longer stays if they can be avoided.MoreShow less</t>
+  </si>
+  <si>
+    <t>Before arriving I was very concerned the room would be dirty and moldy, but was pleasantly surprised my room was clean! However, the positive surprises ended there. During my stay they ran out of regular coffee for the in room coffee makers. Even after I saw a shipment of coffee being delivered, the staff continued to only refill the decaf coffee in the rooms. I would advise staying away from any breakfast food they prepared (stick to prepackaged food being offered). For a cheap and clean place to stay for a night or two the Quality Inn would be fine, but I would not recommend longer stays if they can be avoided.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r222032082-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>222032082</t>
+  </si>
+  <si>
+    <t>08/15/2014</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>Great rate for two rooms for me and the kids. Hotels fully booked, we got the last two rooms. One of the rooms they gave us not been cleaned, but the desk clerk was nice enough to personally search another room which the computer said was still dirty, but had actually been cleaned. Air-conditioning units in both rooms worked poorly, and one room smelled like it had been spoke to him even though it was a no smoking hotel. The hotel marketed Domino's pizza as it's preferred dining option, and the second floor hallway smelled like old pizza. Okay for a cheap hotel at a cheap price.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r211211777-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>211211777</t>
+  </si>
+  <si>
+    <t>06/20/2014</t>
+  </si>
+  <si>
+    <t>Week long stay</t>
+  </si>
+  <si>
+    <t>We stayed there February 20-26 while visiting family in the area.  Room was clean and quite comfortable.  Cleaning staff was very friendly as was the desk staff.  All eager to help.  If we were in Denver area would definitely stay there again.  We are choice hotel members.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>GUEST_SERVICES284, Guest Relations Manager at Quality Inn &amp; Suites, responded to this reviewResponded July 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2014</t>
+  </si>
+  <si>
+    <t>We stayed there February 20-26 while visiting family in the area.  Room was clean and quite comfortable.  Cleaning staff was very friendly as was the desk staff.  All eager to help.  If we were in Denver area would definitely stay there again.  We are choice hotel members.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r209903251-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>209903251</t>
+  </si>
+  <si>
+    <t>06/11/2014</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r205009411-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>205009411</t>
+  </si>
+  <si>
+    <t>05/10/2014</t>
+  </si>
+  <si>
+    <t>Very good for one night!</t>
+  </si>
+  <si>
+    <t>The guy at the front desk was very polite and applied a discount we had found online. The room was pretty comfortable. One bed was great, the other bed was lopsided and squeaked. It was very quiet. Couldn't hear anything from the next rooms. Breakfast was good and the front area was very clean. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>The guy at the front desk was very polite and applied a discount we had found online. The room was pretty comfortable. One bed was great, the other bed was lopsided and squeaked. It was very quiet. Couldn't hear anything from the next rooms. Breakfast was good and the front area was very clean. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r198853246-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>198853246</t>
+  </si>
+  <si>
+    <t>03/26/2014</t>
+  </si>
+  <si>
+    <t>In need of overhaul</t>
+  </si>
+  <si>
+    <t>The lobby is creapy, I can't quite tell if it's dirty or just really in need of updating/repair.  Holes in the walls etc. but, the rooms are actually ok. They have newer furnishings, they certainly cut corners, but it's extremely ok.  I only stay here cuz it's a 8000 pt stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>GUEST_SERVICES284, Public Relations Manager at Quality Inn &amp; Suites, responded to this reviewResponded July 6, 2014</t>
+  </si>
+  <si>
+    <t>The lobby is creapy, I can't quite tell if it's dirty or just really in need of updating/repair.  Holes in the walls etc. but, the rooms are actually ok. They have newer furnishings, they certainly cut corners, but it's extremely ok.  I only stay here cuz it's a 8000 pt stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r198383364-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>198383364</t>
+  </si>
+  <si>
+    <t>03/23/2014</t>
+  </si>
+  <si>
+    <t>weekend away</t>
+  </si>
+  <si>
+    <t>the fold out couch had no mattress. Told thee front desk and they just said yes you have one of the old couches and they dont have mattressess.  We stayed two nights  and both mornings they had no syrup, Ran out of coffee, eggs. The breakfast bar was not attended much. We would have to tell them. MoreShow less</t>
+  </si>
+  <si>
+    <t>the fold out couch had no mattress. Told thee front desk and they just said yes you have one of the old couches and they dont have mattressess.  We stayed two nights  and both mornings they had no syrup, Ran out of coffee, eggs. The breakfast bar was not attended much. We would have to tell them. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r197779323-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>197779323</t>
+  </si>
+  <si>
+    <t>03/17/2014</t>
+  </si>
+  <si>
+    <t>Bad timing.........</t>
+  </si>
+  <si>
+    <t>My son and I stopped for the night,the staff was friendly had helpful, but the lobby was being remodeled and was told breakfast would be served across the lot at a sister hotel.In the morning the sister hotel was out of everything.....now I get that remodeling is needed and they tried to help, but the staff at the other sister hotel was complaining about us "others" and was not as friendly........it did set the tone for the rest of our day and not happy about it.......MoreShow less</t>
+  </si>
+  <si>
+    <t>My son and I stopped for the night,the staff was friendly had helpful, but the lobby was being remodeled and was told breakfast would be served across the lot at a sister hotel.In the morning the sister hotel was out of everything.....now I get that remodeling is needed and they tried to help, but the staff at the other sister hotel was complaining about us "others" and was not as friendly........it did set the tone for the rest of our day and not happy about it.......More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r188324051-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>188324051</t>
+  </si>
+  <si>
+    <t>12/22/2013</t>
+  </si>
+  <si>
+    <t>old and dumpy</t>
+  </si>
+  <si>
+    <t>this place needs an updated badly.  You walk in and you can tell that it desperately needs a remodel. The room is old and really out of date, the bed is stiff as a board, the carpet is from the late 80's, the television actually has  a tube tv !, the furniture is as old as the carpet and honestly is basic junk.  The lobby is as bad as the room, old and outdated badly.   The service is good to bad this place is such a dive.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>this place needs an updated badly.  You walk in and you can tell that it desperately needs a remodel. The room is old and really out of date, the bed is stiff as a board, the carpet is from the late 80's, the television actually has  a tube tv !, the furniture is as old as the carpet and honestly is basic junk.  The lobby is as bad as the room, old and outdated badly.   The service is good to bad this place is such a dive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r186549375-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>186549375</t>
+  </si>
+  <si>
+    <t>12/02/2013</t>
+  </si>
+  <si>
+    <t>Do not stay at this hotel its horrible!!!!</t>
+  </si>
+  <si>
+    <t>When I checked in the girl at the front desk had a bunch of people in the breakfast area she was talking with looked like having dinner. She came to desk like I was bothering her. She checked me in and when I asked where the room was she just said down the hall and went back to breakfast area with her friends. The room had cobwebs all over it. It was very disgusting and nasty. We went down for breakfast in the morning and it was pathetic. There was no cream cheese for bagels the bananas were so brown it was awful. They didnt have that much to offer. The yogurt was in tub with ice but wasnt cold at all It was a horrible experience we will never be staying at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>When I checked in the girl at the front desk had a bunch of people in the breakfast area she was talking with looked like having dinner. She came to desk like I was bothering her. She checked me in and when I asked where the room was she just said down the hall and went back to breakfast area with her friends. The room had cobwebs all over it. It was very disgusting and nasty. We went down for breakfast in the morning and it was pathetic. There was no cream cheese for bagels the bananas were so brown it was awful. They didnt have that much to offer. The yogurt was in tub with ice but wasnt cold at all It was a horrible experience we will never be staying at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r179289464-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>179289464</t>
+  </si>
+  <si>
+    <t>09/30/2013</t>
+  </si>
+  <si>
+    <t>Avoid this hotel - homeless, prostitutes, and drug users</t>
+  </si>
+  <si>
+    <t>Made a huge mistake with this place.  Had to pay for the full stay up front.  This should have been my clue to run away.They allow homeless to hang out in the lobby.  Prostitutes work the parking lot.  Drug users appear to live in the hotel.  Front desk personnel are rude and unprofessional.  The girl who checked us in had her kid and a crib behind the desk - no time for her job or the guests.I can't believe Quality Inn would allow their brand to be tarnished with this unkept, subpar property.  I can never choose a Choice Hotels property again unless I personally am familiar with the property.  This means I will just pass on Quality Inn or Comfort Suites in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Made a huge mistake with this place.  Had to pay for the full stay up front.  This should have been my clue to run away.They allow homeless to hang out in the lobby.  Prostitutes work the parking lot.  Drug users appear to live in the hotel.  Front desk personnel are rude and unprofessional.  The girl who checked us in had her kid and a crib behind the desk - no time for her job or the guests.I can't believe Quality Inn would allow their brand to be tarnished with this unkept, subpar property.  I can never choose a Choice Hotels property again unless I personally am familiar with the property.  This means I will just pass on Quality Inn or Comfort Suites in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r168612810-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>168612810</t>
+  </si>
+  <si>
+    <t>07/22/2013</t>
+  </si>
+  <si>
+    <t>Do Not Stay There!!</t>
+  </si>
+  <si>
+    <t>Inconsiderate staff; dirty; bathroom showers in terrible condition; elevator works sometimes or not at all;  guests were hesitant to get on elevator; evidently no money is put into repairs or upkeep of hotel; price gouging due do busy time of year and other hotels booked.  I cannot recommend this hotel!!!</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r163578207-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>163578207</t>
+  </si>
+  <si>
+    <t>06/10/2013</t>
+  </si>
+  <si>
+    <t>Nasty</t>
+  </si>
+  <si>
+    <t>People live in this hotel!!!  we seen it all!  Kids running halls at 1am!!  Drug users!  It was nasy gross!! yuck yuck yuck!!!!!!!!!!!!!!!!!!!!!!! The poor front desk girl was nice.  The meth head in loby was scary!  The kids with no parents running halls and jumping on beds all hours of the night and slamming the room doors!  The meth head said she lived in the hotel!  It looks ok from the outside but never again!  The beds had burn holes in them!</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r163276416-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>163276416</t>
+  </si>
+  <si>
+    <t>06/07/2013</t>
+  </si>
+  <si>
+    <t>relaxing stay</t>
+  </si>
+  <si>
+    <t>This place was well worth the money.  Had a comfortabe room  that was walking distance to restaurants.  Beds were comfortable and it was quiet.  would definitely recommend.  Breakfast was average.  The only thing I thought was questionable is that if you do not have a breakfast slip,  you have to pay $5  for breakfast.  If that was the  case, I would have just went to  Dennys  across the street.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r143948176-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>143948176</t>
+  </si>
+  <si>
+    <t>10/28/2012</t>
+  </si>
+  <si>
+    <t>Very nice stay</t>
+  </si>
+  <si>
+    <t>My 2 daughters and I stayed here for 4 nights while visiting family.  The room was very clean with a mini fridge, microwave and coffee maker.  Everything worked just fine.  The beds were extremely comfortable with plenty of pillows.  We only had housekeeping come in twice while we were there (by our choice) and they did a fantastic job.  The basic continental breakfast was hot and fresh every day.  For the most part the staff was very friendly and attentive, I only had an issue with one person who acted like they just didn't want to be there.  My only other complaint would be that the walls are VERY thin.  We had the unfortunate experience of being woken up very early one morning by a couple in the next room...not something my daughters needed to hear, but we made it through.  We did not use the business center or the ice machines.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>My 2 daughters and I stayed here for 4 nights while visiting family.  The room was very clean with a mini fridge, microwave and coffee maker.  Everything worked just fine.  The beds were extremely comfortable with plenty of pillows.  We only had housekeeping come in twice while we were there (by our choice) and they did a fantastic job.  The basic continental breakfast was hot and fresh every day.  For the most part the staff was very friendly and attentive, I only had an issue with one person who acted like they just didn't want to be there.  My only other complaint would be that the walls are VERY thin.  We had the unfortunate experience of being woken up very early one morning by a couple in the next room...not something my daughters needed to hear, but we made it through.  We did not use the business center or the ice machines.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r141608282-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>141608282</t>
+  </si>
+  <si>
+    <t>09/29/2012</t>
+  </si>
+  <si>
+    <t>Deceptive Treatment by Hotel Staff</t>
+  </si>
+  <si>
+    <t>Inn quoted a room rate including one pet.  However upon arrival the staff said the rate didn't include the additional rate for our pet.  The staff was uncooperative, rude, and refused to reach an equitable solution to the misinformation provided at the time the reservation was confirmed.   Quality Inn &amp; Suites would be my last choice in the future</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r141426239-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>141426239</t>
+  </si>
+  <si>
+    <t>09/27/2012</t>
+  </si>
+  <si>
+    <t>Average Stay</t>
+  </si>
+  <si>
+    <t>Pros: - Clean and comfortable rooms- Mini-fridge and microwave- Excellent house keeping- Easy access to the highwayCons: - Unprofessional front desk workers (had to wait several minutes to check-in while he finished a personal phone call)- "Business center" computer is not updated with new microsoft office so none of the documents I needed would print</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r141280985-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>141280985</t>
+  </si>
+  <si>
+    <t>09/25/2012</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>This facility is very nice but if you make your reservations a month or more early like I did you need to check the current rate prior to arrival.  I turned on my computer when i got to the room and the first screen was the current rate which was 17 less than I had just paid, I asked for an adj.  and was told by the mgr  that the policy that the owner had was to give 10% off what I paid.  Which was about half the over charge.  Owners policy is not good for customer relations.  Overall the facility was very nice</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r134951303-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>134951303</t>
+  </si>
+  <si>
+    <t>07/20/2012</t>
+  </si>
+  <si>
+    <t>Good value.</t>
+  </si>
+  <si>
+    <t>Good value.  Hotel seems to have been recently refurbished,  Everything was fine.  A  minor disappointment was that ice machine didn't work.  Otherwise, a decent hotel and responsive staff.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r134197970-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>134197970</t>
+  </si>
+  <si>
+    <t>07/12/2012</t>
+  </si>
+  <si>
+    <t>Not "Quality" at all</t>
+  </si>
+  <si>
+    <t>We stayed here for 6 days for a softball tournament. The manager we set everything up with was no longer there when our stay took place. She assured us we would get points for our stay. This was the main reason we chose this hotel. We were denied points by the new manager. Also never once were our sheets changed for our 6 night stay nor did my phone work properly. On several occasions we could not get anyone to help at the front desk. Stood there and waited on 2 or 3 occasions then gave up. I will not recommend a hotel that not only does not stand by their employee's promises or do the simple task of housekeeping. My rate was not that low to warrant this outcome.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>We stayed here for 6 days for a softball tournament. The manager we set everything up with was no longer there when our stay took place. She assured us we would get points for our stay. This was the main reason we chose this hotel. We were denied points by the new manager. Also never once were our sheets changed for our 6 night stay nor did my phone work properly. On several occasions we could not get anyone to help at the front desk. Stood there and waited on 2 or 3 occasions then gave up. I will not recommend a hotel that not only does not stand by their employee's promises or do the simple task of housekeeping. My rate was not that low to warrant this outcome.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r129938894-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>129938894</t>
+  </si>
+  <si>
+    <t>05/14/2012</t>
+  </si>
+  <si>
+    <t>Just ok</t>
+  </si>
+  <si>
+    <t>The stay was fine, although I was put in a non-smoking room that reeked of smoke. I called and they told me the group that was in the room the night before was kicked out for smoking.  Not a big deal, just kind of annoying. The staff when I was there was fine, today on the phone not so much.  I ended up leaving a day earlier then I though (I was on a short 2 day stay) and I was still charged for the night I didn't stay. Usually hotels/motels are very accommodating and are able to refund you with your credit card # and by checking in their system that I was not there for two nights. Unfortunately for me, I have to print off a copy of my bank statement proving I was charged for two nights, and bring it to the hotel before I can be refunded. Lucky enough I travel a lot and will be in the area again soon. If you’re not in the area or just on vacation I would not recommend of suggest staying at this Hotel. Just in case something happens, there are many hotels with much better more user friendly ways to handle customer complaints or issues.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>The stay was fine, although I was put in a non-smoking room that reeked of smoke. I called and they told me the group that was in the room the night before was kicked out for smoking.  Not a big deal, just kind of annoying. The staff when I was there was fine, today on the phone not so much.  I ended up leaving a day earlier then I though (I was on a short 2 day stay) and I was still charged for the night I didn't stay. Usually hotels/motels are very accommodating and are able to refund you with your credit card # and by checking in their system that I was not there for two nights. Unfortunately for me, I have to print off a copy of my bank statement proving I was charged for two nights, and bring it to the hotel before I can be refunded. Lucky enough I travel a lot and will be in the area again soon. If you’re not in the area or just on vacation I would not recommend of suggest staying at this Hotel. Just in case something happens, there are many hotels with much better more user friendly ways to handle customer complaints or issues.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r129313456-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>129313456</t>
+  </si>
+  <si>
+    <t>05/03/2012</t>
+  </si>
+  <si>
+    <t>Beware Lost and Found Policy</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at this Quality Inn on March 7, 2012.  She left a pair of gloves in the room, not realizing it until the next day.  We live in Colorado, but not near to Lakewood.  I called the hotel the next day, and they indeed had the gloves in their lost and found.  I asked them to put my wife's name on the gloves, and we would pick them up on our next trip to the Denver area.  Since we are planning a trip to Denver next week, I called the hotel this morning to just double check that they were still there.  Even though my wife's name had been placed on the gloves, they were disposed of (on someone's hands, probably).  We have been Choice Rewards members for many years, but with this experience, we will look at other chains for our hotel/motel need from now on.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at this Quality Inn on March 7, 2012.  She left a pair of gloves in the room, not realizing it until the next day.  We live in Colorado, but not near to Lakewood.  I called the hotel the next day, and they indeed had the gloves in their lost and found.  I asked them to put my wife's name on the gloves, and we would pick them up on our next trip to the Denver area.  Since we are planning a trip to Denver next week, I called the hotel this morning to just double check that they were still there.  Even though my wife's name had been placed on the gloves, they were disposed of (on someone's hands, probably).  We have been Choice Rewards members for many years, but with this experience, we will look at other chains for our hotel/motel need from now on.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r127937063-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>127937063</t>
+  </si>
+  <si>
+    <t>04/15/2012</t>
+  </si>
+  <si>
+    <t>Average stay</t>
+  </si>
+  <si>
+    <t>The breakfast left a lot to be desired but it was free.  The staff behind the desk were very unprofessional and acted like they were on a play date instead of at work.  The service from the cleaning personnel was outstanding as we were to stay 2 nights but decided it wasn't worth the breakfast and considered the 2nd night fee worth leaving behind.  There is NO pool here so be prepared.  The workout room is tiny but doable, although someone put the universal machine together wrong so it didn't work right.  Our room was clean and comfortable.  It had a microwave, pretty large fridge and the water pressure in the shower was great.  Other than the attendants behind the desk and the breakfast, don't expect a lot or a pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>The breakfast left a lot to be desired but it was free.  The staff behind the desk were very unprofessional and acted like they were on a play date instead of at work.  The service from the cleaning personnel was outstanding as we were to stay 2 nights but decided it wasn't worth the breakfast and considered the 2nd night fee worth leaving behind.  There is NO pool here so be prepared.  The workout room is tiny but doable, although someone put the universal machine together wrong so it didn't work right.  Our room was clean and comfortable.  It had a microwave, pretty large fridge and the water pressure in the shower was great.  Other than the attendants behind the desk and the breakfast, don't expect a lot or a pool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r121789258-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>121789258</t>
+  </si>
+  <si>
+    <t>12/15/2011</t>
+  </si>
+  <si>
+    <t>Great price clean room friendly staff.</t>
+  </si>
+  <si>
+    <t>I book this room because of the reviews it's an older hotel but the price was right the service was great room clean and for me the bed good i sleep good.  Just remember this is great value for what u get</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r119967168-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>119967168</t>
+  </si>
+  <si>
+    <t>10/31/2011</t>
+  </si>
+  <si>
+    <t>Quick stop at Quality Inn</t>
+  </si>
+  <si>
+    <t>Clean room and a great breakfast.  Courteous staff.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r118983077-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>118983077</t>
+  </si>
+  <si>
+    <t>10/05/2011</t>
+  </si>
+  <si>
+    <t>Wonderful staff</t>
+  </si>
+  <si>
+    <t>I was staying here while trying to find my lost dog, who escaped the shipper  while being transported from Tennesse to Wyoming.  It was a very stressful time for me and the staff all were so kind and helpful.  The room was clean and I loved the 4 pillows on each bed.  Microwave and refrigerator and the in room coffee pot was great.  Although I was only in the room for a few hours at night, it was quiet and they were kind enough to put me on the first floor.  I got a great rate also.  I didn't find my dog but hopefully with all the poster I put up and sightings I've had since coming home someone will find her and if so I will stay there again.  The full breakfast was standard but was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was staying here while trying to find my lost dog, who escaped the shipper  while being transported from Tennesse to Wyoming.  It was a very stressful time for me and the staff all were so kind and helpful.  The room was clean and I loved the 4 pillows on each bed.  Microwave and refrigerator and the in room coffee pot was great.  Although I was only in the room for a few hours at night, it was quiet and they were kind enough to put me on the first floor.  I got a great rate also.  I didn't find my dog but hopefully with all the poster I put up and sightings I've had since coming home someone will find her and if so I will stay there again.  The full breakfast was standard but was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r86218447-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>86218447</t>
+  </si>
+  <si>
+    <t>11/06/2010</t>
+  </si>
+  <si>
+    <t>SO SO</t>
+  </si>
+  <si>
+    <t>The good: it was clean and in a good location for what we needed to do. The rooms as well as the lobby were clean even when they were doing some remodeling, Beds were ok, Day break breakfest was ok not the best but ok.The not so good at 9am even if you were still eating breakfest they came in and shut it down,and started taking away things even if you were still eating not asking if you needed something else. I would recommend it to a freind but with some reservations.</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r77012295-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>77012295</t>
+  </si>
+  <si>
+    <t>08/26/2010</t>
+  </si>
+  <si>
+    <t>Very nice Super 8</t>
+  </si>
+  <si>
+    <t>We stayed here on a trip through Colorado.  The clerk was very nice even asking if the room was ok when we were leaving for dinner.  It had all the amenities we expected such as blow dryers, irons,and laundry bags.  It had a nice size fridge and a microwave.  We would stay here again if in the area.</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r75301140-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>75301140</t>
+  </si>
+  <si>
+    <t>08/15/2010</t>
+  </si>
+  <si>
+    <t>Nice Super 8</t>
+  </si>
+  <si>
+    <t>This was probably one of the nicer Super 8 locations I've ever stayed at. The location was nice with lots of things nearby.The hotel was nice and clean, the staff was informative. The hotel was quiet and had a nice breakfast with a waffle maker. We didn't have any problems with the hotel. We had booked it for two nights, but changed our minds to one night and had not problem canceling the second night.I can't think of any problems with the hotel, would stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r62358141-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>62358141</t>
+  </si>
+  <si>
+    <t>04/25/2010</t>
+  </si>
+  <si>
+    <t>One of the best Super 8's I've stayed in</t>
+  </si>
+  <si>
+    <t>Nice quiet location for this large motel.  Everything just perfect, staff efficiency, building cleanliness. I couldn't find a fault anywhere. For convenient dining, as short walk to the Holiday Inn for excellent food and service. I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r33246410-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>33246410</t>
+  </si>
+  <si>
+    <t>06/26/2009</t>
+  </si>
+  <si>
+    <t>Very Friendly Staff</t>
+  </si>
+  <si>
+    <t>I usually don't like staying at Super 8's because, well ... they are Super 8's.  But somehow I decided to choose this one over the others in the area, don't ask me why, I just wanted a good place to stay as I was not planning to spend time in the rooms much.
+I booked here for 3 days in June.  Check-in was a breeze with very friendly and helpful staff.  I was surprised by this actually because a lot of hotel staffs I have experienced at other places have been horrid, but they met my expectations here.  I did chat with the front desk a little and found out the place recently went under new ownership, so maybe thats why everyone was so friendly, trying to bring in new customers maybe, I don't know.  The room itself seemed kind of dated and it seems the sheets could use replacement, but nothing major.  The towels were not very soft, but clean.  Also, compared with other hotels, I don't think they put enough towels in the room.  I'm the type of person that don't like my hotel rooms entered for the duration of my stay; therefore, I had to request more towels at least twice.  This had never been a problem at other hotels.  The bathroom was decent and clean, but pretty small, but maybe this varies with what type of room you get.
+I was placed on the first floor...I usually don't like staying at Super 8's because, well ... they are Super 8's.  But somehow I decided to choose this one over the others in the area, don't ask me why, I just wanted a good place to stay as I was not planning to spend time in the rooms much.I booked here for 3 days in June.  Check-in was a breeze with very friendly and helpful staff.  I was surprised by this actually because a lot of hotel staffs I have experienced at other places have been horrid, but they met my expectations here.  I did chat with the front desk a little and found out the place recently went under new ownership, so maybe thats why everyone was so friendly, trying to bring in new customers maybe, I don't know.  The room itself seemed kind of dated and it seems the sheets could use replacement, but nothing major.  The towels were not very soft, but clean.  Also, compared with other hotels, I don't think they put enough towels in the room.  I'm the type of person that don't like my hotel rooms entered for the duration of my stay; therefore, I had to request more towels at least twice.  This had never been a problem at other hotels.  The bathroom was decent and clean, but pretty small, but maybe this varies with what type of room you get.I was placed on the first floor and the waffle maker going off in the morning kept waking me up.  I'm pretty sure I could've requested a new room on the 2nd floor or something, but I didn't want to bother with moving rooms.  If you stay here and are a light sleeper, definately request a room on the 2nd floor or higher.  There was not enough sockets in the room to accomodate all my peripherals I needed to plug in (laptops, cell phone charger, digital camera charger, etc).  I had to unplug some lamps in order to use the sockets I needed and thus my room remained pretty dark.All in all, I had no complaints.  There were some minor things that got on my nerves, but not enough that I wouldn't recommended anyone staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>I usually don't like staying at Super 8's because, well ... they are Super 8's.  But somehow I decided to choose this one over the others in the area, don't ask me why, I just wanted a good place to stay as I was not planning to spend time in the rooms much.
+I booked here for 3 days in June.  Check-in was a breeze with very friendly and helpful staff.  I was surprised by this actually because a lot of hotel staffs I have experienced at other places have been horrid, but they met my expectations here.  I did chat with the front desk a little and found out the place recently went under new ownership, so maybe thats why everyone was so friendly, trying to bring in new customers maybe, I don't know.  The room itself seemed kind of dated and it seems the sheets could use replacement, but nothing major.  The towels were not very soft, but clean.  Also, compared with other hotels, I don't think they put enough towels in the room.  I'm the type of person that don't like my hotel rooms entered for the duration of my stay; therefore, I had to request more towels at least twice.  This had never been a problem at other hotels.  The bathroom was decent and clean, but pretty small, but maybe this varies with what type of room you get.
+I was placed on the first floor...I usually don't like staying at Super 8's because, well ... they are Super 8's.  But somehow I decided to choose this one over the others in the area, don't ask me why, I just wanted a good place to stay as I was not planning to spend time in the rooms much.I booked here for 3 days in June.  Check-in was a breeze with very friendly and helpful staff.  I was surprised by this actually because a lot of hotel staffs I have experienced at other places have been horrid, but they met my expectations here.  I did chat with the front desk a little and found out the place recently went under new ownership, so maybe thats why everyone was so friendly, trying to bring in new customers maybe, I don't know.  The room itself seemed kind of dated and it seems the sheets could use replacement, but nothing major.  The towels were not very soft, but clean.  Also, compared with other hotels, I don't think they put enough towels in the room.  I'm the type of person that don't like my hotel rooms entered for the duration of my stay; therefore, I had to request more towels at least twice.  This had never been a problem at other hotels.  The bathroom was decent and clean, but pretty small, but maybe this varies with what type of room you get.I was placed on the first floor and the waffle maker going off in the morning kept waking me up.  I'm pretty sure I could've requested a new room on the 2nd floor or something, but I didn't want to bother with moving rooms.  If you stay here and are a light sleeper, definately request a room on the 2nd floor or higher.  There was not enough sockets in the room to accomodate all my peripherals I needed to plug in (laptops, cell phone charger, digital camera charger, etc).  I had to unplug some lamps in order to use the sockets I needed and thus my room remained pretty dark.All in all, I had no complaints.  There were some minor things that got on my nerves, but not enough that I wouldn't recommended anyone staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r11515139-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>11515139</t>
+  </si>
+  <si>
+    <t>12/12/2007</t>
+  </si>
+  <si>
+    <t>Management Neglect of customers and facilities</t>
+  </si>
+  <si>
+    <t>I will fill out this review in full when the ongoing dispute with management is resolved and the total lack of personal involvement and professional customer service is provided by the general manager.  As of now, I would not recomemmed this hotel at any price.  Please call Mr. Eric Torgersen - Owners Attorney (Hotel Grand Crown Lakewood, LLC ) to discuss any issues.This hotel and its customers are being neglected by management .........Please fix the large rips in the unsafe carpet in the hallway as someone is going to get hurt.</t>
+  </si>
+  <si>
+    <t>December 2007</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2007,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2039,4663 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>77</v>
+      </c>
+      <c r="X6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>77</v>
+      </c>
+      <c r="X7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>105</v>
+      </c>
+      <c r="X9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>119</v>
+      </c>
+      <c r="O11" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>120</v>
+      </c>
+      <c r="X11" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>128</v>
+      </c>
+      <c r="O12" t="s">
+        <v>58</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>120</v>
+      </c>
+      <c r="X12" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>135</v>
+      </c>
+      <c r="O13" t="s">
+        <v>98</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>136</v>
+      </c>
+      <c r="X13" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>145</v>
+      </c>
+      <c r="X14" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" t="s">
+        <v>152</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" t="s">
+        <v>153</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>154</v>
+      </c>
+      <c r="X15" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" t="s">
+        <v>159</v>
+      </c>
+      <c r="K16" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>154</v>
+      </c>
+      <c r="X16" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17" t="s">
+        <v>167</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>168</v>
+      </c>
+      <c r="O17" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>169</v>
+      </c>
+      <c r="X17" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>177</v>
+      </c>
+      <c r="O18" t="s">
+        <v>178</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>169</v>
+      </c>
+      <c r="X18" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J19" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" t="s">
+        <v>111</v>
+      </c>
+      <c r="L19" t="s">
+        <v>183</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>168</v>
+      </c>
+      <c r="O19" t="s">
+        <v>58</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>184</v>
+      </c>
+      <c r="X19" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>188</v>
+      </c>
+      <c r="J20" t="s">
+        <v>189</v>
+      </c>
+      <c r="K20" t="s">
+        <v>190</v>
+      </c>
+      <c r="L20" t="s">
+        <v>191</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>192</v>
+      </c>
+      <c r="O20" t="s">
+        <v>58</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>193</v>
+      </c>
+      <c r="X20" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>197</v>
+      </c>
+      <c r="J21" t="s">
+        <v>198</v>
+      </c>
+      <c r="K21" t="s">
+        <v>199</v>
+      </c>
+      <c r="L21" t="s">
+        <v>200</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>192</v>
+      </c>
+      <c r="O21" t="s">
+        <v>98</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>193</v>
+      </c>
+      <c r="X21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>203</v>
+      </c>
+      <c r="J22" t="s">
+        <v>204</v>
+      </c>
+      <c r="K22" t="s">
+        <v>205</v>
+      </c>
+      <c r="L22" t="s">
+        <v>206</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>207</v>
+      </c>
+      <c r="O22" t="s">
+        <v>98</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>208</v>
+      </c>
+      <c r="X22" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>211</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>212</v>
+      </c>
+      <c r="J23" t="s">
+        <v>213</v>
+      </c>
+      <c r="K23" t="s">
+        <v>214</v>
+      </c>
+      <c r="L23" t="s">
+        <v>215</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>216</v>
+      </c>
+      <c r="O23" t="s">
+        <v>58</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>217</v>
+      </c>
+      <c r="X23" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>220</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J24" t="s">
+        <v>222</v>
+      </c>
+      <c r="K24" t="s">
+        <v>223</v>
+      </c>
+      <c r="L24" t="s">
+        <v>224</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>216</v>
+      </c>
+      <c r="O24" t="s">
+        <v>67</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>225</v>
+      </c>
+      <c r="X24" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>228</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>229</v>
+      </c>
+      <c r="J25" t="s">
+        <v>222</v>
+      </c>
+      <c r="K25" t="s">
+        <v>230</v>
+      </c>
+      <c r="L25" t="s">
+        <v>231</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>216</v>
+      </c>
+      <c r="O25" t="s">
+        <v>67</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>225</v>
+      </c>
+      <c r="X25" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>233</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>234</v>
+      </c>
+      <c r="J26" t="s">
+        <v>235</v>
+      </c>
+      <c r="K26" t="s">
+        <v>236</v>
+      </c>
+      <c r="L26" t="s">
+        <v>237</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>238</v>
+      </c>
+      <c r="O26" t="s">
+        <v>153</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>239</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>240</v>
+      </c>
+      <c r="J27" t="s">
+        <v>241</v>
+      </c>
+      <c r="K27" t="s">
+        <v>242</v>
+      </c>
+      <c r="L27" t="s">
+        <v>243</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>238</v>
+      </c>
+      <c r="O27" t="s">
+        <v>67</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>244</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>245</v>
+      </c>
+      <c r="J28" t="s">
+        <v>246</v>
+      </c>
+      <c r="K28" t="s">
+        <v>247</v>
+      </c>
+      <c r="L28" t="s">
+        <v>248</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>249</v>
+      </c>
+      <c r="O28" t="s">
+        <v>153</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>251</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>252</v>
+      </c>
+      <c r="J29" t="s">
+        <v>253</v>
+      </c>
+      <c r="K29" t="s">
+        <v>254</v>
+      </c>
+      <c r="L29" t="s">
+        <v>255</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>256</v>
+      </c>
+      <c r="O29" t="s">
+        <v>58</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>257</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>258</v>
+      </c>
+      <c r="J30" t="s">
+        <v>253</v>
+      </c>
+      <c r="K30" t="s">
+        <v>259</v>
+      </c>
+      <c r="L30" t="s">
+        <v>260</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>261</v>
+      </c>
+      <c r="O30" t="s">
+        <v>67</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>263</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>264</v>
+      </c>
+      <c r="J31" t="s">
+        <v>265</v>
+      </c>
+      <c r="K31" t="s">
+        <v>266</v>
+      </c>
+      <c r="L31" t="s">
+        <v>267</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>261</v>
+      </c>
+      <c r="O31" t="s">
+        <v>58</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>268</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>269</v>
+      </c>
+      <c r="J32" t="s">
+        <v>270</v>
+      </c>
+      <c r="K32" t="s">
+        <v>271</v>
+      </c>
+      <c r="L32" t="s">
+        <v>272</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>273</v>
+      </c>
+      <c r="O32" t="s">
+        <v>178</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>275</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>276</v>
+      </c>
+      <c r="J33" t="s">
+        <v>277</v>
+      </c>
+      <c r="K33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L33" t="s">
+        <v>279</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>273</v>
+      </c>
+      <c r="O33" t="s">
+        <v>67</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>280</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>281</v>
+      </c>
+      <c r="J34" t="s">
+        <v>282</v>
+      </c>
+      <c r="K34" t="s">
+        <v>283</v>
+      </c>
+      <c r="L34" t="s">
+        <v>284</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>285</v>
+      </c>
+      <c r="O34" t="s">
+        <v>178</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>286</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>287</v>
+      </c>
+      <c r="J35" t="s">
+        <v>288</v>
+      </c>
+      <c r="K35" t="s">
+        <v>289</v>
+      </c>
+      <c r="L35" t="s">
+        <v>290</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>291</v>
+      </c>
+      <c r="O35" t="s">
+        <v>98</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>293</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>294</v>
+      </c>
+      <c r="J36" t="s">
+        <v>295</v>
+      </c>
+      <c r="K36" t="s">
+        <v>296</v>
+      </c>
+      <c r="L36" t="s">
+        <v>297</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>291</v>
+      </c>
+      <c r="O36" t="s">
+        <v>178</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>298</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>299</v>
+      </c>
+      <c r="J37" t="s">
+        <v>300</v>
+      </c>
+      <c r="K37" t="s">
+        <v>301</v>
+      </c>
+      <c r="L37" t="s">
+        <v>302</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>303</v>
+      </c>
+      <c r="O37" t="s">
+        <v>67</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>305</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>306</v>
+      </c>
+      <c r="J38" t="s">
+        <v>307</v>
+      </c>
+      <c r="K38" t="s">
+        <v>308</v>
+      </c>
+      <c r="L38" t="s">
+        <v>309</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>310</v>
+      </c>
+      <c r="O38" t="s">
+        <v>58</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>312</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>313</v>
+      </c>
+      <c r="J39" t="s">
+        <v>314</v>
+      </c>
+      <c r="K39" t="s">
+        <v>315</v>
+      </c>
+      <c r="L39" t="s">
+        <v>316</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>310</v>
+      </c>
+      <c r="O39" t="s">
+        <v>67</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>318</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>319</v>
+      </c>
+      <c r="J40" t="s">
+        <v>320</v>
+      </c>
+      <c r="K40" t="s">
+        <v>321</v>
+      </c>
+      <c r="L40" t="s">
+        <v>322</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>323</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>324</v>
+      </c>
+      <c r="J41" t="s">
+        <v>325</v>
+      </c>
+      <c r="K41" t="s">
+        <v>326</v>
+      </c>
+      <c r="L41" t="s">
+        <v>327</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>328</v>
+      </c>
+      <c r="O41" t="s">
+        <v>98</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>330</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>331</v>
+      </c>
+      <c r="J42" t="s">
+        <v>332</v>
+      </c>
+      <c r="K42" t="s">
+        <v>333</v>
+      </c>
+      <c r="L42" t="s">
+        <v>334</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>328</v>
+      </c>
+      <c r="O42" t="s">
+        <v>98</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>336</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>337</v>
+      </c>
+      <c r="J43" t="s">
+        <v>338</v>
+      </c>
+      <c r="K43" t="s">
+        <v>339</v>
+      </c>
+      <c r="L43" t="s">
+        <v>340</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>341</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>342</v>
+      </c>
+      <c r="J44" t="s">
+        <v>343</v>
+      </c>
+      <c r="K44" t="s">
+        <v>344</v>
+      </c>
+      <c r="L44" t="s">
+        <v>345</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>346</v>
+      </c>
+      <c r="O44" t="s">
+        <v>67</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>347</v>
+      </c>
+      <c r="X44" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>350</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>351</v>
+      </c>
+      <c r="J45" t="s">
+        <v>352</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s">
+        <v>353</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>354</v>
+      </c>
+      <c r="O45" t="s">
+        <v>58</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>347</v>
+      </c>
+      <c r="X45" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>356</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>357</v>
+      </c>
+      <c r="J46" t="s">
+        <v>358</v>
+      </c>
+      <c r="K46" t="s">
+        <v>359</v>
+      </c>
+      <c r="L46" t="s">
+        <v>360</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>361</v>
+      </c>
+      <c r="O46" t="s">
+        <v>58</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>347</v>
+      </c>
+      <c r="X46" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>363</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>364</v>
+      </c>
+      <c r="J47" t="s">
+        <v>365</v>
+      </c>
+      <c r="K47" t="s">
+        <v>366</v>
+      </c>
+      <c r="L47" t="s">
+        <v>367</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>368</v>
+      </c>
+      <c r="O47" t="s">
+        <v>98</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>369</v>
+      </c>
+      <c r="X47" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>371</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>372</v>
+      </c>
+      <c r="J48" t="s">
+        <v>373</v>
+      </c>
+      <c r="K48" t="s">
+        <v>374</v>
+      </c>
+      <c r="L48" t="s">
+        <v>375</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>368</v>
+      </c>
+      <c r="O48" t="s">
+        <v>67</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>347</v>
+      </c>
+      <c r="X48" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>377</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>378</v>
+      </c>
+      <c r="J49" t="s">
+        <v>379</v>
+      </c>
+      <c r="K49" t="s">
+        <v>380</v>
+      </c>
+      <c r="L49" t="s">
+        <v>381</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>368</v>
+      </c>
+      <c r="O49" t="s">
+        <v>67</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>347</v>
+      </c>
+      <c r="X49" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>383</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>384</v>
+      </c>
+      <c r="J50" t="s">
+        <v>385</v>
+      </c>
+      <c r="K50" t="s">
+        <v>386</v>
+      </c>
+      <c r="L50" t="s">
+        <v>387</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>388</v>
+      </c>
+      <c r="O50" t="s">
+        <v>98</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>347</v>
+      </c>
+      <c r="X50" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>390</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>391</v>
+      </c>
+      <c r="J51" t="s">
+        <v>392</v>
+      </c>
+      <c r="K51" t="s">
+        <v>393</v>
+      </c>
+      <c r="L51" t="s">
+        <v>394</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>395</v>
+      </c>
+      <c r="O51" t="s">
+        <v>67</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>347</v>
+      </c>
+      <c r="X51" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>397</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>398</v>
+      </c>
+      <c r="J52" t="s">
+        <v>399</v>
+      </c>
+      <c r="K52" t="s">
+        <v>400</v>
+      </c>
+      <c r="L52" t="s">
+        <v>401</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>402</v>
+      </c>
+      <c r="O52" t="s">
+        <v>67</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>2</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>347</v>
+      </c>
+      <c r="X52" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>404</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>405</v>
+      </c>
+      <c r="J53" t="s">
+        <v>406</v>
+      </c>
+      <c r="K53" t="s">
+        <v>407</v>
+      </c>
+      <c r="L53" t="s">
+        <v>408</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>409</v>
+      </c>
+      <c r="O53" t="s">
+        <v>67</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>410</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>411</v>
+      </c>
+      <c r="J54" t="s">
+        <v>412</v>
+      </c>
+      <c r="K54" t="s">
+        <v>413</v>
+      </c>
+      <c r="L54" t="s">
+        <v>414</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>415</v>
+      </c>
+      <c r="O54" t="s">
+        <v>58</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>416</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>417</v>
+      </c>
+      <c r="J55" t="s">
+        <v>418</v>
+      </c>
+      <c r="K55" t="s">
+        <v>419</v>
+      </c>
+      <c r="L55" t="s">
+        <v>420</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>421</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>422</v>
+      </c>
+      <c r="J56" t="s">
+        <v>423</v>
+      </c>
+      <c r="K56" t="s">
+        <v>424</v>
+      </c>
+      <c r="L56" t="s">
+        <v>425</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>426</v>
+      </c>
+      <c r="O56" t="s">
+        <v>67</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>428</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>429</v>
+      </c>
+      <c r="J57" t="s">
+        <v>430</v>
+      </c>
+      <c r="K57" t="s">
+        <v>431</v>
+      </c>
+      <c r="L57" t="s">
+        <v>432</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>433</v>
+      </c>
+      <c r="O57" t="s">
+        <v>67</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>434</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>435</v>
+      </c>
+      <c r="J58" t="s">
+        <v>436</v>
+      </c>
+      <c r="K58" t="s">
+        <v>437</v>
+      </c>
+      <c r="L58" t="s">
+        <v>438</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>433</v>
+      </c>
+      <c r="O58" t="s">
+        <v>98</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>439</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>440</v>
+      </c>
+      <c r="J59" t="s">
+        <v>441</v>
+      </c>
+      <c r="K59" t="s">
+        <v>442</v>
+      </c>
+      <c r="L59" t="s">
+        <v>443</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>433</v>
+      </c>
+      <c r="O59" t="s">
+        <v>58</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>444</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>445</v>
+      </c>
+      <c r="J60" t="s">
+        <v>446</v>
+      </c>
+      <c r="K60" t="s">
+        <v>447</v>
+      </c>
+      <c r="L60" t="s">
+        <v>448</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>449</v>
+      </c>
+      <c r="O60" t="s">
+        <v>178</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>450</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>451</v>
+      </c>
+      <c r="J61" t="s">
+        <v>452</v>
+      </c>
+      <c r="K61" t="s">
+        <v>453</v>
+      </c>
+      <c r="L61" t="s">
+        <v>454</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>455</v>
+      </c>
+      <c r="O61" t="s">
+        <v>67</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>457</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>458</v>
+      </c>
+      <c r="J62" t="s">
+        <v>459</v>
+      </c>
+      <c r="K62" t="s">
+        <v>460</v>
+      </c>
+      <c r="L62" t="s">
+        <v>461</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>462</v>
+      </c>
+      <c r="O62" t="s">
+        <v>98</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>464</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>465</v>
+      </c>
+      <c r="J63" t="s">
+        <v>466</v>
+      </c>
+      <c r="K63" t="s">
+        <v>467</v>
+      </c>
+      <c r="L63" t="s">
+        <v>468</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>469</v>
+      </c>
+      <c r="O63" t="s">
+        <v>58</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>2</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>471</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>472</v>
+      </c>
+      <c r="J64" t="s">
+        <v>473</v>
+      </c>
+      <c r="K64" t="s">
+        <v>474</v>
+      </c>
+      <c r="L64" t="s">
+        <v>475</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>476</v>
+      </c>
+      <c r="O64" t="s">
+        <v>98</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>478</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>479</v>
+      </c>
+      <c r="J65" t="s">
+        <v>480</v>
+      </c>
+      <c r="K65" t="s">
+        <v>481</v>
+      </c>
+      <c r="L65" t="s">
+        <v>482</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>483</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>484</v>
+      </c>
+      <c r="J66" t="s">
+        <v>485</v>
+      </c>
+      <c r="K66" t="s">
+        <v>486</v>
+      </c>
+      <c r="L66" t="s">
+        <v>487</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>488</v>
+      </c>
+      <c r="O66" t="s">
+        <v>58</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>489</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>490</v>
+      </c>
+      <c r="J67" t="s">
+        <v>491</v>
+      </c>
+      <c r="K67" t="s">
+        <v>492</v>
+      </c>
+      <c r="L67" t="s">
+        <v>493</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>488</v>
+      </c>
+      <c r="O67" t="s">
+        <v>153</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>495</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>496</v>
+      </c>
+      <c r="J68" t="s">
+        <v>497</v>
+      </c>
+      <c r="K68" t="s">
+        <v>498</v>
+      </c>
+      <c r="L68" t="s">
+        <v>499</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>500</v>
+      </c>
+      <c r="O68" t="s">
+        <v>58</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>501</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>502</v>
+      </c>
+      <c r="J69" t="s">
+        <v>503</v>
+      </c>
+      <c r="K69" t="s">
+        <v>504</v>
+      </c>
+      <c r="L69" t="s">
+        <v>505</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>506</v>
+      </c>
+      <c r="O69" t="s">
+        <v>58</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>507</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>508</v>
+      </c>
+      <c r="J70" t="s">
+        <v>509</v>
+      </c>
+      <c r="K70" t="s">
+        <v>510</v>
+      </c>
+      <c r="L70" t="s">
+        <v>511</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>506</v>
+      </c>
+      <c r="O70" t="s">
+        <v>67</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>512</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>513</v>
+      </c>
+      <c r="J71" t="s">
+        <v>514</v>
+      </c>
+      <c r="K71" t="s">
+        <v>515</v>
+      </c>
+      <c r="L71" t="s">
+        <v>516</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>517</v>
+      </c>
+      <c r="O71" t="s">
+        <v>153</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>518</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>519</v>
+      </c>
+      <c r="J72" t="s">
+        <v>520</v>
+      </c>
+      <c r="K72" t="s">
+        <v>521</v>
+      </c>
+      <c r="L72" t="s">
+        <v>522</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>517</v>
+      </c>
+      <c r="O72" t="s">
+        <v>58</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>524</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>525</v>
+      </c>
+      <c r="J73" t="s">
+        <v>526</v>
+      </c>
+      <c r="K73" t="s">
+        <v>527</v>
+      </c>
+      <c r="L73" t="s">
+        <v>528</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>529</v>
+      </c>
+      <c r="O73" t="s">
+        <v>67</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>2</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>528</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_211.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_211.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="851">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,111 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/04/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r611735912-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>33514</t>
+  </si>
+  <si>
+    <t>119930</t>
+  </si>
+  <si>
+    <t>611735912</t>
+  </si>
+  <si>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>Family friendly - like a home away from home!</t>
+  </si>
+  <si>
+    <t>Amazing! Visited from states away... had my parents with (80+yrs). Even they enjoyed the stay! Hotel was clean, bed were comfortable, and staff was FANTASTIC! They were helpful, friendly - and treated us like family. Special thanks to our housekeepers - Elizabeth, Mireya, and Silvia! They took care of both rooms - and made sure we had everything we could need. We dealt mostly with Caitlin at the front desk - and she was great! Answered our questions about the area, directions to various places, and was more than welcoming when we wanted to hangout in the lobby visiting with family. Oh! And must say - we all enjoyed the continental breakfast! It offered something for everyone... from hot omelettes, bacon, and waffles - to toast, cereal, and fresh fruit! Laundry area worked well. They do have a gym on site - but we did not try it out. NOTE: Yes, this is an older hotel. However, it was clean [no dirt, no smell], kept up well, and the staff was more than friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Amazing! Visited from states away... had my parents with (80+yrs). Even they enjoyed the stay! Hotel was clean, bed were comfortable, and staff was FANTASTIC! They were helpful, friendly - and treated us like family. Special thanks to our housekeepers - Elizabeth, Mireya, and Silvia! They took care of both rooms - and made sure we had everything we could need. We dealt mostly with Caitlin at the front desk - and she was great! Answered our questions about the area, directions to various places, and was more than welcoming when we wanted to hangout in the lobby visiting with family. Oh! And must say - we all enjoyed the continental breakfast! It offered something for everyone... from hot omelettes, bacon, and waffles - to toast, cereal, and fresh fruit! Laundry area worked well. They do have a gym on site - but we did not try it out. NOTE: Yes, this is an older hotel. However, it was clean [no dirt, no smell], kept up well, and the staff was more than friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r609852319-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>609852319</t>
+  </si>
+  <si>
+    <t>08/24/2018</t>
+  </si>
+  <si>
+    <t>Not Recommended</t>
+  </si>
+  <si>
+    <t>This is an older facility which could use some maintenance and cleaning. The elevator is grubby and has a strong disagreeable oil/lubricant smell. The elevator door is very noisy. Carpets in common areas are old and in need of cleaning/replacement. Hallways are dimly lit. Rooms are somewhat better but have dings and holes in the walls where pictures have been removed. Desk chair is in bad shape and the tub creaks loudly when bathing. Breakfast is minimal. The have prepackaged oatmeal which need to be heated in a microwave but there is no microwave in breakfast area. When we asked the attendant we were told to take it to our room to cook it. How customer friendly is that?MoreShow less</t>
+  </si>
+  <si>
+    <t>This is an older facility which could use some maintenance and cleaning. The elevator is grubby and has a strong disagreeable oil/lubricant smell. The elevator door is very noisy. Carpets in common areas are old and in need of cleaning/replacement. Hallways are dimly lit. Rooms are somewhat better but have dings and holes in the walls where pictures have been removed. Desk chair is in bad shape and the tub creaks loudly when bathing. Breakfast is minimal. The have prepackaged oatmeal which need to be heated in a microwave but there is no microwave in breakfast area. When we asked the attendant we were told to take it to our room to cook it. How customer friendly is that?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r600516602-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>600516602</t>
+  </si>
+  <si>
+    <t>07/28/2018</t>
+  </si>
+  <si>
+    <t>Disgusting!</t>
+  </si>
+  <si>
+    <t>I have no idea how anyone could give this place a positive review. The customer service wasn't an issue, but the hotel is a total dump. I don't mind staying at budget hotels to save a little cash, but omg. The last straw was when we went across the street for breakfast (not interested in the free one there). I had walked on the carpet in the room with bare feet (yuck, I know), and my feet in my flip flops were slippery/sticky. So disgusting we went back, cancelled the rest of our stay, and wheeled our luggage to the Holiday Inn down the road. Best dang decision ever. SHUDDER.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I have no idea how anyone could give this place a positive review. The customer service wasn't an issue, but the hotel is a total dump. I don't mind staying at budget hotels to save a little cash, but omg. The last straw was when we went across the street for breakfast (not interested in the free one there). I had walked on the carpet in the room with bare feet (yuck, I know), and my feet in my flip flops were slippery/sticky. So disgusting we went back, cancelled the rest of our stay, and wheeled our luggage to the Holiday Inn down the road. Best dang decision ever. SHUDDER.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r591425163-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>591425163</t>
+  </si>
+  <si>
+    <t>06/28/2018</t>
+  </si>
+  <si>
+    <t>Comfortable Bed and nice shower</t>
+  </si>
+  <si>
+    <t>We stayed here after a concert at Red Rocks (20 min drive) was nice and quite, bed was comfortable and shower was great. They are starting to remodel so they did not have a hot breakfast only coffee, yogurt, and danishes. That was disappointing because we picked this hotel because of the hot breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Caitlin G, General Manager at Quality Inn &amp; Suites, responded to this reviewResponded June 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here after a concert at Red Rocks (20 min drive) was nice and quite, bed was comfortable and shower was great. They are starting to remodel so they did not have a hot breakfast only coffee, yogurt, and danishes. That was disappointing because we picked this hotel because of the hot breakfast.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r588600649-Quality_Inn_Suites-Lakewood_Colorado.html</t>
   </si>
   <si>
-    <t>33514</t>
-  </si>
-  <si>
-    <t>119930</t>
-  </si>
-  <si>
     <t>588600649</t>
   </si>
   <si>
@@ -192,9 +285,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Caitlin G, Manager at Quality Inn &amp; Suites, responded to this reviewResponded March 23, 2018</t>
   </si>
   <si>
@@ -219,9 +309,6 @@
     <t>Old dirty carpet, cigarette smoke smell coming in through the bathroom vent whenever it wasn't on, thin walls, and elevator that would shake violently.The breakfast was actually ok for the price.  This hotel is trying, but needs some upgrades to appearance and work on the elevator door which shudders (!).The beds were comfortable and clean.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Matt K, General Manager at Quality Inn &amp; Suites, responded to this reviewResponded March 18, 2018</t>
   </si>
   <si>
@@ -231,6 +318,60 @@
     <t>Old dirty carpet, cigarette smoke smell coming in through the bathroom vent whenever it wasn't on, thin walls, and elevator that would shake violently.The breakfast was actually ok for the price.  This hotel is trying, but needs some upgrades to appearance and work on the elevator door which shudders (!).The beds were comfortable and clean.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r530591858-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>530591858</t>
+  </si>
+  <si>
+    <t>10/06/2017</t>
+  </si>
+  <si>
+    <t>Awful!!</t>
+  </si>
+  <si>
+    <t>Horrible customer service!! I was warned about the fee for smoking in a non-smoking room.  I walked in and the room smelled like smoke, and the smoke alarm had a plastic bag taped around it!!! Then, my wife dropped her ID at the hotel. I was told that their policy is that they could not mail it to me unless we sent both an envelope AND a stamp!!! $149 for a room, and they can't cover a stamp!! Ridiculous.  I called 4 times and was told the manager would call me.  That never happened. On my 5th call I got Matt, who said he was the manager but never offered an explanation as to why he didn't have the decency or professionalism to call me back. He said again that they can't mail it back unless I supply an envelope and stamp!! This is horrible customer service!!!! This place is awful!  Look at the reviews!! More bad than good. Matt has absolutely no idea what customer service is about!!  I'll never stay there again, and will be contacting Choice Hotels at a corporate level when I get home!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Kim K, Guest Relations Manager at Quality Inn &amp; Suites, responded to this reviewResponded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Horrible customer service!! I was warned about the fee for smoking in a non-smoking room.  I walked in and the room smelled like smoke, and the smoke alarm had a plastic bag taped around it!!! Then, my wife dropped her ID at the hotel. I was told that their policy is that they could not mail it to me unless we sent both an envelope AND a stamp!!! $149 for a room, and they can't cover a stamp!! Ridiculous.  I called 4 times and was told the manager would call me.  That never happened. On my 5th call I got Matt, who said he was the manager but never offered an explanation as to why he didn't have the decency or professionalism to call me back. He said again that they can't mail it back unless I supply an envelope and stamp!! This is horrible customer service!!!! This place is awful!  Look at the reviews!! More bad than good. Matt has absolutely no idea what customer service is about!!  I'll never stay there again, and will be contacting Choice Hotels at a corporate level when I get home!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r515300209-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>515300209</t>
+  </si>
+  <si>
+    <t>08/19/2017</t>
+  </si>
+  <si>
+    <t>Near Golden</t>
+  </si>
+  <si>
+    <t>We were visiting Golden CO and needed a room. This hotel was within a freasonable distance.The hotel offered a fair rate. The room was clean and comfort. The room and bathroom were roomy and nicely furnished with a very comfortable bed. The breakfast was ample. My only complaint was the TV only offered 1 network station. I would stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Kim K, Guest Relations Manager at Quality Inn &amp; Suites, responded to this reviewResponded September 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2017</t>
+  </si>
+  <si>
+    <t>We were visiting Golden CO and needed a room. This hotel was within a freasonable distance.The hotel offered a fair rate. The room was clean and comfort. The room and bathroom were roomy and nicely furnished with a very comfortable bed. The breakfast was ample. My only complaint was the TV only offered 1 network station. I would stay at this hotel again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r503876247-Quality_Inn_Suites-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -249,12 +390,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t>Kim K, Guest Relations Manager at Quality Inn &amp; Suites, responded to this reviewResponded September 14, 2017</t>
-  </si>
-  <si>
-    <t>Responded September 14, 2017</t>
-  </si>
-  <si>
     <t>The room was ok. It does have a mini fridge and microwave. I had to ask for extra shampoo and conditioner and they gave us extra. The bed duvet cover was disgusting! There were brown stains on it. We only got to sleep with sheets. It was gross. More</t>
   </si>
   <si>
@@ -297,6 +432,39 @@
     <t>We stayed one night here with our little 9 pound Chihuahua. They do charge a $25 pet fee and they make you sign something that basically says if you sneak in your dog they will charge you $100 if you are caught. I have learned on this trip to make sure that you call the hotel in advance to make sure that they know you are coming with a dog because they can cancel your reservation if they don't have a "dog" room available. Other than that - the place is old but it is comfortable, cool and quiet. The breakfast was also decent, waffles, eggs, sausage. There are several places to eat not too far away from the hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r497298883-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>497298883</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Headed in on the 4th of July couldn't find anywhere reasonable an Michelle fit us in No problem. Called her over the phone looking around and she got me Good price Clean room cold ac. !!Great stay and prt friendly !! Would stay again!!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r493865156-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>493865156</t>
+  </si>
+  <si>
+    <t>06/17/2017</t>
+  </si>
+  <si>
+    <t>standard amenities, big room</t>
+  </si>
+  <si>
+    <t>An very large, clean room with standard amenities. Friendly desk clerk.Everything was in good repair. Adequate pool and exercise room.  No real place to walk my boxer dog on site, but a couple of not-yet-developed fields across the street big enough to let her go off leash.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r491480855-Quality_Inn_Suites-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -312,9 +480,6 @@
     <t>Check-in was a breeze. All staff encountered were very friendly and customer-oriented. Breakfast in the mornings were good with a nice spread of different things. The beds and pillows were comfortable and the air conditioning in the rooms worked great along with the microwave and fridge. That being said, the rooms can use a bit of a refresh. There were screw holes left over from old furnishings and the bathtub made a creaking noise every time the shower was in use. We weren't in our rooms enough to be bothered by that - we just needed a place to sleep night. Overall, we had a nice stay and would come back again!MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Check-in was a breeze. All staff encountered were very friendly and customer-oriented. Breakfast in the mornings were good with a nice spread of different things. The beds and pillows were comfortable and the air conditioning in the rooms worked great along with the microwave and fridge. That being said, the rooms can use a bit of a refresh. There were screw holes left over from old furnishings and the bathtub made a creaking noise every time the shower was in use. We weren't in our rooms enough to be bothered by that - we just needed a place to sleep night. Overall, we had a nice stay and would come back again!More</t>
   </si>
   <si>
@@ -360,6 +525,63 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r476901870-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>476901870</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>Great room in quiet location</t>
+  </si>
+  <si>
+    <t>We loved our stay in this hotel.  We were close to the freeway but in a quiet area unaffected by traffic noise.  Our room was on the main floor but close to the door and was accessible which we enjoyed very much.  The breakfast was fantastic with a selection of hot dishes as well as the regular cold options, fresh fruit and yogurt.  Staff was very helpful and friendly and we had a wonderful sleep.  Would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Matt K, General Manager at Quality Inn &amp; Suites, responded to this reviewResponded April 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2017</t>
+  </si>
+  <si>
+    <t>We loved our stay in this hotel.  We were close to the freeway but in a quiet area unaffected by traffic noise.  Our room was on the main floor but close to the door and was accessible which we enjoyed very much.  The breakfast was fantastic with a selection of hot dishes as well as the regular cold options, fresh fruit and yogurt.  Staff was very helpful and friendly and we had a wonderful sleep.  Would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r475406511-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>475406511</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>Great stay for hiking</t>
+  </si>
+  <si>
+    <t>In town hiking.  Close proximity to Red Rock and other mountain parks.  Distant mountain views from room. Clean updated rooms with fridge and microwave.  Nice color scheme of carpet and furnishings.  Comfortable bed and comforter.  Convenient to shopping and many restaurants.  Hallways and elevator in need of updating.  Pleasant staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Matt K, General Manager at Quality Inn &amp; Suites, responded to this reviewResponded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2017</t>
+  </si>
+  <si>
+    <t>In town hiking.  Close proximity to Red Rock and other mountain parks.  Distant mountain views from room. Clean updated rooms with fridge and microwave.  Nice color scheme of carpet and furnishings.  Comfortable bed and comforter.  Convenient to shopping and many restaurants.  Hallways and elevator in need of updating.  Pleasant staff.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r465793983-Quality_Inn_Suites-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -375,9 +597,6 @@
     <t>This is a good Quality Inn. The best thing to me about this place was the bed! The pillows were nice and the mattress was as good as it gets. Easy to sleep!The location is easy to get to and it is close enough to Denver without being buried in the middle of it. The property could probably use a bit of renovating, but it was not at all dirty.. The staff was to a person very friendly and helpful. We got a very good rate from them through Choice since it was a four day stay. Their vending is a bit limited if that kind of thing is important to you. All coke products which I found annoying (but I'm a Pepsi guy). I would definitely stay here again without question. This Quality Inn will not disappoint you!MoreShow less</t>
   </si>
   <si>
-    <t>March 2017</t>
-  </si>
-  <si>
     <t>Kim K, Guest Relations Manager at Quality Inn &amp; Suites, responded to this reviewResponded March 23, 2017</t>
   </si>
   <si>
@@ -433,6 +652,57 @@
   </si>
   <si>
     <t>We were pleasantly surprised by the Lakewood Quality Inn.  We did not expect facilities and breakfast this nice at such a reasonable price in Denver.  The room was clean, the bed comfortable, and the staff was amazingly friendly and helpful.  We plan to stay here again on our next trip to Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r446616874-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>446616874</t>
+  </si>
+  <si>
+    <t>12/25/2016</t>
+  </si>
+  <si>
+    <t>Bargain</t>
+  </si>
+  <si>
+    <t>Choice hotels are always consistent and I had a free room so I chose quality inn due to proximity of family member. Check in was efficient and cordial room had space only complaint would be this hotel needs a little upgrading. Just small things. Clock didn't work ..only one trash can ..bathtub was chipped and held water ..but hey for a free room I looked at normal prices and seems reasonable ..it's close to a lot of first rate restaurants ..need to stay on the other side of hotel due to view. We only had view of parking lot and a steak house so it seems the odd numbered rooms especially on third floor is way to go to get view of city skyline.  Has a great pool and hottubMoreShow less</t>
+  </si>
+  <si>
+    <t>Kim K, Guest Relations Manager at Quality Inn &amp; Suites, responded to this reviewResponded January 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2017</t>
+  </si>
+  <si>
+    <t>Choice hotels are always consistent and I had a free room so I chose quality inn due to proximity of family member. Check in was efficient and cordial room had space only complaint would be this hotel needs a little upgrading. Just small things. Clock didn't work ..only one trash can ..bathtub was chipped and held water ..but hey for a free room I looked at normal prices and seems reasonable ..it's close to a lot of first rate restaurants ..need to stay on the other side of hotel due to view. We only had view of parking lot and a steak house so it seems the odd numbered rooms especially on third floor is way to go to get view of city skyline.  Has a great pool and hottubMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r438491269-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>438491269</t>
+  </si>
+  <si>
+    <t>11/19/2016</t>
+  </si>
+  <si>
+    <t>Not the best</t>
+  </si>
+  <si>
+    <t>Our 5 night stay was okay. The employees were nice, but the cleanliness of the hotel was poor. My room was nevere vacuumed, the toilet was never cleaned properly, the bathroom floor was dirty , there were  bugs behind the bathroom door from the time of check in. The8 hallway carpets were dirty. Won't ever stay there again MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Matt K, Manager at Quality Inn &amp; Suites, responded to this reviewResponded November 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2016</t>
+  </si>
+  <si>
+    <t>Our 5 night stay was okay. The employees were nice, but the cleanliness of the hotel was poor. My room was nevere vacuumed, the toilet was never cleaned properly, the bathroom floor was dirty , there were  bugs behind the bathroom door from the time of check in. The8 hallway carpets were dirty. Won't ever stay there again More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r431659340-Quality_Inn_Suites-Lakewood_Colorado.html</t>
@@ -479,9 +749,6 @@
 I wish it was closer to the I25 and Denver downtown. But not much they could do about that. I was somewhat annoyed that they charged my credit card without confirming that i was ok with that. I was not as i use a different card to hold the booking than the one i pay with, which is a US$ card. They offered to reverse the charge but i would still have been hit with an...This was the 6th hotel/motel I have stayed at during my current Colorado trip and frankly it is the only one that has ticked everyone of my boxes.The chairs were the right height for the table, the refrigerator was medium large, there was a Mico-weave, the exhaust fan in the bathroom did not come on with the light, it had a proper shower head, the wash basin/sink was not in the bathroom, I was able to park right next to the lobby, there was plenty of luggage trolleys, there was a Wal-Mart within 5 minutes drive, it was off a main highway, the bed was fine, the pillows the same as most ok motels and there was plenty of room to spread out and open my two large suitcases, although i would have preferred an extra double bed to put them on. Even the WiFi worked, there were plenty of power points and there was plenty of serious news channels on the TV.I wish it was closer to the I25 and Denver downtown. But not much they could do about that. I was somewhat annoyed that they charged my credit card without confirming that i was ok with that. I was not as i use a different card to hold the booking than the one i pay with, which is a US$ card. They offered to reverse the charge but i would still have been hit with an international surcharge for the first charge.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Kim K, Guest Relations Manager at Quality Inn &amp; Suites, responded to this reviewResponded October 20, 2016</t>
   </si>
   <si>
@@ -511,6 +778,57 @@
     <t>We stayed in this hotel for 3 nights during our week-long trip to Colorado. The room was clean and modern, the in-room amenities (coffee pot, tv, microwave, fridge) were all great. Breakfast was really good as well. The staff was friendly. There were just two small issues with our stay: lots of noise coming from other areas of the hotel all throughout our stay, and the elevator and hallway had a smoke smell despite being non-smoking. Otherwise it was fine. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r426521649-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>426521649</t>
+  </si>
+  <si>
+    <t>10/09/2016</t>
+  </si>
+  <si>
+    <t>Did the trick</t>
+  </si>
+  <si>
+    <t>I stayed here three nights and have no complaints. It was quiet, comfortable, well appointed, reasonably priced, close to the freeway and shopping and close to my daughter. The staff were friendly and helpful.The only complaints I had was the elevator was always dirty and the laundry was disgusting but there was a full service laundry just across the freeway. MoreShow less</t>
+  </si>
+  <si>
+    <t>Kim K, Guest Relations Manager at Quality Inn &amp; Suites, responded to this reviewResponded October 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here three nights and have no complaints. It was quiet, comfortable, well appointed, reasonably priced, close to the freeway and shopping and close to my daughter. The staff were friendly and helpful.The only complaints I had was the elevator was always dirty and the laundry was disgusting but there was a full service laundry just across the freeway. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r423002399-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>423002399</t>
+  </si>
+  <si>
+    <t>09/27/2016</t>
+  </si>
+  <si>
+    <t>Needs a makeover...desperately</t>
+  </si>
+  <si>
+    <t>Had to be in Lakewood, CO on a last minute trip. Lodging selection was very limited in the budget-mid price range as it must have been a busy week in Denver . Stayed here two nights and simply endured. Worn, dirty carpets, poorly lit hallways, 'prison' elevator, most clientele I saw using it as a 'workingman's flophouse'. Too many maintenance items needed attention to list here. Horrible coffee, minimal breakfast offering. Worst part, other than the overpriced $230 for two nights was the spotlights shining into my room all night from the front lighting of the hotel. Threadbare curtains and poorly installed rods and the room looked like noon on a sunny day all night long...I still say average 3 circles as the bed was amazingly comfortable and my towels looked clean and newer and the Manager - Matt? was very nice.. I had no choice but to stay at this "Choice" hotel as I flew in to Denver for a family emergency, had to be near the hospital, and pickens were slim. As a Choice Hotels Member, I have stayed at Choice hotels many times but this one really, really lowered the bar. A much better Choice was the nearby Best Western which was very nice and $30 a night less where I stayed for four nights as rooms opened up. Not recommended unless you are desperate.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Kim K, Guest Relations Manager at Quality Inn &amp; Suites, responded to this reviewResponded September 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2016</t>
+  </si>
+  <si>
+    <t>Had to be in Lakewood, CO on a last minute trip. Lodging selection was very limited in the budget-mid price range as it must have been a busy week in Denver . Stayed here two nights and simply endured. Worn, dirty carpets, poorly lit hallways, 'prison' elevator, most clientele I saw using it as a 'workingman's flophouse'. Too many maintenance items needed attention to list here. Horrible coffee, minimal breakfast offering. Worst part, other than the overpriced $230 for two nights was the spotlights shining into my room all night from the front lighting of the hotel. Threadbare curtains and poorly installed rods and the room looked like noon on a sunny day all night long...I still say average 3 circles as the bed was amazingly comfortable and my towels looked clean and newer and the Manager - Matt? was very nice.. I had no choice but to stay at this "Choice" hotel as I flew in to Denver for a family emergency, had to be near the hospital, and pickens were slim. As a Choice Hotels Member, I have stayed at Choice hotels many times but this one really, really lowered the bar. A much better Choice was the nearby Best Western which was very nice and $30 a night less where I stayed for four nights as rooms opened up. Not recommended unless you are desperate.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r420219623-Quality_Inn_Suites-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -529,12 +847,6 @@
     <t>August 2016</t>
   </si>
   <si>
-    <t>Kim K, Guest Relations Manager at Quality Inn &amp; Suites, responded to this reviewResponded September 29, 2016</t>
-  </si>
-  <si>
-    <t>Responded September 29, 2016</t>
-  </si>
-  <si>
     <t>Gross hotel, the staff was unfriendly, graffiti on the walls of the elevator. Makeup on the "clean" pillow cases and towels. If you're going to stay here, bring your own linens and never walk barefoot.More</t>
   </si>
   <si>
@@ -553,9 +865,6 @@
     <t>Quality inn missed the mark on the little things but overall it was an acceptable stay. The bed and bathroom were clean but the mattress was not that comfortable, kind of hard. I couldn't adjust the shower head in the bathroom. I grabbed the ice bucket to get ice and it had water in it already.  I was going to make coffee in the room with the little coffee maker and they only had decaf packets.  The property was quiet so I was able to sleep. If I were staying longer than one night, I'd choose a different hotel though.MoreShow less</t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
@@ -583,6 +892,42 @@
     <t>Good experience and plenty of things around so you can walk to dinner and not have to bother with driving your car.  If you want to be in this area for the night make sure to make a reservation as this place was booked solid the night I stayed by 5pm and all the other motels were too.  Seems to be a busy area to stay inMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r409370602-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>409370602</t>
+  </si>
+  <si>
+    <t>08/23/2016</t>
+  </si>
+  <si>
+    <t>Close to everything</t>
+  </si>
+  <si>
+    <t>This is a nice basic hotel with really nice staff.  It's nothing fancy but clean and safe.  I saw a few people with dogs so it's pet friendly.  Front desk staff was nice and helpful.  I had to ship a few things home and they were very accommodating.  The hotel is in walking distance to a couple restaurants and right off the highway so its close to everything.  I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a nice basic hotel with really nice staff.  It's nothing fancy but clean and safe.  I saw a few people with dogs so it's pet friendly.  Front desk staff was nice and helpful.  I had to ship a few things home and they were very accommodating.  The hotel is in walking distance to a couple restaurants and right off the highway so its close to everything.  I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r409027052-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>409027052</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>GREAT HOTEL AND CLOSE TO MOUNTIAN DESTINATIONS</t>
+  </si>
+  <si>
+    <t>We enjoy staying at this hotel.  Great place to stay when catching a concert at the Red Rocks Amphitheatre.  The location is also convenient when traveling to mountain destinations such as Morrison, Evergreen, etc...MoreShow less</t>
+  </si>
+  <si>
+    <t>We enjoy staying at this hotel.  Great place to stay when catching a concert at the Red Rocks Amphitheatre.  The location is also convenient when traveling to mountain destinations such as Morrison, Evergreen, etc...More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r400617272-Quality_Inn_Suites-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -655,6 +1000,39 @@
     <t>They are working hard to improve the property (it is June 2016 now).The smell of tobacco smoke permeates the building from the time I walked, and it also remains attached to my clothing a day later.  They currently do not allow smoking in the building.They obviously are trying hard to remove the smell, but that is going to take some time.The room was nice (but still smelled of tobacco). The room had a small fridge, microwave, and coffee maker.The shower was very nice, and had more flow than most hotel showers.I would stay here again if the price is competitive, but likely would not pay a premium.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r383207410-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>383207410</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixed experience  </t>
+  </si>
+  <si>
+    <t>We had to wait in line 30 minutes to check in reserved room. The room was clean and comfortable. TV very frustrating. We had to change the remote twice to get one that worked. The channels as identified when you clicked on number were not in sync with channel and no listing was provided. The free breakfast was excellent. MoreShow less</t>
+  </si>
+  <si>
+    <t>We had to wait in line 30 minutes to check in reserved room. The room was clean and comfortable. TV very frustrating. We had to change the remote twice to get one that worked. The channels as identified when you clicked on number were not in sync with channel and no listing was provided. The free breakfast was excellent. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r382032614-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>382032614</t>
+  </si>
+  <si>
+    <t>06/12/2016</t>
+  </si>
+  <si>
+    <t>nice staff but horrible facility</t>
+  </si>
+  <si>
+    <t>staff very nice however had to call them 4x to have them come fix our toilet.  Hotel is really showing it age.  Rooms need a major remodel.  Screen broke on most of the 1st floor windows, the curtains in our room was ripped, bathroom was nasty, toilet did not work correctly, carpet was so bad refused to let anyone take their shoes off, and walls were dirty.  Will never stay at a Quality Inn again</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r377711606-Quality_Inn_Suites-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -721,6 +1099,55 @@
     <t>Decent price (for the area). Clean room, walls are cracked in the bathroom and at the outside wall. Beds were comfortable, air conditioner  worked. Breakfast was the usual fare. Would stay again. Here is the usual disclaimer to reach the 200 word minimum. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r368534341-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>368534341</t>
+  </si>
+  <si>
+    <t>04/28/2016</t>
+  </si>
+  <si>
+    <t>Awesome Service at Quality Inn</t>
+  </si>
+  <si>
+    <t>This is a little hotel that you wouldn't expect much from.  Wow, was I surprised at the awesome service, great attitude of Suzy, the Guest Advisor.  Suzy went above and beyond for this hotel.  I can't say how pleased I am with my room, the services and overall feel of this hotel.  Don't let the name fool you.  It's a great find for Lakewood.  The breakfast they put on is pretty awesome also.  Very pleased, thank you to Quality Inn and Suzy for making my stay very pleasurable.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Kim K, Guest Relations Manager at Quality Inn &amp; Suites, responded to this reviewResponded May 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2016</t>
+  </si>
+  <si>
+    <t>This is a little hotel that you wouldn't expect much from.  Wow, was I surprised at the awesome service, great attitude of Suzy, the Guest Advisor.  Suzy went above and beyond for this hotel.  I can't say how pleased I am with my room, the services and overall feel of this hotel.  Don't let the name fool you.  It's a great find for Lakewood.  The breakfast they put on is pretty awesome also.  Very pleased, thank you to Quality Inn and Suzy for making my stay very pleasurable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r364433654-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>364433654</t>
+  </si>
+  <si>
+    <t>04/15/2016</t>
+  </si>
+  <si>
+    <t>Clean, Comfortable Room</t>
+  </si>
+  <si>
+    <t>I had to book a room here at the absolute last minute due to an emergency, hoping for a place that would allow for an early check-in. After having called all of the other nearby hotels and motels, none of which were able to provide an earlier room, the staff here made my request a priority and got a room on the second floor ready for a check-in by noon. 
+My room was very clean, comfortable, and surprisingly quiet. The mattress was very cozy with generously-sized pillows. Even the bath was clean and had an excellent shower. It's nice that each room comes with a fridge and microwave. I was only there for one night, but I have absolutely no complaints about my stay.
+If I were rating this entirely for the helpfulness of the staff, this would be a 5-star review. There were some small drawbacks, many of which I would assume are due to the motel appearing to go through some renovations. Someone was laying carpet while I was there, which made the entire lobby area and (I would assume) the nearby rooms very noisy. The heat in the hallways and lobby was set to extreme--to the point I had to set my room's a/c to 61F--and this was immediately before an incoming winter storm. None of the snack machines work, which means you must go to the lobby, take what you want from a fridge or snack...I had to book a room here at the absolute last minute due to an emergency, hoping for a place that would allow for an early check-in. After having called all of the other nearby hotels and motels, none of which were able to provide an earlier room, the staff here made my request a priority and got a room on the second floor ready for a check-in by noon. My room was very clean, comfortable, and surprisingly quiet. The mattress was very cozy with generously-sized pillows. Even the bath was clean and had an excellent shower. It's nice that each room comes with a fridge and microwave. I was only there for one night, but I have absolutely no complaints about my stay.If I were rating this entirely for the helpfulness of the staff, this would be a 5-star review. There were some small drawbacks, many of which I would assume are due to the motel appearing to go through some renovations. Someone was laying carpet while I was there, which made the entire lobby area and (I would assume) the nearby rooms very noisy. The heat in the hallways and lobby was set to extreme--to the point I had to set my room's a/c to 61F--and this was immediately before an incoming winter storm. None of the snack machines work, which means you must go to the lobby, take what you want from a fridge or snack drawer, and pay at the counter. The room itself, while very clean and cozy, needed to have a few repairs or upgrades. The alarm clock had a broken face and was difficult to set. The freezer inside my fridge had a missing door. As my room faced the parking lot, lights from outside were extremely bright on the inside of my room, even with the curtains drawn. They really should finish these small repairs and invest in blackout blinds or curtains. Apart from that... The room itself was perfectly fine. This is not a 5-star hotel, nor is it how it is being listed. I've certainly paid considerably more for less in terms of comfort, facilities, and helpfulness of the staff.I would also, gladly, stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had to book a room here at the absolute last minute due to an emergency, hoping for a place that would allow for an early check-in. After having called all of the other nearby hotels and motels, none of which were able to provide an earlier room, the staff here made my request a priority and got a room on the second floor ready for a check-in by noon. 
+My room was very clean, comfortable, and surprisingly quiet. The mattress was very cozy with generously-sized pillows. Even the bath was clean and had an excellent shower. It's nice that each room comes with a fridge and microwave. I was only there for one night, but I have absolutely no complaints about my stay.
+If I were rating this entirely for the helpfulness of the staff, this would be a 5-star review. There were some small drawbacks, many of which I would assume are due to the motel appearing to go through some renovations. Someone was laying carpet while I was there, which made the entire lobby area and (I would assume) the nearby rooms very noisy. The heat in the hallways and lobby was set to extreme--to the point I had to set my room's a/c to 61F--and this was immediately before an incoming winter storm. None of the snack machines work, which means you must go to the lobby, take what you want from a fridge or snack...I had to book a room here at the absolute last minute due to an emergency, hoping for a place that would allow for an early check-in. After having called all of the other nearby hotels and motels, none of which were able to provide an earlier room, the staff here made my request a priority and got a room on the second floor ready for a check-in by noon. My room was very clean, comfortable, and surprisingly quiet. The mattress was very cozy with generously-sized pillows. Even the bath was clean and had an excellent shower. It's nice that each room comes with a fridge and microwave. I was only there for one night, but I have absolutely no complaints about my stay.If I were rating this entirely for the helpfulness of the staff, this would be a 5-star review. There were some small drawbacks, many of which I would assume are due to the motel appearing to go through some renovations. Someone was laying carpet while I was there, which made the entire lobby area and (I would assume) the nearby rooms very noisy. The heat in the hallways and lobby was set to extreme--to the point I had to set my room's a/c to 61F--and this was immediately before an incoming winter storm. None of the snack machines work, which means you must go to the lobby, take what you want from a fridge or snack drawer, and pay at the counter. The room itself, while very clean and cozy, needed to have a few repairs or upgrades. The alarm clock had a broken face and was difficult to set. The freezer inside my fridge had a missing door. As my room faced the parking lot, lights from outside were extremely bright on the inside of my room, even with the curtains drawn. They really should finish these small repairs and invest in blackout blinds or curtains. Apart from that... The room itself was perfectly fine. This is not a 5-star hotel, nor is it how it is being listed. I've certainly paid considerably more for less in terms of comfort, facilities, and helpfulness of the staff.I would also, gladly, stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r360491305-Quality_Inn_Suites-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -775,6 +1202,42 @@
     <t>This hotel REQUIRES an actual COPY of your drivers license to check in--they will send you away if you refuse.  Everything an identity thief needs to steal your ID is on that piece of paper--and you have no control over it once you leave the desk.  This is not a Choice Hotels policy--it is merely one overzealous franchisee.It is absolutely insane in today's world to let a hotel keep a copy of your drivers license.  I have no problem SHOWING them the ID, and I could even be okay with them writing down the number, but there is absolutely NO reason for them to need a copy of it.If you value your identity, I would recommend staying elsewhere until they learn that this policy is dangerous for their guests.......More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r339675449-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>339675449</t>
+  </si>
+  <si>
+    <t>01/13/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quality Inn Lakewood Colorado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were greeted and cared for by friendly staff that helped make our stay pleasantly relaxing. Our suite was updated and very clean, furniture was comfortable  and the hotel had nice quality bedding, we loved our stay at Quality Inn Lakewood's king sized bedroom suite.  Definitely recommended.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r319270359-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>319270359</t>
+  </si>
+  <si>
+    <t>10/16/2015</t>
+  </si>
+  <si>
+    <t>Regetful for staying</t>
+  </si>
+  <si>
+    <t>I needed the cheapest possible hotel as i am in between contracts and needed to settle some family affairs without breaking the bank.This hotel was the lowest priced hotel closest to my family and it was a lesson learned just bite the bullet and pay more for the original hotel i wanted to stay at in the DTC area. I arrived and immediately there was a lady walking around with a baby looking kind of shady smoking away...alot of the guests here looked like they should've been on east colfax( illicit activity ave).  I Checked in they had the wrong days for my reservation but were able to fix it the room was clean from first glance and was more than i expected but then little things started to pop out like previous people had written on the couch and the room reeked of smoke and paint...as i laid down to try and sleep all night i could hear the vending machine on the otherside of the hotel? So all three nights i was there i didn't sleep well. The staff although really nice was really young and not professional..i walked in after a long day of seeing family and tearing up /replacing flower beds on my friends grave and there was a lady at the front with a boyfriend? I nearly bolted back out the front door because he gave me the jeebies so bad.. I ended up staying...I needed the cheapest possible hotel as i am in between contracts and needed to settle some family affairs without breaking the bank.This hotel was the lowest priced hotel closest to my family and it was a lesson learned just bite the bullet and pay more for the original hotel i wanted to stay at in the DTC area. I arrived and immediately there was a lady walking around with a baby looking kind of shady smoking away...alot of the guests here looked like they should've been on east colfax( illicit activity ave).  I Checked in they had the wrong days for my reservation but were able to fix it the room was clean from first glance and was more than i expected but then little things started to pop out like previous people had written on the couch and the room reeked of smoke and paint...as i laid down to try and sleep all night i could hear the vending machine on the otherside of the hotel? So all three nights i was there i didn't sleep well. The staff although really nice was really young and not professional..i walked in after a long day of seeing family and tearing up /replacing flower beds on my friends grave and there was a lady at the front with a boyfriend? I nearly bolted back out the front door because he gave me the jeebies so bad.. I ended up staying a 3rd night because i couldnt haul my heavy bags and was pretty tied up with family affairs across the street to the marriott and am regretting not making a concentrated effort to go to the marriott.as i left this morning the guy on duty was in a tank shirt not a uniform and even though he knew i was by my last name i was caught off guard at how unprofessional he lookedMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>I needed the cheapest possible hotel as i am in between contracts and needed to settle some family affairs without breaking the bank.This hotel was the lowest priced hotel closest to my family and it was a lesson learned just bite the bullet and pay more for the original hotel i wanted to stay at in the DTC area. I arrived and immediately there was a lady walking around with a baby looking kind of shady smoking away...alot of the guests here looked like they should've been on east colfax( illicit activity ave).  I Checked in they had the wrong days for my reservation but were able to fix it the room was clean from first glance and was more than i expected but then little things started to pop out like previous people had written on the couch and the room reeked of smoke and paint...as i laid down to try and sleep all night i could hear the vending machine on the otherside of the hotel? So all three nights i was there i didn't sleep well. The staff although really nice was really young and not professional..i walked in after a long day of seeing family and tearing up /replacing flower beds on my friends grave and there was a lady at the front with a boyfriend? I nearly bolted back out the front door because he gave me the jeebies so bad.. I ended up staying...I needed the cheapest possible hotel as i am in between contracts and needed to settle some family affairs without breaking the bank.This hotel was the lowest priced hotel closest to my family and it was a lesson learned just bite the bullet and pay more for the original hotel i wanted to stay at in the DTC area. I arrived and immediately there was a lady walking around with a baby looking kind of shady smoking away...alot of the guests here looked like they should've been on east colfax( illicit activity ave).  I Checked in they had the wrong days for my reservation but were able to fix it the room was clean from first glance and was more than i expected but then little things started to pop out like previous people had written on the couch and the room reeked of smoke and paint...as i laid down to try and sleep all night i could hear the vending machine on the otherside of the hotel? So all three nights i was there i didn't sleep well. The staff although really nice was really young and not professional..i walked in after a long day of seeing family and tearing up /replacing flower beds on my friends grave and there was a lady at the front with a boyfriend? I nearly bolted back out the front door because he gave me the jeebies so bad.. I ended up staying a 3rd night because i couldnt haul my heavy bags and was pretty tied up with family affairs across the street to the marriott and am regretting not making a concentrated effort to go to the marriott.as i left this morning the guy on duty was in a tank shirt not a uniform and even though he knew i was by my last name i was caught off guard at how unprofessional he lookedMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r311034373-Quality_Inn_Suites-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -826,6 +1289,39 @@
     <t>Room was clean and comfortable enough.  However the elevator quit working the afternoon we got there, and was still inoperable the next day.  Of the three vending machines I saw, two were empty and the third had a sign posted "Notify desk and we will come up and unlock the machine for you" - it was broken.  On the bright side, the breakfast was more than I expected, with sausage patties and scrambled eggs in addition to the waffles, cereal and pastries that have become the norm in most hotels.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r310334295-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>310334295</t>
+  </si>
+  <si>
+    <t>09/14/2015</t>
+  </si>
+  <si>
+    <t>Clean comfy room, great breakfast, but noisy elevator</t>
+  </si>
+  <si>
+    <t>I spent one night at this motel after flying into the Denver airport so that I could start my drive west the following morning without dealing with rush hour traffic.  The room was clean and comfortable &amp; had all the expected amenities...mini fridge, microwave, big screen TV, hair dryer, etc.  The breakfast was better than many motel offerings... there were hot eggs and sausage, real 100% orange juice, fruit, yogurt, cereal, bread, pastries, etc.  The only downside was that I was in a room right next to elevator, because that's where all the rooms with one queen bed are located.  The elevator doors rumbled every time the elevator stopped, and I could hear the sound clearly in my room all night long.  I was able to drown it out well enough to sleep by using earplugs and a white noise app on my phone, but if you want a quiet room, don't get 108, 208, 308, etc. or 110, 210, 310.  109, 209 and 309 would be right across the hall from the elevator, so they might get some of the noise also.MoreShow less</t>
+  </si>
+  <si>
+    <t>I spent one night at this motel after flying into the Denver airport so that I could start my drive west the following morning without dealing with rush hour traffic.  The room was clean and comfortable &amp; had all the expected amenities...mini fridge, microwave, big screen TV, hair dryer, etc.  The breakfast was better than many motel offerings... there were hot eggs and sausage, real 100% orange juice, fruit, yogurt, cereal, bread, pastries, etc.  The only downside was that I was in a room right next to elevator, because that's where all the rooms with one queen bed are located.  The elevator doors rumbled every time the elevator stopped, and I could hear the sound clearly in my room all night long.  I was able to drown it out well enough to sleep by using earplugs and a white noise app on my phone, but if you want a quiet room, don't get 108, 208, 308, etc. or 110, 210, 310.  109, 209 and 309 would be right across the hall from the elevator, so they might get some of the noise also.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r308347667-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>308347667</t>
+  </si>
+  <si>
+    <t>09/08/2015</t>
+  </si>
+  <si>
+    <t>Bad Experience</t>
+  </si>
+  <si>
+    <t>We  are Choice Hotel members and stay several times a year at various locations across the country.  Most are very good to excellent.  That is not the case for the Quality Inn, Lakewood, CO.  We stayed at this location several years ago, just after it was built.  It “was” a beautiful place. Nothing has been done to maintain the facility.  The rooms (I can only use ours as an example) require too many repairs and fixes to mention.  It is unfortunate that this former beautiful hotel has become such a “rundown” lodging choice.  Next time we will stay at the Comfort Inn next door.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r300087360-Quality_Inn_Suites-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -880,6 +1376,39 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r291086982-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>291086982</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>stayed here for a show at red rocks</t>
+  </si>
+  <si>
+    <t>hotel was in a great location very close to red rocks and hwy 285.  room was nice and clean.  my only complaint was the alarm clock was inop.  i found a housekeeper (supervisor i think) who gave me a replacement in less than 5 minutes. well done! would stay here again for a show at red rocks or bandimere.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r288927525-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>288927525</t>
+  </si>
+  <si>
+    <t>07/14/2015</t>
+  </si>
+  <si>
+    <t>Quality Inn in Lakewood, CO---Just Ok</t>
+  </si>
+  <si>
+    <t>My family and I were visiting near Denver and this motel was one of the few left that had rooms available, due to the cycle race that weekend.  Also, it is about an hour out of Denver International Airport and halfway to our intended destination, situated in the Rockies.  It was booked as being a 3-star, but really it is a worn, comfortable 2 star.  There are a few more motels around it, as well as the usual stores, restaurants, and other activities.  Thankfully, our rooms were smoke-free.  There was a complimentary, but limited breakfast in the lobby available, as well as a 3-piece equipment fitness room.  I didn't see any vending or ice machines in the halls. Rooms had TV, small sink with vanity, hangers &amp; open closet, iron, hair dryer, microwave, small fridge, 2 cup drip coffeemaker. The beds were pretty comfortable. The bathroom fan sounded like a plane taking off and the bathtub was just a small square with old tile grout and marked walls. There were plenty of towels. The door had gouges in it, as well, and the air conditioning worked loudly.  It was a reasonable price and was just ok for the 2 nights we stayed.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I were visiting near Denver and this motel was one of the few left that had rooms available, due to the cycle race that weekend.  Also, it is about an hour out of Denver International Airport and halfway to our intended destination, situated in the Rockies.  It was booked as being a 3-star, but really it is a worn, comfortable 2 star.  There are a few more motels around it, as well as the usual stores, restaurants, and other activities.  Thankfully, our rooms were smoke-free.  There was a complimentary, but limited breakfast in the lobby available, as well as a 3-piece equipment fitness room.  I didn't see any vending or ice machines in the halls. Rooms had TV, small sink with vanity, hangers &amp; open closet, iron, hair dryer, microwave, small fridge, 2 cup drip coffeemaker. The beds were pretty comfortable. The bathroom fan sounded like a plane taking off and the bathtub was just a small square with old tile grout and marked walls. There were plenty of towels. The door had gouges in it, as well, and the air conditioning worked loudly.  It was a reasonable price and was just ok for the 2 nights we stayed.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r281373797-Quality_Inn_Suites-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -937,6 +1466,39 @@
     <t>It was a good location, close to the highway, stores, activities and safe area. The hotel was fairly clean. It was good for what we needed it for, 2 nights to sleep somewhere. The negatives were someone was in a fight or something in our room because their was a hole in the bathroom door and the bathroom shower, which was covered with plastic. They should have fixed that before renting that room out. The room door kept getting stuck because the latch was not screwed in. The halls smelled like weed, I get we are in Colorado, but for how much the front desk lady lectured me about not smoking cigarettes in the room, I would think it would not smell like weed. The breakfast was also a disappointment. Overall for the price, it was ok for a quick trip.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r273190139-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>273190139</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>Staying somewhere else next time</t>
+  </si>
+  <si>
+    <t>This was definitely not the worst hotel we've stayed in, but I was definitely not impressed. The Holiday Inn nearby is much nicer, cleaner, and included a bar downstairs. The Quality Inn felt a little dingy. I wore my shoes in the room and really wished I had shower shoes too. I went to the coke machine in the middle of the night for a bottle of water and it had a sign on it that said "Thirsty? Go to the front desk and we will come open it for you." The computer downstairs was also broken. Next trip we will stay at our usual spot - The Holiday Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was definitely not the worst hotel we've stayed in, but I was definitely not impressed. The Holiday Inn nearby is much nicer, cleaner, and included a bar downstairs. The Quality Inn felt a little dingy. I wore my shoes in the room and really wished I had shower shoes too. I went to the coke machine in the middle of the night for a bottle of water and it had a sign on it that said "Thirsty? Go to the front desk and we will come open it for you." The computer downstairs was also broken. Next trip we will stay at our usual spot - The Holiday Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r266519383-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>266519383</t>
+  </si>
+  <si>
+    <t>04/18/2015</t>
+  </si>
+  <si>
+    <t>Surprised</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Couldn't find a room in the area, so I booked here online. Having had less than a stellar experience at this type of flag property, I was not expecting much. I was pleasantly surprised. Evidently the property has somewhat new owners who are working on improving the property.  Yes, they have a way to go, but it was evident to me that progress has been recently made. The staff was wonderful, I might add! </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r262571295-Quality_Inn_Suites-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -991,6 +1553,42 @@
     <t>This motel is nasty. A homeless guy jumped on the back of my truck and tried to bust my window. I complained to the front desk they did nothing and took my late check out. This is a awful motel there were spots of fluids all over the walls and ceilings like someone threw stuff everywhere the blankets had holes in them and the bathroom had mold growing in it</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r240722660-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>240722660</t>
+  </si>
+  <si>
+    <t>11/20/2014</t>
+  </si>
+  <si>
+    <t>Helped me in a pinch</t>
+  </si>
+  <si>
+    <t>This review is overdue. back in the first week of August I found myself in a debacle. I needed a room, it was late, and many places were sold out. Andrew was working and helped me out with a great room. The location is tucked away near Wadsworth/285. I recommend this place for anyone on budget, looking to spend the majority of their day outside in Denver. Clean looking, average, reasonable price, safe area, near highway/bus stops, friendly staff, and the smell of the room was terrific.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r238908046-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>238908046</t>
+  </si>
+  <si>
+    <t>11/09/2014</t>
+  </si>
+  <si>
+    <t>Nice and cozy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My room was nice, bed was super comfy. My checkin was quick and the staff was very polite. Rooms and bathroom could use a little paint touch up and the breakfast could have been better. Nice TV and lots of space. I was a little irked with maid service though. I left a note with a tip to please leave towels to conserve and just make my bed not replace sheets and they replaced everything. I only stay in hotels that do what they can to conserve resources and Im disappointed my request wasnt honored. Overall though nice place, great location near everything. </t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r231904837-Quality_Inn_Suites-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -1045,6 +1643,39 @@
     <t>Great rate for two rooms for me and the kids. Hotels fully booked, we got the last two rooms. One of the rooms they gave us not been cleaned, but the desk clerk was nice enough to personally search another room which the computer said was still dirty, but had actually been cleaned. Air-conditioning units in both rooms worked poorly, and one room smelled like it had been spoke to him even though it was a no smoking hotel. The hotel marketed Domino's pizza as it's preferred dining option, and the second floor hallway smelled like old pizza. Okay for a cheap hotel at a cheap price.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r216879420-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>216879420</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>Mold around the baseboards in the bathroom, shower handle came off in my hand when I tried to turn on the shower, rust on the door frame, cracks in the door, A/C never did cool the room off the 3 days we were there, vending machines were completely empty.   Previous repairs in the bathroom consisted of remounting the shower curtain rod leaving exposed holes in the wall and nailing boards around the top of the shower to cover cracks.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r216149427-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>216149427</t>
+  </si>
+  <si>
+    <t>07/18/2014</t>
+  </si>
+  <si>
+    <t>Definitely not quality!</t>
+  </si>
+  <si>
+    <t>We recently stayed ay the Quality Inn in Lakewood Co and found it very lacking in quality. The hallways were dark with missing ceiling tiles.  Furniture in our room was of three different types.  Hair dryer did not work and the desk clerk was very unconcerned.  Breakfast was white bread, cereal, horrible eggs and a bit of sausage.    Definitely overpriced!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r211211777-Quality_Inn_Suites-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -1111,6 +1742,45 @@
     <t>The guy at the front desk was very polite and applied a discount we had found online. The room was pretty comfortable. One bed was great, the other bed was lopsided and squeaked. It was very quiet. Couldn't hear anything from the next rooms. Breakfast was good and the front area was very clean. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r201293900-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>201293900</t>
+  </si>
+  <si>
+    <t>04/15/2014</t>
+  </si>
+  <si>
+    <t>Security on 1st floor is a concern.</t>
+  </si>
+  <si>
+    <t>The stay was good, had booked two rooms. Got a call from the mgr after checkout as housekeeping reported a blanket was missing from my room. I never had a blanket in my room so I was unable to assist them.  But I had to report that my room (on 1st floor) had apparently been set up for a burglary, It had a wet washcloth set behind the curtains on the window sill as a signal, The curtains partially closed to half way to mask the washcloth (normally the sheer is closed and the night is fully open, the window latches had been unlocked (after I had verified they were secured the night before), there was no screen on the window and there were hand prints on the outside glass where the window had been slid open. Obviously an inside job. The damp washcloth, other than a visual signal to the outside, is a trick to wipe away fingerprints. I had noticed damp washcloth outside of another room in the hallway the evening previous, and now I know why. If they want the missing blanket, check with the 1st floor cleaning staff. Other than that, stay on 2nd or 3rd. Not on 1st...and leave NOTHING of value in your room. I discovered a painkiller Rx was missing from my dop kit when I got home from my trip. Now, other than that, it was comfortable, quiet and they have a...The stay was good, had booked two rooms. Got a call from the mgr after checkout as housekeeping reported a blanket was missing from my room. I never had a blanket in my room so I was unable to assist them.  But I had to report that my room (on 1st floor) had apparently been set up for a burglary, It had a wet washcloth set behind the curtains on the window sill as a signal, The curtains partially closed to half way to mask the washcloth (normally the sheer is closed and the night is fully open, the window latches had been unlocked (after I had verified they were secured the night before), there was no screen on the window and there were hand prints on the outside glass where the window had been slid open. Obviously an inside job. The damp washcloth, other than a visual signal to the outside, is a trick to wipe away fingerprints. I had noticed damp washcloth outside of another room in the hallway the evening previous, and now I know why. If they want the missing blanket, check with the 1st floor cleaning staff. Other than that, stay on 2nd or 3rd. Not on 1st...and leave NOTHING of value in your room. I discovered a painkiller Rx was missing from my dop kit when I got home from my trip. Now, other than that, it was comfortable, quiet and they have a decent breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>The stay was good, had booked two rooms. Got a call from the mgr after checkout as housekeeping reported a blanket was missing from my room. I never had a blanket in my room so I was unable to assist them.  But I had to report that my room (on 1st floor) had apparently been set up for a burglary, It had a wet washcloth set behind the curtains on the window sill as a signal, The curtains partially closed to half way to mask the washcloth (normally the sheer is closed and the night is fully open, the window latches had been unlocked (after I had verified they were secured the night before), there was no screen on the window and there were hand prints on the outside glass where the window had been slid open. Obviously an inside job. The damp washcloth, other than a visual signal to the outside, is a trick to wipe away fingerprints. I had noticed damp washcloth outside of another room in the hallway the evening previous, and now I know why. If they want the missing blanket, check with the 1st floor cleaning staff. Other than that, stay on 2nd or 3rd. Not on 1st...and leave NOTHING of value in your room. I discovered a painkiller Rx was missing from my dop kit when I got home from my trip. Now, other than that, it was comfortable, quiet and they have a...The stay was good, had booked two rooms. Got a call from the mgr after checkout as housekeeping reported a blanket was missing from my room. I never had a blanket in my room so I was unable to assist them.  But I had to report that my room (on 1st floor) had apparently been set up for a burglary, It had a wet washcloth set behind the curtains on the window sill as a signal, The curtains partially closed to half way to mask the washcloth (normally the sheer is closed and the night is fully open, the window latches had been unlocked (after I had verified they were secured the night before), there was no screen on the window and there were hand prints on the outside glass where the window had been slid open. Obviously an inside job. The damp washcloth, other than a visual signal to the outside, is a trick to wipe away fingerprints. I had noticed damp washcloth outside of another room in the hallway the evening previous, and now I know why. If they want the missing blanket, check with the 1st floor cleaning staff. Other than that, stay on 2nd or 3rd. Not on 1st...and leave NOTHING of value in your room. I discovered a painkiller Rx was missing from my dop kit when I got home from my trip. Now, other than that, it was comfortable, quiet and they have a decent breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r198961119-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>198961119</t>
+  </si>
+  <si>
+    <t>03/27/2014</t>
+  </si>
+  <si>
+    <t>Good points and Bad points (mostly bad)</t>
+  </si>
+  <si>
+    <t>The bad points. The hotel misses in some basic things. First, the wall of the elevator is ripped up -- and has been for three weeks. It's a bad "first impression" in going to your room. A true "quality" hotel would not let something like that go unfixed for over three weeks. Second, the continental breakfast orange juice dispenser was broken. Third, choice hotels has a rewards program, and for two straight stays this property showed me as a "no show" even though I was there both times. As as result I missed out on a "stay two nights get one night free promotion." I'll complain to the president of Choice Hotels to get that fixed.The good points: the room was acceptable.The hotel simply gets too many small things wrong for me to give it a good review. I won't be staying at this property again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>The bad points. The hotel misses in some basic things. First, the wall of the elevator is ripped up -- and has been for three weeks. It's a bad "first impression" in going to your room. A true "quality" hotel would not let something like that go unfixed for over three weeks. Second, the continental breakfast orange juice dispenser was broken. Third, choice hotels has a rewards program, and for two straight stays this property showed me as a "no show" even though I was there both times. As as result I missed out on a "stay two nights get one night free promotion." I'll complain to the president of Choice Hotels to get that fixed.The good points: the room was acceptable.The hotel simply gets too many small things wrong for me to give it a good review. I won't be staying at this property again in the future.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r198853246-Quality_Inn_Suites-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -1126,9 +1796,6 @@
     <t>The lobby is creapy, I can't quite tell if it's dirty or just really in need of updating/repair.  Holes in the walls etc. but, the rooms are actually ok. They have newer furnishings, they certainly cut corners, but it's extremely ok.  I only stay here cuz it's a 8000 pt stay. MoreShow less</t>
   </si>
   <si>
-    <t>March 2014</t>
-  </si>
-  <si>
     <t>GUEST_SERVICES284, Public Relations Manager at Quality Inn &amp; Suites, responded to this reviewResponded July 6, 2014</t>
   </si>
   <si>
@@ -1171,6 +1838,45 @@
     <t>My son and I stopped for the night,the staff was friendly had helpful, but the lobby was being remodeled and was told breakfast would be served across the lot at a sister hotel.In the morning the sister hotel was out of everything.....now I get that remodeling is needed and they tried to help, but the staff at the other sister hotel was complaining about us "others" and was not as friendly........it did set the tone for the rest of our day and not happy about it.......More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r194918331-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>194918331</t>
+  </si>
+  <si>
+    <t>02/21/2014</t>
+  </si>
+  <si>
+    <t>Great Price,  Average room , Good service</t>
+  </si>
+  <si>
+    <t>Our family spent two nights at this hotel while visiting Colorado school of Mines...(college road trip)...we were on a tight budget....The rooms were quite (at the end of the hall on the second floor, Room 201)...Staff were very friendly but the rooms were a bit outdated...KEEP IN MIND everything worked microwave, Refrigerator and 37 inch plasma TV...bathroom was clean and so was the room....Breakfast could be better....no sausages or bacon......overall, no complaints for 150.00 dollars  including tax for three individuals For 2 nights ....FYI ,there are two restaurants next door.... Texas steakhouse and Mexican grill (Corazon)....MoreShow less</t>
+  </si>
+  <si>
+    <t>Our family spent two nights at this hotel while visiting Colorado school of Mines...(college road trip)...we were on a tight budget....The rooms were quite (at the end of the hall on the second floor, Room 201)...Staff were very friendly but the rooms were a bit outdated...KEEP IN MIND everything worked microwave, Refrigerator and 37 inch plasma TV...bathroom was clean and so was the room....Breakfast could be better....no sausages or bacon......overall, no complaints for 150.00 dollars  including tax for three individuals For 2 nights ....FYI ,there are two restaurants next door.... Texas steakhouse and Mexican grill (Corazon)....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r189450096-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>189450096</t>
+  </si>
+  <si>
+    <t>01/03/2014</t>
+  </si>
+  <si>
+    <t>This place is alright- kinda comfy, but not preferred</t>
+  </si>
+  <si>
+    <t>This place was okay- if all you really care about is if your room is clean and comfy then I recommend this place. I honestly much prefer the Comfort Suites next door but they were full this time. I stayed for New Years Eve. The deadlock on our door was broken, and the doors all slam closed loudly, which happened throughout the night but thankfully not from rooms very close to us. The room was comfortable, loved the beds. I saw and had no issues in the room. This hotel had friendly staff- the woman who checked me in was nice but seemed to have friends or coworkers visiting during her shift- their child was running around the lobby and a woman and man were lingering near the desk for the clerk's entire shift. The man after her was friendly as well but he put in my 5:15am wake up call incorrectly for 4:15am and when I called at 4:15am asking him to put another in to wake me up at 5:15am, he said he would but I never got one... Not very competent... Free high-speed wi-fi worked well. The hotel is in a nice area, although we did see one car that appeared to house a homeless person who stayed all night in the parking lot. We also had trouble finding the entrance since their entrance sign was not lit.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>This place was okay- if all you really care about is if your room is clean and comfy then I recommend this place. I honestly much prefer the Comfort Suites next door but they were full this time. I stayed for New Years Eve. The deadlock on our door was broken, and the doors all slam closed loudly, which happened throughout the night but thankfully not from rooms very close to us. The room was comfortable, loved the beds. I saw and had no issues in the room. This hotel had friendly staff- the woman who checked me in was nice but seemed to have friends or coworkers visiting during her shift- their child was running around the lobby and a woman and man were lingering near the desk for the clerk's entire shift. The man after her was friendly as well but he put in my 5:15am wake up call incorrectly for 4:15am and when I called at 4:15am asking him to put another in to wake me up at 5:15am, he said he would but I never got one... Not very competent... Free high-speed wi-fi worked well. The hotel is in a nice area, although we did see one car that appeared to house a homeless person who stayed all night in the parking lot. We also had trouble finding the entrance since their entrance sign was not lit.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r188324051-Quality_Inn_Suites-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -1234,6 +1940,42 @@
     <t>Made a huge mistake with this place.  Had to pay for the full stay up front.  This should have been my clue to run away.They allow homeless to hang out in the lobby.  Prostitutes work the parking lot.  Drug users appear to live in the hotel.  Front desk personnel are rude and unprofessional.  The girl who checked us in had her kid and a crib behind the desk - no time for her job or the guests.I can't believe Quality Inn would allow their brand to be tarnished with this unkept, subpar property.  I can never choose a Choice Hotels property again unless I personally am familiar with the property.  This means I will just pass on Quality Inn or Comfort Suites in the future.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r178318971-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>178318971</t>
+  </si>
+  <si>
+    <t>09/23/2013</t>
+  </si>
+  <si>
+    <t>Disaster Averted!</t>
+  </si>
+  <si>
+    <t>I am a Choice Hotel employee from New York, who's vehicle broke down while traveling.  The Front Desk Manager (Alyssa) went above and beyond to help get me a room and even called a cab to come get us...as we had no idea how far it was and had no vehicle.   The morning staff (Melissa) was so friendly, and also went out of her way to help us.  This staff could have turned an already bad experience into one of the worst of my life, but their help and hospitality saved our trip and our sanity!  Thank you Quality Inn!!!!  We are telling everyone we know who travels what an amazing, clean and friendly hotel you are!MoreShow less</t>
+  </si>
+  <si>
+    <t>I am a Choice Hotel employee from New York, who's vehicle broke down while traveling.  The Front Desk Manager (Alyssa) went above and beyond to help get me a room and even called a cab to come get us...as we had no idea how far it was and had no vehicle.   The morning staff (Melissa) was so friendly, and also went out of her way to help us.  This staff could have turned an already bad experience into one of the worst of my life, but their help and hospitality saved our trip and our sanity!  Thank you Quality Inn!!!!  We are telling everyone we know who travels what an amazing, clean and friendly hotel you are!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r169977600-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>169977600</t>
+  </si>
+  <si>
+    <t>07/30/2013</t>
+  </si>
+  <si>
+    <t>Good Value for a Basic Hotel</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for over a month after I moved from California to Colorado for work. Due to the length of my stay I was able to secure the weekly rate, which saved me a ton of money over other hotels. The stay was nice and quiet. This is a basic hotel that is a nice place to stay if you are visiting or stopping over in the Lakewood area.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for over a month after I moved from California to Colorado for work. Due to the length of my stay I was able to secure the weekly rate, which saved me a ton of money over other hotels. The stay was nice and quiet. This is a basic hotel that is a nice place to stay if you are visiting or stopping over in the Lakewood area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r168612810-Quality_Inn_Suites-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -1285,6 +2027,42 @@
     <t>This place was well worth the money.  Had a comfortabe room  that was walking distance to restaurants.  Beds were comfortable and it was quiet.  would definitely recommend.  Breakfast was average.  The only thing I thought was questionable is that if you do not have a breakfast slip,  you have to pay $5  for breakfast.  If that was the  case, I would have just went to  Dennys  across the street.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r152988671-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>152988671</t>
+  </si>
+  <si>
+    <t>02/24/2013</t>
+  </si>
+  <si>
+    <t>Enjoyable stay.</t>
+  </si>
+  <si>
+    <t>Enjoyable stay.  We encountered a glitch on our visit that was quickly and quite satisfactorily resolved by management, so we wouldn't hesitate to stay there on our next visit to Denver.  We stayed two nights.  Our room was clean, very quiet and comfortable.  Bathroom was spotless with great water pressure in the shower and toilet.  The delicious breakfast was one of the best we've had in any of our Choice Hotel stays and well stocked with a variety of food choices.  Easy freeway access with restaurants and gas stations nearby.  Note, this is the Quality Inn at 7240 Jefferson.  There is another Quality Inn adjacent with separate ownership.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r149473297-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>149473297</t>
+  </si>
+  <si>
+    <t>01/11/2013</t>
+  </si>
+  <si>
+    <t>Enjoyable stay</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay here, the hotel was in a good position, close to restaurants and shops. The staff were friendly, room was clean, very spacious and the beds were comfy. Breakfast was nice, plenty of variety.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r143948176-Quality_Inn_Suites-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -1339,6 +2117,27 @@
     <t>Pros: - Clean and comfortable rooms- Mini-fridge and microwave- Excellent house keeping- Easy access to the highwayCons: - Unprofessional front desk workers (had to wait several minutes to check-in while he finished a personal phone call)- "Business center" computer is not updated with new microsoft office so none of the documents I needed would print</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r141340489-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>141340489</t>
+  </si>
+  <si>
+    <t>09/26/2012</t>
+  </si>
+  <si>
+    <t>Very good value for your money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We staid there for 4 nights and found it a very good option. The double queen sized are larger and slightly cheaper than the king sized rooms. Breakfast was very solid with the usual continental breakfast stuff. As Europeans we loved the egg omlettes which allow a fairly light and healthy start. In our room we had a broken lamp which was replaced quickly and to to our full satisfaction. I would stay there again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r141340397-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>141340397</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r141280985-Quality_Inn_Suites-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -1393,6 +2192,46 @@
     <t>We stayed here for 6 days for a softball tournament. The manager we set everything up with was no longer there when our stay took place. She assured us we would get points for our stay. This was the main reason we chose this hotel. We were denied points by the new manager. Also never once were our sheets changed for our 6 night stay nor did my phone work properly. On several occasions we could not get anyone to help at the front desk. Stood there and waited on 2 or 3 occasions then gave up. I will not recommend a hotel that not only does not stand by their employee's promises or do the simple task of housekeeping. My rate was not that low to warrant this outcome.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r133223834-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>133223834</t>
+  </si>
+  <si>
+    <t>07/02/2012</t>
+  </si>
+  <si>
+    <t>Inexpensive But Needs Work &amp; Cleaning</t>
+  </si>
+  <si>
+    <t>My family stayed at this Quality Inn as a quick stop between activities in Denver and Glenwood Springs.  The price was very cheap for one night.  I booked through a third-party site and got the room for $73.43.  I did not have high expectations, but we knew it would just be for one night.
+We arrived at 2:45, but we had to wait around because we could not check in until 3.  The front desk people were very nice if a bit slow.  The room was larger than I expected and had a microwave mounted out of my kids' reach and a fridge they couldn't open.  The beds were comfortable enough, and the A/C worked fine and not too loudly.  The location is OK, but there are no handy food options.
+There were plenty of problems with this place.  The only chair in the room was a wooden-armed chair that you would see at a table instead of a living room-style one.  The sink was drippy, and you had to push hard on the faucet to get it to stop.  You could tell they had put a new fixture in above the mirror, but you could see the holes in the wall from the old one.  The walls had a couple other old fixture holes and stains on them and needed new paint and spackle.  At least one pillowcase and two towels had stains on them.  The shower curtain had...My family stayed at this Quality Inn as a quick stop between activities in Denver and Glenwood Springs.  The price was very cheap for one night.  I booked through a third-party site and got the room for $73.43.  I did not have high expectations, but we knew it would just be for one night.We arrived at 2:45, but we had to wait around because we could not check in until 3.  The front desk people were very nice if a bit slow.  The room was larger than I expected and had a microwave mounted out of my kids' reach and a fridge they couldn't open.  The beds were comfortable enough, and the A/C worked fine and not too loudly.  The location is OK, but there are no handy food options.There were plenty of problems with this place.  The only chair in the room was a wooden-armed chair that you would see at a table instead of a living room-style one.  The sink was drippy, and you had to push hard on the faucet to get it to stop.  You could tell they had put a new fixture in above the mirror, but you could see the holes in the wall from the old one.  The walls had a couple other old fixture holes and stains on them and needed new paint and spackle.  At least one pillowcase and two towels had stains on them.  The shower curtain had a lot of dirt on it, and the bathroom was full of long hairs.  The carpet was filthy.  All of us had filthy feet and socks by the time we changed into our pajamas, and that didn't make me feel very comfortable as far as my children were concerned.  There was no alarm clock in the room.  We had to look at the microwave for the time, and I couldn't see it without my glasses.  The remote had exposed batteries which we had to confiscate from our kids.  The breakfast had only carbs, fat, and inedible oranges.  I ended up feeding my kids some plums I had in a cooler bag.This is definitely not a destination stop.  There is no pool, and the rooms are not inviting.  This is only a place to stay if you need a cheap room for a pit stop.  This could be a decent hotel if some attention was given to maintenance and a good deep cleaning.  Until then, I will look elsewhere if I return to the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family stayed at this Quality Inn as a quick stop between activities in Denver and Glenwood Springs.  The price was very cheap for one night.  I booked through a third-party site and got the room for $73.43.  I did not have high expectations, but we knew it would just be for one night.
+We arrived at 2:45, but we had to wait around because we could not check in until 3.  The front desk people were very nice if a bit slow.  The room was larger than I expected and had a microwave mounted out of my kids' reach and a fridge they couldn't open.  The beds were comfortable enough, and the A/C worked fine and not too loudly.  The location is OK, but there are no handy food options.
+There were plenty of problems with this place.  The only chair in the room was a wooden-armed chair that you would see at a table instead of a living room-style one.  The sink was drippy, and you had to push hard on the faucet to get it to stop.  You could tell they had put a new fixture in above the mirror, but you could see the holes in the wall from the old one.  The walls had a couple other old fixture holes and stains on them and needed new paint and spackle.  At least one pillowcase and two towels had stains on them.  The shower curtain had...My family stayed at this Quality Inn as a quick stop between activities in Denver and Glenwood Springs.  The price was very cheap for one night.  I booked through a third-party site and got the room for $73.43.  I did not have high expectations, but we knew it would just be for one night.We arrived at 2:45, but we had to wait around because we could not check in until 3.  The front desk people were very nice if a bit slow.  The room was larger than I expected and had a microwave mounted out of my kids' reach and a fridge they couldn't open.  The beds were comfortable enough, and the A/C worked fine and not too loudly.  The location is OK, but there are no handy food options.There were plenty of problems with this place.  The only chair in the room was a wooden-armed chair that you would see at a table instead of a living room-style one.  The sink was drippy, and you had to push hard on the faucet to get it to stop.  You could tell they had put a new fixture in above the mirror, but you could see the holes in the wall from the old one.  The walls had a couple other old fixture holes and stains on them and needed new paint and spackle.  At least one pillowcase and two towels had stains on them.  The shower curtain had a lot of dirt on it, and the bathroom was full of long hairs.  The carpet was filthy.  All of us had filthy feet and socks by the time we changed into our pajamas, and that didn't make me feel very comfortable as far as my children were concerned.  There was no alarm clock in the room.  We had to look at the microwave for the time, and I couldn't see it without my glasses.  The remote had exposed batteries which we had to confiscate from our kids.  The breakfast had only carbs, fat, and inedible oranges.  I ended up feeding my kids some plums I had in a cooler bag.This is definitely not a destination stop.  There is no pool, and the rooms are not inviting.  This is only a place to stay if you need a cheap room for a pit stop.  This could be a decent hotel if some attention was given to maintenance and a good deep cleaning.  Until then, I will look elsewhere if I return to the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r132952650-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>132952650</t>
+  </si>
+  <si>
+    <t>06/28/2012</t>
+  </si>
+  <si>
+    <t>Not great, but could have been worse</t>
+  </si>
+  <si>
+    <t>The front desk people were very friendly and helpful. I needed a safety pin to fix something and the girl at the front gave me the safety pin from her nametag. Very nice.On the flip side, there was hair (not mine) in my towels. Also, there was no hot water one day. That may have been a good thing, as I had a very important meeting and the cold shower really woke me up. But, I'd prefer my coffee to wake me up.I didn't even look at the breakfast buffet. The location is within a mile or so of a good stretch of restaurants. But, there are no good restaurants within walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>The front desk people were very friendly and helpful. I needed a safety pin to fix something and the girl at the front gave me the safety pin from her nametag. Very nice.On the flip side, there was hair (not mine) in my towels. Also, there was no hot water one day. That may have been a good thing, as I had a very important meeting and the cold shower really woke me up. But, I'd prefer my coffee to wake me up.I didn't even look at the breakfast buffet. The location is within a mile or so of a good stretch of restaurants. But, there are no good restaurants within walking distance.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r129938894-Quality_Inn_Suites-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -1450,12 +2289,48 @@
     <t>The breakfast left a lot to be desired but it was free.  The staff behind the desk were very unprofessional and acted like they were on a play date instead of at work.  The service from the cleaning personnel was outstanding as we were to stay 2 nights but decided it wasn't worth the breakfast and considered the 2nd night fee worth leaving behind.  There is NO pool here so be prepared.  The workout room is tiny but doable, although someone put the universal machine together wrong so it didn't work right.  Our room was clean and comfortable.  It had a microwave, pretty large fridge and the water pressure in the shower was great.  Other than the attendants behind the desk and the breakfast, don't expect a lot or a pool.MoreShow less</t>
   </si>
   <si>
-    <t>April 2012</t>
-  </si>
-  <si>
     <t>The breakfast left a lot to be desired but it was free.  The staff behind the desk were very unprofessional and acted like they were on a play date instead of at work.  The service from the cleaning personnel was outstanding as we were to stay 2 nights but decided it wasn't worth the breakfast and considered the 2nd night fee worth leaving behind.  There is NO pool here so be prepared.  The workout room is tiny but doable, although someone put the universal machine together wrong so it didn't work right.  Our room was clean and comfortable.  It had a microwave, pretty large fridge and the water pressure in the shower was great.  Other than the attendants behind the desk and the breakfast, don't expect a lot or a pool.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r122740801-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>122740801</t>
+  </si>
+  <si>
+    <t>01/07/2012</t>
+  </si>
+  <si>
+    <t>Good stay, especially for the discounted price!</t>
+  </si>
+  <si>
+    <t>We took advantage of the 40% Black Friday sale and paid about $48 a night over New Years weekend! For the price, the stay was great, but if we had to pay full price (around $75 to $85 a night), we would have been disappointed. Pros: - Staff (front desk, housekeeping, AND maintenance all responded to us promptly when neeed)- Breakfast was solid- Bed was comfortable- Location was decent (Denny's and Old Chicago are walkable, Hwy 285 is a minute away)- Microwave and large fridge in the room Cons: - Walls are paper thin. We could hear every word of our neighbor's television; however, staff responded quickly when we contacted them about the noise- Chairs in the room were uncomfortable- Our toilet plugged up easily (but maintenance responded quickly)- The faucet was leakyAgain, given the price we paid (40% off), we were pleased with what we received. We would consider staying there again, but if there were less expensive alternatives, we would consider those as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>We took advantage of the 40% Black Friday sale and paid about $48 a night over New Years weekend! For the price, the stay was great, but if we had to pay full price (around $75 to $85 a night), we would have been disappointed. Pros: - Staff (front desk, housekeeping, AND maintenance all responded to us promptly when neeed)- Breakfast was solid- Bed was comfortable- Location was decent (Denny's and Old Chicago are walkable, Hwy 285 is a minute away)- Microwave and large fridge in the room Cons: - Walls are paper thin. We could hear every word of our neighbor's television; however, staff responded quickly when we contacted them about the noise- Chairs in the room were uncomfortable- Our toilet plugged up easily (but maintenance responded quickly)- The faucet was leakyAgain, given the price we paid (40% off), we were pleased with what we received. We would consider staying there again, but if there were less expensive alternatives, we would consider those as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r121977568-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>121977568</t>
+  </si>
+  <si>
+    <t>12/22/2011</t>
+  </si>
+  <si>
+    <t>Great Hotel for the price!</t>
+  </si>
+  <si>
+    <t>For an inexpensive stay in Denver this place is hard to beat. The price is right, the free breakfast in the morning is adaquat, the rooms are clean, the staff is very helpfull, and the place is very quiet. For "any time of the day dinning"  it is located next to a Denny's and for "supper and a few beers" type meal there is an Old Chicago next door too. For those who like to shop . . . Wadsworth Avenue runs North &amp; South right next door. Wtih all kinds of stores and malls 5 miles either way you should be able to find what you want without traveling all over Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>For an inexpensive stay in Denver this place is hard to beat. The price is right, the free breakfast in the morning is adaquat, the rooms are clean, the staff is very helpfull, and the place is very quiet. For "any time of the day dinning"  it is located next to a Denny's and for "supper and a few beers" type meal there is an Old Chicago next door too. For those who like to shop . . . Wadsworth Avenue runs North &amp; South right next door. Wtih all kinds of stores and malls 5 miles either way you should be able to find what you want without traveling all over Denver.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r121789258-Quality_Inn_Suites-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -1507,6 +2382,48 @@
     <t>I was staying here while trying to find my lost dog, who escaped the shipper  while being transported from Tennesse to Wyoming.  It was a very stressful time for me and the staff all were so kind and helpful.  The room was clean and I loved the 4 pillows on each bed.  Microwave and refrigerator and the in room coffee pot was great.  Although I was only in the room for a few hours at night, it was quiet and they were kind enough to put me on the first floor.  I got a great rate also.  I didn't find my dog but hopefully with all the poster I put up and sightings I've had since coming home someone will find her and if so I will stay there again.  The full breakfast was standard but was good.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r115597533-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>115597533</t>
+  </si>
+  <si>
+    <t>07/20/2011</t>
+  </si>
+  <si>
+    <t>A good Neighborhood means Little</t>
+  </si>
+  <si>
+    <t>Driving in all looked fairly ok. Check in is where the concern began. The girl at the desk dress code would not have passed my mom for sure. She was unaware of what in walking distance restaurants were, she was able to direct me to Denny's (yippie). Down the grungy carpet halls smeling of stale smoke and old food, to my room to find silverfish in the bath and an airconditioner that must have an altered thermostat as at 70 degrees I am sweating.Breakfast is fine if you enjoy poor coffee (I have had worse), high fat process food and sausage that may have been rejected by McDonalds. The TV channel guide in the room was very inaccurate, so were the two I got at the front desk over the nest two evenings. When I advised of this I was told this was all they had, it must be related to 50% of the channels that are not viewable. the internet works fine for a hotel and the parking and exterior security are good, I hope.not real enjoyable but it is better than some. Check availability and request a rate deduction, I got here as a last choice location. Yuck is the cleanest 4 letter word I can use here.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>Driving in all looked fairly ok. Check in is where the concern began. The girl at the desk dress code would not have passed my mom for sure. She was unaware of what in walking distance restaurants were, she was able to direct me to Denny's (yippie). Down the grungy carpet halls smeling of stale smoke and old food, to my room to find silverfish in the bath and an airconditioner that must have an altered thermostat as at 70 degrees I am sweating.Breakfast is fine if you enjoy poor coffee (I have had worse), high fat process food and sausage that may have been rejected by McDonalds. The TV channel guide in the room was very inaccurate, so were the two I got at the front desk over the nest two evenings. When I advised of this I was told this was all they had, it must be related to 50% of the channels that are not viewable. the internet works fine for a hotel and the parking and exterior security are good, I hope.not real enjoyable but it is better than some. Check availability and request a rate deduction, I got here as a last choice location. Yuck is the cleanest 4 letter word I can use here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r103297171-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>103297171</t>
+  </si>
+  <si>
+    <t>04/08/2011</t>
+  </si>
+  <si>
+    <t>the worst hotel i have ever stayed in</t>
+  </si>
+  <si>
+    <t>I would like to warn others not to stay at this hotel.  I booked it through Choice Privileges. The entry doors are small and Manual.  Hard to get your luggage through. The Man who checked me in was not friendly.  The hotel smelled like Cigarette Smoke.  Once in the room, the carpet was dirty, the refrigerator handle was broken, there was hair on the sheets. I went down to the front desk to request a roll-away, was charged $15 to take it up to the room myself.  The front desk guy handed me a pillow, blanket and top sheet, no fitted sheet.  The roll-away was secured shut with a piece of string that was filthy.  After we got back from dinner, the toilet was not functioning well.  When I called the front desk he said that we could come down and pick up a plunger.  It appeared as if he was the only staff member on property from the time we checked in.  The toilet ended up overflowing and we had to move to another room which I had to go down to the front desk for the new keys.  No assistance was offered or discount of any kind. In the morning, there was trash in the elevator that was still there two hours later when we checked out.  When I complained about the toilet overflowing at checkout, the girl at the front desk hand wrote a 15% discount if...I would like to warn others not to stay at this hotel.  I booked it through Choice Privileges. The entry doors are small and Manual.  Hard to get your luggage through. The Man who checked me in was not friendly.  The hotel smelled like Cigarette Smoke.  Once in the room, the carpet was dirty, the refrigerator handle was broken, there was hair on the sheets. I went down to the front desk to request a roll-away, was charged $15 to take it up to the room myself.  The front desk guy handed me a pillow, blanket and top sheet, no fitted sheet.  The roll-away was secured shut with a piece of string that was filthy.  After we got back from dinner, the toilet was not functioning well.  When I called the front desk he said that we could come down and pick up a plunger.  It appeared as if he was the only staff member on property from the time we checked in.  The toilet ended up overflowing and we had to move to another room which I had to go down to the front desk for the new keys.  No assistance was offered or discount of any kind. In the morning, there was trash in the elevator that was still there two hours later when we checked out.  When I complained about the toilet overflowing at checkout, the girl at the front desk hand wrote a 15% discount if we came back and stayed there.  I asked if she could at  least apply it to my bill and she said no.  When we walked out of the hotel, there was a room refrigerator on the sidewalk by the front door.  All in all, a bad experience.  I will never stay there again.  It is by no means up to Standard to be part of the Choice Hotels.  I have never stayed in a worse hotel in my life!!!!!!!!!!!!!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>I would like to warn others not to stay at this hotel.  I booked it through Choice Privileges. The entry doors are small and Manual.  Hard to get your luggage through. The Man who checked me in was not friendly.  The hotel smelled like Cigarette Smoke.  Once in the room, the carpet was dirty, the refrigerator handle was broken, there was hair on the sheets. I went down to the front desk to request a roll-away, was charged $15 to take it up to the room myself.  The front desk guy handed me a pillow, blanket and top sheet, no fitted sheet.  The roll-away was secured shut with a piece of string that was filthy.  After we got back from dinner, the toilet was not functioning well.  When I called the front desk he said that we could come down and pick up a plunger.  It appeared as if he was the only staff member on property from the time we checked in.  The toilet ended up overflowing and we had to move to another room which I had to go down to the front desk for the new keys.  No assistance was offered or discount of any kind. In the morning, there was trash in the elevator that was still there two hours later when we checked out.  When I complained about the toilet overflowing at checkout, the girl at the front desk hand wrote a 15% discount if...I would like to warn others not to stay at this hotel.  I booked it through Choice Privileges. The entry doors are small and Manual.  Hard to get your luggage through. The Man who checked me in was not friendly.  The hotel smelled like Cigarette Smoke.  Once in the room, the carpet was dirty, the refrigerator handle was broken, there was hair on the sheets. I went down to the front desk to request a roll-away, was charged $15 to take it up to the room myself.  The front desk guy handed me a pillow, blanket and top sheet, no fitted sheet.  The roll-away was secured shut with a piece of string that was filthy.  After we got back from dinner, the toilet was not functioning well.  When I called the front desk he said that we could come down and pick up a plunger.  It appeared as if he was the only staff member on property from the time we checked in.  The toilet ended up overflowing and we had to move to another room which I had to go down to the front desk for the new keys.  No assistance was offered or discount of any kind. In the morning, there was trash in the elevator that was still there two hours later when we checked out.  When I complained about the toilet overflowing at checkout, the girl at the front desk hand wrote a 15% discount if we came back and stayed there.  I asked if she could at  least apply it to my bill and she said no.  When we walked out of the hotel, there was a room refrigerator on the sidewalk by the front door.  All in all, a bad experience.  I will never stay there again.  It is by no means up to Standard to be part of the Choice Hotels.  I have never stayed in a worse hotel in my life!!!!!!!!!!!!!!!!!!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r86218447-Quality_Inn_Suites-Lakewood_Colorado.html</t>
   </si>
   <si>
@@ -1556,6 +2473,42 @@
   </si>
   <si>
     <t>This was probably one of the nicer Super 8 locations I've ever stayed at. The location was nice with lots of things nearby.The hotel was nice and clean, the staff was informative. The hotel was quiet and had a nice breakfast with a waffle maker. We didn't have any problems with the hotel. We had booked it for two nights, but changed our minds to one night and had not problem canceling the second night.I can't think of any problems with the hotel, would stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r73470340-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>73470340</t>
+  </si>
+  <si>
+    <t>08/02/2010</t>
+  </si>
+  <si>
+    <t>Great stay - check in was a hastle!</t>
+  </si>
+  <si>
+    <t>My husband &amp; I booked this hotel months in advance since we planned on attending the drag races at Bandimere Raceway in Morrison. We got a great rate - booked through Priceline.com at $50/night for all 3 nights. The hotel is very clean &amp; quiet, restaurants within walking distance - we have no complaints on the cleanliness or quality of the place. BUT - BE ADVISED YOU MAY BE MADE TO WAIT TO CHECK IN AT 3PM ONLY! We arrived at 1:50 pm &amp; had to wait until 3pm to check in. We weren't the only one's either. Many patrons were very upset to learn they had to wait until 3pm without even a check from the desk clerk to see if any of our rooms were actually ready when we arrived. That was disappointing &amp; a pain in the butt to wait...it made us late for the Friday night races since everyone checked in at 3pm, we actually didn't get to our room until after 3:30 pm!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>My husband &amp; I booked this hotel months in advance since we planned on attending the drag races at Bandimere Raceway in Morrison. We got a great rate - booked through Priceline.com at $50/night for all 3 nights. The hotel is very clean &amp; quiet, restaurants within walking distance - we have no complaints on the cleanliness or quality of the place. BUT - BE ADVISED YOU MAY BE MADE TO WAIT TO CHECK IN AT 3PM ONLY! We arrived at 1:50 pm &amp; had to wait until 3pm to check in. We weren't the only one's either. Many patrons were very upset to learn they had to wait until 3pm without even a check from the desk clerk to see if any of our rooms were actually ready when we arrived. That was disappointing &amp; a pain in the butt to wait...it made us late for the Friday night races since everyone checked in at 3pm, we actually didn't get to our room until after 3:30 pm!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r71060576-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>71060576</t>
+  </si>
+  <si>
+    <t>07/15/2010</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>This was a nice Hotel with clean room and good beds.  The staff were friendly and helpful.  This hotel is located in a central area with easy access and many good resturants around it.  I would recommend this place to anyone and would stay there again if I am ever in the area.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r62358141-Quality_Inn_Suites-Lakewood_Colorado.html</t>
@@ -1614,6 +2567,24 @@
   </si>
   <si>
     <t>December 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119930-r11195715-Quality_Inn_Suites-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>11195715</t>
+  </si>
+  <si>
+    <t>12/01/2007</t>
+  </si>
+  <si>
+    <t>More like Ghetto fab 8</t>
+  </si>
+  <si>
+    <t>I stayed here around mid May of 2007 for a week with a friend who came from out of town.  The place looked ok upon driving up to it &amp; parking.  We checked in ok, brought my friend's stuff in &amp; got to our room which wasn't bad.  It was a two bed room with an adequate shower &amp; decent closet space.  TV worked just fine, also, as did the free wireless internet.  However; the free continental breakfast ended too early, we were always left with small boxes of cereal &amp; a bagel, if that.  There were a couple of rooms further down the hall who were full of pot smoking painters, who knows what they were doing there.  Either on vacation or working? anyways, the entire floor reeked of marijuana, &amp; although at times I don't mind the smell, a hotel or motel is the last place I would expect it to linger.   There was no pool, &amp; my poor friend walked around helplessly in nothingbut her swimsuit before asking the front desk attendant if they had a pool.  To which she replied rather sternly, "sorry, we don't have a pool, you'll have to go to the Quality Suites next door to use their pool".  We never went over there because the clientele in that hotel weren't much better than the ones in the Super8. The "desk" in the room fell apart, the front part of the desk came...I stayed here around mid May of 2007 for a week with a friend who came from out of town.  The place looked ok upon driving up to it &amp; parking.  We checked in ok, brought my friend's stuff in &amp; got to our room which wasn't bad.  It was a two bed room with an adequate shower &amp; decent closet space.  TV worked just fine, also, as did the free wireless internet.  However; the free continental breakfast ended too early, we were always left with small boxes of cereal &amp; a bagel, if that.  There were a couple of rooms further down the hall who were full of pot smoking painters, who knows what they were doing there.  Either on vacation or working? anyways, the entire floor reeked of marijuana, &amp; although at times I don't mind the smell, a hotel or motel is the last place I would expect it to linger.   There was no pool, &amp; my poor friend walked around helplessly in nothingbut her swimsuit before asking the front desk attendant if they had a pool.  To which she replied rather sternly, "sorry, we don't have a pool, you'll have to go to the Quality Suites next door to use their pool".  We never went over there because the clientele in that hotel weren't much better than the ones in the Super8. The "desk" in the room fell apart, the front part of the desk came clean off &amp; fell into my lap, scraping up my leg.  What was it made of, wood &amp; superglue? &amp; I didn't like that the same group of pothead painters were allowed to loiter around the parking lot all day with no problem.  The police, &amp;/or fire department were there almost everynight, once for a small child choking on something &amp; another time the police were there for some kind of complaint.  By that time, my friend &amp; I had had enough.  Thankfully the stay was only a week, because that was a week too long! Will definitely not be going back there.  I guess at Super8, you get what you pay for.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here around mid May of 2007 for a week with a friend who came from out of town.  The place looked ok upon driving up to it &amp; parking.  We checked in ok, brought my friend's stuff in &amp; got to our room which wasn't bad.  It was a two bed room with an adequate shower &amp; decent closet space.  TV worked just fine, also, as did the free wireless internet.  However; the free continental breakfast ended too early, we were always left with small boxes of cereal &amp; a bagel, if that.  There were a couple of rooms further down the hall who were full of pot smoking painters, who knows what they were doing there.  Either on vacation or working? anyways, the entire floor reeked of marijuana, &amp; although at times I don't mind the smell, a hotel or motel is the last place I would expect it to linger.   There was no pool, &amp; my poor friend walked around helplessly in nothingbut her swimsuit before asking the front desk attendant if they had a pool.  To which she replied rather sternly, "sorry, we don't have a pool, you'll have to go to the Quality Suites next door to use their pool".  We never went over there because the clientele in that hotel weren't much better than the ones in the Super8. The "desk" in the room fell apart, the front part of the desk came...I stayed here around mid May of 2007 for a week with a friend who came from out of town.  The place looked ok upon driving up to it &amp; parking.  We checked in ok, brought my friend's stuff in &amp; got to our room which wasn't bad.  It was a two bed room with an adequate shower &amp; decent closet space.  TV worked just fine, also, as did the free wireless internet.  However; the free continental breakfast ended too early, we were always left with small boxes of cereal &amp; a bagel, if that.  There were a couple of rooms further down the hall who were full of pot smoking painters, who knows what they were doing there.  Either on vacation or working? anyways, the entire floor reeked of marijuana, &amp; although at times I don't mind the smell, a hotel or motel is the last place I would expect it to linger.   There was no pool, &amp; my poor friend walked around helplessly in nothingbut her swimsuit before asking the front desk attendant if they had a pool.  To which she replied rather sternly, "sorry, we don't have a pool, you'll have to go to the Quality Suites next door to use their pool".  We never went over there because the clientele in that hotel weren't much better than the ones in the Super8. The "desk" in the room fell apart, the front part of the desk came clean off &amp; fell into my lap, scraping up my leg.  What was it made of, wood &amp; superglue? &amp; I didn't like that the same group of pothead painters were allowed to loiter around the parking lot all day with no problem.  The police, &amp;/or fire department were there almost everynight, once for a small child choking on something &amp; another time the police were there for some kind of complaint.  By that time, my friend &amp; I had had enough.  Thankfully the stay was only a week, because that was a week too long! Will definitely not be going back there.  I guess at Super8, you get what you pay for.More</t>
   </si>
 </sst>
 </file>
@@ -2148,23 +3119,33 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
-      <c r="P2" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -2180,52 +3161,52 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
         <v>52</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="O3" t="s">
         <v>53</v>
-      </c>
-      <c r="J3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>57</v>
-      </c>
-      <c r="O3" t="s">
-        <v>58</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>59</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
         <v>60</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -2241,58 +3222,48 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>57</v>
       </c>
       <c r="O4" t="s">
         <v>67</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3</v>
-      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
         <v>68</v>
-      </c>
-      <c r="X4" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -2308,34 +3279,34 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>72</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>73</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>74</v>
       </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>76</v>
-      </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2347,13 +3318,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s">
         <v>77</v>
-      </c>
-      <c r="X5" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6">
@@ -2369,56 +3340,44 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
         <v>80</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>81</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>82</v>
       </c>
-      <c r="K6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" t="s">
-        <v>84</v>
-      </c>
       <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>76</v>
-      </c>
-      <c r="O6" t="s">
-        <v>67</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>3</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>77</v>
-      </c>
-      <c r="X6" t="s">
-        <v>78</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -2434,58 +3393,52 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
         <v>86</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>87</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>88</v>
       </c>
-      <c r="K7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>91</v>
-      </c>
       <c r="O7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>4</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>4</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="X7" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -2501,52 +3454,56 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>93</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>94</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>95</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>96</v>
       </c>
-      <c r="L8" t="s">
-        <v>97</v>
-      </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>98</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" t="s">
+        <v>98</v>
+      </c>
       <c r="Y8" t="s">
         <v>99</v>
       </c>
@@ -2585,10 +3542,10 @@
         <v>104</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="O9" t="s">
         <v>67</v>
@@ -2603,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="X9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
@@ -2625,7 +3582,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2634,22 +3591,22 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
         <v>67</v>
@@ -2663,10 +3620,14 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>115</v>
+      </c>
+      <c r="X10" t="s">
+        <v>116</v>
+      </c>
       <c r="Y10" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
@@ -2682,7 +3643,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2691,49 +3652,43 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>98</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="X11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="Y11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
@@ -2749,58 +3704,56 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
         <v>123</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
-        <v>124</v>
-      </c>
-      <c r="J12" t="s">
-        <v>125</v>
-      </c>
-      <c r="K12" t="s">
-        <v>126</v>
-      </c>
-      <c r="L12" t="s">
-        <v>127</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>128</v>
-      </c>
       <c r="O12" t="s">
-        <v>58</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="X12" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="Y12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -2816,7 +3769,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2825,43 +3778,49 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O13" t="s">
-        <v>98</v>
-      </c>
-      <c r="P13" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="X13" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y13" t="s">
         <v>137</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="14">
@@ -2877,34 +3836,34 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
         <v>139</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>140</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>141</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>142</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>136</v>
+      </c>
+      <c r="O14" t="s">
         <v>143</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>144</v>
-      </c>
-      <c r="O14" t="s">
-        <v>67</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2915,14 +3874,10 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>145</v>
-      </c>
-      <c r="X14" t="s">
-        <v>146</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
@@ -2938,56 +3893,52 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" t="s">
         <v>148</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
-        <v>149</v>
-      </c>
-      <c r="J15" t="s">
-        <v>150</v>
-      </c>
-      <c r="K15" t="s">
-        <v>151</v>
-      </c>
-      <c r="L15" t="s">
-        <v>152</v>
-      </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="O15" t="s">
-        <v>153</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q15" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>154</v>
-      </c>
-      <c r="X15" t="s">
-        <v>155</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16">
@@ -3003,7 +3954,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -3012,43 +3963,45 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="J16" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="L16" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="O16" t="s">
-        <v>58</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
         <v>154</v>
-      </c>
-      <c r="X16" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="17">
@@ -3064,7 +4017,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -3073,47 +4026,43 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="J17" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="K17" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="O17" t="s">
-        <v>67</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>1</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="X17" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="Y17" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18">
@@ -3129,7 +4078,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3138,25 +4087,25 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="J18" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K18" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="L18" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="O18" t="s">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3167,14 +4116,10 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>169</v>
-      </c>
-      <c r="X18" t="s">
-        <v>170</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19">
@@ -3190,7 +4135,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3199,49 +4144,47 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="J19" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="K19" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="L19" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="O19" t="s">
-        <v>58</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="X19" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="Y19" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20">
@@ -3257,7 +4200,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3266,25 +4209,25 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="J20" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="K20" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L20" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="O20" t="s">
-        <v>58</v>
+        <v>184</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3296,13 +4239,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="X20" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="Y20" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21">
@@ -3318,7 +4261,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3327,33 +4270,33 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="J21" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="K21" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="L21" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="O21" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
@@ -3369,7 +4312,7 @@
         <v>194</v>
       </c>
       <c r="Y21" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22">
@@ -3385,7 +4328,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3394,33 +4337,33 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="J22" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K22" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="O22" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="P22" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
-      <c r="R22" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
@@ -3430,13 +4373,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="X22" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="Y22" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23">
@@ -3452,7 +4395,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3461,25 +4404,25 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="J23" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="K23" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="O23" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3491,13 +4434,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="X23" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="Y23" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24">
@@ -3513,7 +4456,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3522,49 +4465,43 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="J24" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="K24" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="L24" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="O24" t="s">
         <v>67</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>2</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>3</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="X24" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="Y24" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25">
@@ -3580,7 +4517,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3589,43 +4526,53 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="J25" t="s">
         <v>222</v>
       </c>
       <c r="K25" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="O25" t="s">
-        <v>67</v>
-      </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="X25" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y25" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
@@ -3641,52 +4588,50 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>229</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>230</v>
+      </c>
+      <c r="J26" t="s">
+        <v>231</v>
+      </c>
+      <c r="K26" t="s">
+        <v>232</v>
+      </c>
+      <c r="L26" t="s">
         <v>233</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
         <v>234</v>
       </c>
-      <c r="J26" t="s">
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
         <v>235</v>
       </c>
-      <c r="K26" t="s">
+      <c r="X26" t="s">
         <v>236</v>
       </c>
-      <c r="L26" t="s">
-        <v>237</v>
-      </c>
-      <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>238</v>
-      </c>
-      <c r="O26" t="s">
-        <v>153</v>
-      </c>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="s"/>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
-      <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
       <c r="Y26" t="s">
         <v>237</v>
       </c>
@@ -3704,42 +4649,40 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>238</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
         <v>239</v>
       </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>240</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>241</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>242</v>
       </c>
-      <c r="L27" t="s">
-        <v>243</v>
-      </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="O27" t="s">
-        <v>67</v>
-      </c>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
@@ -3748,10 +4691,14 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>243</v>
+      </c>
+      <c r="X27" t="s">
+        <v>244</v>
+      </c>
       <c r="Y27" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28">
@@ -3767,7 +4714,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3776,43 +4723,43 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J28" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K28" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L28" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="O28" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>1</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>4</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>243</v>
+      </c>
+      <c r="X28" t="s">
+        <v>244</v>
+      </c>
       <c r="Y28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29">
@@ -3828,7 +4775,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3837,45 +4784,43 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J29" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K29" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="O29" t="s">
-        <v>58</v>
+        <v>184</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>257</v>
+      </c>
+      <c r="X29" t="s">
+        <v>258</v>
+      </c>
       <c r="Y29" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30">
@@ -3891,7 +4836,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3900,45 +4845,49 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="J30" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="K30" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="O30" t="s">
-        <v>67</v>
-      </c>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="s"/>
       <c r="R30" t="n">
         <v>4</v>
       </c>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>266</v>
+      </c>
+      <c r="X30" t="s">
+        <v>267</v>
+      </c>
       <c r="Y30" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31">
@@ -3954,7 +4903,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3963,43 +4912,47 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="J31" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="K31" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="L31" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>274</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
         <v>3</v>
       </c>
-      <c r="N31" t="s">
-        <v>261</v>
-      </c>
-      <c r="O31" t="s">
-        <v>58</v>
-      </c>
-      <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
-      <c r="R31" t="n">
-        <v>3</v>
-      </c>
+      <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>266</v>
+      </c>
+      <c r="X31" t="s">
+        <v>267</v>
+      </c>
       <c r="Y31" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32">
@@ -4015,7 +4968,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -4024,43 +4977,43 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="J32" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="K32" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="L32" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="O32" t="s">
-        <v>178</v>
+        <v>281</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
-      <c r="R32" t="n">
-        <v>1</v>
-      </c>
+      <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>1</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>266</v>
+      </c>
+      <c r="X32" t="s">
+        <v>267</v>
+      </c>
       <c r="Y32" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33">
@@ -4076,7 +5029,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4085,39 +5038,49 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="J33" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="K33" t="s">
-        <v>278</v>
+        <v>166</v>
       </c>
       <c r="L33" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O33" t="s">
         <v>67</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>287</v>
+      </c>
+      <c r="X33" t="s">
+        <v>288</v>
+      </c>
       <c r="Y33" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34">
@@ -4133,7 +5096,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4142,39 +5105,49 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="J34" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="K34" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="L34" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="O34" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>287</v>
+      </c>
+      <c r="X34" t="s">
+        <v>288</v>
+      </c>
       <c r="Y34" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35">
@@ -4190,7 +5163,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4199,45 +5172,49 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="J35" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="K35" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="L35" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="O35" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="P35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q35" t="s"/>
-      <c r="R35" t="s"/>
-      <c r="S35" t="n">
-        <v>1</v>
-      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>287</v>
+      </c>
+      <c r="X35" t="s">
+        <v>288</v>
+      </c>
       <c r="Y35" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36">
@@ -4253,7 +5230,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4262,43 +5239,43 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="J36" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="K36" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="L36" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="O36" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>4</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>308</v>
+      </c>
+      <c r="X36" t="s">
+        <v>309</v>
+      </c>
       <c r="Y36" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37">
@@ -4314,7 +5291,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4323,45 +5300,49 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="J37" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="K37" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="L37" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="O37" t="s">
-        <v>67</v>
-      </c>
-      <c r="P37" t="s"/>
-      <c r="Q37" t="s"/>
-      <c r="R37" t="n">
-        <v>4</v>
-      </c>
-      <c r="S37" t="n">
+        <v>143</v>
+      </c>
+      <c r="P37" t="n">
         <v>3</v>
       </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>308</v>
+      </c>
+      <c r="X37" t="s">
+        <v>309</v>
+      </c>
       <c r="Y37" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38">
@@ -4377,7 +5358,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4386,39 +5367,49 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="J38" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="K38" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="L38" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="M38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="O38" t="s">
-        <v>58</v>
-      </c>
-      <c r="P38" t="s"/>
-      <c r="Q38" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
       <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>323</v>
+      </c>
+      <c r="X38" t="s">
+        <v>324</v>
+      </c>
       <c r="Y38" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39">
@@ -4434,7 +5425,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4443,45 +5434,43 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="J39" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="K39" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="L39" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="O39" t="s">
         <v>67</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
-      <c r="R39" t="n">
-        <v>3</v>
-      </c>
-      <c r="S39" t="n">
-        <v>2</v>
-      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>2</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>323</v>
+      </c>
+      <c r="X39" t="s">
+        <v>324</v>
+      </c>
       <c r="Y39" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40">
@@ -4497,7 +5486,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4506,37 +5495,37 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="J40" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="K40" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="L40" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
-      <c r="P40" t="n">
-        <v>1</v>
-      </c>
+      <c r="N40" t="s">
+        <v>322</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="n">
         <v>1</v>
       </c>
-      <c r="R40" t="n">
-        <v>2</v>
-      </c>
+      <c r="R40" t="s"/>
       <c r="S40" t="n">
         <v>1</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -4544,7 +5533,7 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41">
@@ -4560,7 +5549,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4569,45 +5558,43 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="J41" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="K41" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="L41" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="O41" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="P41" t="s"/>
-      <c r="Q41" t="n">
-        <v>3</v>
-      </c>
-      <c r="R41" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>1</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>343</v>
+      </c>
+      <c r="X41" t="s">
+        <v>344</v>
+      </c>
       <c r="Y41" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42">
@@ -4623,7 +5610,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4632,45 +5619,49 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="J42" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="K42" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="L42" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="O42" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
-        <v>3</v>
-      </c>
-      <c r="R42" t="n">
         <v>2</v>
       </c>
-      <c r="S42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>351</v>
+      </c>
+      <c r="X42" t="s">
+        <v>352</v>
+      </c>
       <c r="Y42" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43">
@@ -4686,7 +5677,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4695,22 +5686,26 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="J43" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="K43" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="L43" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
-      </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>342</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
@@ -4720,10 +5715,14 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>351</v>
+      </c>
+      <c r="X43" t="s">
+        <v>352</v>
+      </c>
       <c r="Y43" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="44">
@@ -4739,7 +5738,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4748,53 +5747,49 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="J44" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="K44" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="L44" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="O44" t="s">
-        <v>67</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
       <c r="Q44" t="n">
-        <v>4</v>
-      </c>
-      <c r="R44" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
       <c r="S44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="X44" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="Y44" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
     </row>
     <row r="45">
@@ -4810,7 +5805,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4819,51 +5814,49 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="J45" t="s">
-        <v>352</v>
-      </c>
-      <c r="K45" t="s"/>
+        <v>370</v>
+      </c>
+      <c r="K45" t="s">
+        <v>371</v>
+      </c>
       <c r="L45" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="M45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="O45" t="s">
-        <v>58</v>
-      </c>
-      <c r="P45" t="n">
-        <v>3</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="P45" t="s"/>
       <c r="Q45" t="n">
-        <v>3</v>
-      </c>
-      <c r="R45" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R45" t="s"/>
       <c r="S45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="X45" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="Y45" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
     </row>
     <row r="46">
@@ -4879,7 +5872,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4888,43 +5881,45 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="J46" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="K46" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="L46" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="O46" t="s">
-        <v>58</v>
+        <v>184</v>
       </c>
       <c r="P46" t="s"/>
-      <c r="Q46" t="s"/>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
       <c r="R46" t="s"/>
-      <c r="S46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
       <c r="T46" t="s"/>
-      <c r="U46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s">
-        <v>347</v>
-      </c>
-      <c r="X46" t="s">
-        <v>348</v>
-      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
     </row>
     <row r="47">
@@ -4940,7 +5935,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4949,43 +5944,45 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="J47" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="K47" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="L47" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="M47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="O47" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="P47" t="s"/>
-      <c r="Q47" t="s"/>
-      <c r="R47" t="s"/>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
       <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s">
-        <v>369</v>
-      </c>
-      <c r="X47" t="s">
-        <v>348</v>
-      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
     </row>
     <row r="48">
@@ -5001,7 +5998,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5010,49 +6007,43 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="J48" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="K48" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="L48" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="M48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="O48" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
+      <c r="R48" t="s"/>
       <c r="S48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s">
-        <v>347</v>
-      </c>
-      <c r="X48" t="s">
-        <v>348</v>
-      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
     </row>
     <row r="49">
@@ -5068,7 +6059,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5077,53 +6068,39 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="J49" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="K49" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="L49" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="O49" t="s">
         <v>67</v>
       </c>
-      <c r="P49" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>5</v>
-      </c>
-      <c r="R49" t="n">
-        <v>4</v>
-      </c>
-      <c r="S49" t="n">
-        <v>4</v>
-      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>4</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s">
-        <v>347</v>
-      </c>
-      <c r="X49" t="s">
-        <v>348</v>
-      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
     </row>
     <row r="50">
@@ -5139,7 +6116,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5148,53 +6125,39 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="J50" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="K50" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="L50" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="M50" t="n">
         <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="O50" t="s">
-        <v>98</v>
-      </c>
-      <c r="P50" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>2</v>
-      </c>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
-      <c r="S50" t="n">
-        <v>4</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="n">
-        <v>4</v>
-      </c>
+      <c r="U50" t="s"/>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s">
-        <v>347</v>
-      </c>
-      <c r="X50" t="s">
-        <v>348</v>
-      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51">
@@ -5210,7 +6173,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5219,53 +6182,45 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="J51" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="K51" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="L51" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="O51" t="s">
         <v>67</v>
       </c>
-      <c r="P51" t="n">
-        <v>1</v>
-      </c>
+      <c r="P51" t="s"/>
       <c r="Q51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R51" t="n">
-        <v>1</v>
-      </c>
-      <c r="S51" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s">
-        <v>347</v>
-      </c>
-      <c r="X51" t="s">
-        <v>348</v>
-      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52">
@@ -5281,7 +6236,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5290,38 +6245,34 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="J52" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="K52" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="L52" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="O52" t="s">
-        <v>67</v>
-      </c>
-      <c r="P52" t="n">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
         <v>1</v>
       </c>
-      <c r="Q52" t="n">
-        <v>3</v>
-      </c>
       <c r="R52" t="n">
-        <v>3</v>
-      </c>
-      <c r="S52" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
         <v>1</v>
@@ -5329,14 +6280,10 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s">
-        <v>347</v>
-      </c>
-      <c r="X52" t="s">
-        <v>348</v>
-      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="53">
@@ -5352,7 +6299,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5361,39 +6308,43 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="J53" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="K53" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="L53" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="O53" t="s">
         <v>67</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
-      <c r="R53" t="s"/>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
       <c r="S53" t="s"/>
       <c r="T53" t="s"/>
-      <c r="U53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54">
@@ -5409,7 +6360,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5418,41 +6369,35 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="J54" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="K54" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="L54" t="s">
+        <v>425</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
         <v>414</v>
       </c>
-      <c r="M54" t="n">
-        <v>2</v>
-      </c>
-      <c r="N54" t="s">
-        <v>415</v>
-      </c>
       <c r="O54" t="s">
-        <v>58</v>
-      </c>
-      <c r="P54" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>1</v>
-      </c>
-      <c r="R54" t="n">
-        <v>3</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
       <c r="S54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -5460,7 +6405,7 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="55">
@@ -5476,7 +6421,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5485,37 +6430,37 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="J55" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="K55" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="L55" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
-      </c>
-      <c r="N55" t="s"/>
-      <c r="O55" t="s"/>
-      <c r="P55" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>414</v>
+      </c>
+      <c r="O55" t="s">
+        <v>67</v>
+      </c>
+      <c r="P55" t="s"/>
       <c r="Q55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R55" t="n">
-        <v>4</v>
-      </c>
-      <c r="S55" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -5523,7 +6468,7 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="56">
@@ -5539,7 +6484,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5548,41 +6493,35 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="J56" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="K56" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="L56" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="M56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="O56" t="s">
-        <v>67</v>
-      </c>
-      <c r="P56" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>4</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
       <c r="R56" t="n">
-        <v>5</v>
-      </c>
-      <c r="S56" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
@@ -5590,7 +6529,7 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
     </row>
     <row r="57">
@@ -5606,7 +6545,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5615,25 +6554,25 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="J57" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="K57" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="L57" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="O57" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -5647,7 +6586,7 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
     </row>
     <row r="58">
@@ -5663,7 +6602,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5672,49 +6611,39 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="J58" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="K58" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="L58" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="O58" t="s">
-        <v>98</v>
-      </c>
-      <c r="P58" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>4</v>
-      </c>
-      <c r="R58" t="n">
-        <v>4</v>
-      </c>
-      <c r="S58" t="n">
-        <v>4</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
-      <c r="U58" t="n">
-        <v>2</v>
-      </c>
+      <c r="U58" t="s"/>
       <c r="V58" t="n">
         <v>0</v>
       </c>
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
     </row>
     <row r="59">
@@ -5730,7 +6659,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5739,25 +6668,25 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="J59" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="K59" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="L59" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="O59" t="s">
-        <v>58</v>
+        <v>184</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -5771,7 +6700,7 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
     </row>
     <row r="60">
@@ -5787,7 +6716,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5796,41 +6725,37 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="J60" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="K60" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="L60" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="M60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N60" t="s">
         <v>449</v>
       </c>
       <c r="O60" t="s">
-        <v>178</v>
-      </c>
-      <c r="P60" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
       <c r="R60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -5838,7 +6763,7 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="61">
@@ -5854,7 +6779,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5863,41 +6788,37 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="J61" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="K61" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="L61" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="O61" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="P61" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>3</v>
-      </c>
-      <c r="R61" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
       <c r="S61" t="n">
         <v>1</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -5905,7 +6826,7 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
     </row>
     <row r="62">
@@ -5921,7 +6842,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -5930,41 +6851,35 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="J62" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="K62" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="L62" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="M62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="O62" t="s">
-        <v>98</v>
-      </c>
-      <c r="P62" t="n">
-        <v>5</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="P62" t="s"/>
       <c r="Q62" t="n">
-        <v>4</v>
-      </c>
-      <c r="R62" t="n">
-        <v>5</v>
-      </c>
-      <c r="S62" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
@@ -5972,7 +6887,7 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
     </row>
     <row r="63">
@@ -5988,7 +6903,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -5997,32 +6912,28 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="J63" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="K63" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="L63" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="O63" t="s">
-        <v>58</v>
-      </c>
-      <c r="P63" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
       <c r="R63" t="n">
         <v>4</v>
       </c>
@@ -6031,7 +6942,7 @@
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -6039,7 +6950,7 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
     </row>
     <row r="64">
@@ -6055,7 +6966,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6064,41 +6975,35 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="J64" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="K64" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="L64" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O64" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="P64" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q64" t="n">
         <v>3</v>
       </c>
-      <c r="R64" t="n">
-        <v>3</v>
-      </c>
-      <c r="S64" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
@@ -6106,7 +7011,7 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
     </row>
     <row r="65">
@@ -6122,7 +7027,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -6131,45 +7036,39 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="J65" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="K65" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="L65" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="M65" t="n">
-        <v>4</v>
-      </c>
-      <c r="N65" t="s"/>
-      <c r="O65" t="s"/>
-      <c r="P65" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>4</v>
-      </c>
-      <c r="R65" t="n">
-        <v>5</v>
-      </c>
-      <c r="S65" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>409</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
       <c r="T65" t="s"/>
-      <c r="U65" t="n">
-        <v>5</v>
-      </c>
+      <c r="U65" t="s"/>
       <c r="V65" t="n">
         <v>0</v>
       </c>
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
     </row>
     <row r="66">
@@ -6185,7 +7084,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -6194,49 +7093,39 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="J66" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="K66" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="L66" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="M66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N66" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="O66" t="s">
-        <v>58</v>
-      </c>
-      <c r="P66" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>4</v>
-      </c>
-      <c r="R66" t="n">
-        <v>5</v>
-      </c>
-      <c r="S66" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
       <c r="T66" t="s"/>
-      <c r="U66" t="n">
-        <v>4</v>
-      </c>
+      <c r="U66" t="s"/>
       <c r="V66" t="n">
         <v>0</v>
       </c>
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
     </row>
     <row r="67">
@@ -6252,7 +7141,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="G67" t="s">
         <v>46</v>
@@ -6261,41 +7150,37 @@
         <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="J67" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="K67" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="L67" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="M67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N67" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="O67" t="s">
-        <v>153</v>
-      </c>
-      <c r="P67" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
       <c r="R67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T67" t="s"/>
       <c r="U67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
@@ -6303,7 +7188,7 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
     </row>
     <row r="68">
@@ -6319,7 +7204,7 @@
         <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="G68" t="s">
         <v>46</v>
@@ -6328,39 +7213,45 @@
         <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="J68" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="K68" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="L68" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="M68" t="n">
-        <v>3</v>
-      </c>
-      <c r="N68" t="s">
-        <v>500</v>
-      </c>
-      <c r="O68" t="s">
-        <v>58</v>
-      </c>
-      <c r="P68" t="s"/>
-      <c r="Q68" t="s"/>
-      <c r="R68" t="s"/>
-      <c r="S68" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
       <c r="T68" t="s"/>
-      <c r="U68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
       <c r="V68" t="n">
         <v>0</v>
       </c>
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
     </row>
     <row r="69">
@@ -6376,7 +7267,7 @@
         <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="G69" t="s">
         <v>46</v>
@@ -6385,41 +7276,37 @@
         <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="J69" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="K69" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="L69" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="O69" t="s">
-        <v>58</v>
+        <v>184</v>
       </c>
       <c r="P69" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q69" t="s"/>
       <c r="R69" t="n">
-        <v>4</v>
-      </c>
-      <c r="S69" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S69" t="s"/>
       <c r="T69" t="s"/>
       <c r="U69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
@@ -6427,7 +7314,7 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
     </row>
     <row r="70">
@@ -6443,7 +7330,7 @@
         <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="G70" t="s">
         <v>46</v>
@@ -6452,49 +7339,39 @@
         <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="J70" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="K70" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="L70" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="O70" t="s">
-        <v>67</v>
-      </c>
-      <c r="P70" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>4</v>
-      </c>
-      <c r="R70" t="n">
-        <v>5</v>
-      </c>
-      <c r="S70" t="n">
-        <v>4</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
       <c r="T70" t="s"/>
-      <c r="U70" t="n">
-        <v>4</v>
-      </c>
+      <c r="U70" t="s"/>
       <c r="V70" t="n">
         <v>0</v>
       </c>
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
     </row>
     <row r="71">
@@ -6510,7 +7387,7 @@
         <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="G71" t="s">
         <v>46</v>
@@ -6519,41 +7396,37 @@
         <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="J71" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="K71" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="L71" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="M71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="O71" t="s">
-        <v>153</v>
-      </c>
-      <c r="P71" t="n">
-        <v>5</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="P71" t="s"/>
       <c r="Q71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R71" t="n">
-        <v>5</v>
-      </c>
-      <c r="S71" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S71" t="s"/>
       <c r="T71" t="s"/>
       <c r="U71" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
@@ -6561,7 +7434,7 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
     </row>
     <row r="72">
@@ -6577,7 +7450,7 @@
         <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="G72" t="s">
         <v>46</v>
@@ -6586,41 +7459,37 @@
         <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="J72" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="K72" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="L72" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="M72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N72" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="O72" t="s">
-        <v>58</v>
-      </c>
-      <c r="P72" t="n">
-        <v>3</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="P72" t="s"/>
       <c r="Q72" t="n">
         <v>3</v>
       </c>
       <c r="R72" t="n">
-        <v>5</v>
-      </c>
-      <c r="S72" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S72" t="s"/>
       <c r="T72" t="s"/>
       <c r="U72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V72" t="n">
         <v>0</v>
@@ -6628,7 +7497,7 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
     </row>
     <row r="73">
@@ -6644,7 +7513,7 @@
         <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="G73" t="s">
         <v>46</v>
@@ -6653,49 +7522,3396 @@
         <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="J73" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="K73" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="L73" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="s">
-        <v>529</v>
-      </c>
-      <c r="O73" t="s">
-        <v>67</v>
-      </c>
-      <c r="P73" t="n">
         <v>2</v>
       </c>
-      <c r="Q73" t="n">
-        <v>3</v>
-      </c>
-      <c r="R73" t="n">
-        <v>3</v>
-      </c>
-      <c r="S73" t="n">
-        <v>1</v>
-      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
       <c r="T73" t="s"/>
-      <c r="U73" t="n">
-        <v>2</v>
-      </c>
+      <c r="U73" t="s"/>
       <c r="V73" t="n">
         <v>0</v>
       </c>
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>528</v>
+        <v>538</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>539</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>540</v>
+      </c>
+      <c r="J74" t="s">
+        <v>541</v>
+      </c>
+      <c r="K74" t="s">
+        <v>542</v>
+      </c>
+      <c r="L74" t="s">
+        <v>543</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>544</v>
+      </c>
+      <c r="O74" t="s">
+        <v>67</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>545</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>546</v>
+      </c>
+      <c r="J75" t="s">
+        <v>547</v>
+      </c>
+      <c r="K75" t="s">
+        <v>548</v>
+      </c>
+      <c r="L75" t="s">
+        <v>549</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>544</v>
+      </c>
+      <c r="O75" t="s">
+        <v>67</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="n">
+        <v>2</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>550</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>551</v>
+      </c>
+      <c r="J76" t="s">
+        <v>552</v>
+      </c>
+      <c r="K76" t="s">
+        <v>553</v>
+      </c>
+      <c r="L76" t="s">
+        <v>554</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>555</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>556</v>
+      </c>
+      <c r="X76" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>559</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>560</v>
+      </c>
+      <c r="J77" t="s">
+        <v>561</v>
+      </c>
+      <c r="K77" t="s"/>
+      <c r="L77" t="s">
+        <v>562</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>563</v>
+      </c>
+      <c r="O77" t="s">
+        <v>67</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>556</v>
+      </c>
+      <c r="X77" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>565</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>566</v>
+      </c>
+      <c r="J78" t="s">
+        <v>567</v>
+      </c>
+      <c r="K78" t="s">
+        <v>568</v>
+      </c>
+      <c r="L78" t="s">
+        <v>569</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>570</v>
+      </c>
+      <c r="O78" t="s">
+        <v>67</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>556</v>
+      </c>
+      <c r="X78" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>572</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>573</v>
+      </c>
+      <c r="J79" t="s">
+        <v>574</v>
+      </c>
+      <c r="K79" t="s">
+        <v>575</v>
+      </c>
+      <c r="L79" t="s">
+        <v>576</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>570</v>
+      </c>
+      <c r="O79" t="s">
+        <v>281</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>556</v>
+      </c>
+      <c r="X79" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>578</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>579</v>
+      </c>
+      <c r="J80" t="s">
+        <v>580</v>
+      </c>
+      <c r="K80" t="s">
+        <v>581</v>
+      </c>
+      <c r="L80" t="s">
+        <v>582</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" t="s">
+        <v>583</v>
+      </c>
+      <c r="O80" t="s">
+        <v>184</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="n">
+        <v>2</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>556</v>
+      </c>
+      <c r="X80" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>585</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>586</v>
+      </c>
+      <c r="J81" t="s">
+        <v>587</v>
+      </c>
+      <c r="K81" t="s">
+        <v>588</v>
+      </c>
+      <c r="L81" t="s">
+        <v>589</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="s">
+        <v>583</v>
+      </c>
+      <c r="O81" t="s">
+        <v>143</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>590</v>
+      </c>
+      <c r="X81" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>592</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>593</v>
+      </c>
+      <c r="J82" t="s">
+        <v>594</v>
+      </c>
+      <c r="K82" t="s">
+        <v>595</v>
+      </c>
+      <c r="L82" t="s">
+        <v>596</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s">
+        <v>583</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>556</v>
+      </c>
+      <c r="X82" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>598</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>599</v>
+      </c>
+      <c r="J83" t="s">
+        <v>600</v>
+      </c>
+      <c r="K83" t="s">
+        <v>601</v>
+      </c>
+      <c r="L83" t="s">
+        <v>602</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>583</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>556</v>
+      </c>
+      <c r="X83" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>604</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>605</v>
+      </c>
+      <c r="J84" t="s">
+        <v>606</v>
+      </c>
+      <c r="K84" t="s">
+        <v>607</v>
+      </c>
+      <c r="L84" t="s">
+        <v>608</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>555</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>556</v>
+      </c>
+      <c r="X84" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>610</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>611</v>
+      </c>
+      <c r="J85" t="s">
+        <v>612</v>
+      </c>
+      <c r="K85" t="s">
+        <v>613</v>
+      </c>
+      <c r="L85" t="s">
+        <v>614</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>615</v>
+      </c>
+      <c r="O85" t="s">
+        <v>281</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>556</v>
+      </c>
+      <c r="X85" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>617</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>618</v>
+      </c>
+      <c r="J86" t="s">
+        <v>619</v>
+      </c>
+      <c r="K86" t="s">
+        <v>620</v>
+      </c>
+      <c r="L86" t="s">
+        <v>621</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2</v>
+      </c>
+      <c r="N86" t="s">
+        <v>622</v>
+      </c>
+      <c r="O86" t="s">
+        <v>143</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>556</v>
+      </c>
+      <c r="X86" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>624</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>625</v>
+      </c>
+      <c r="J87" t="s">
+        <v>626</v>
+      </c>
+      <c r="K87" t="s">
+        <v>627</v>
+      </c>
+      <c r="L87" t="s">
+        <v>628</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>629</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>556</v>
+      </c>
+      <c r="X87" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>631</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>632</v>
+      </c>
+      <c r="J88" t="s">
+        <v>633</v>
+      </c>
+      <c r="K88" t="s">
+        <v>634</v>
+      </c>
+      <c r="L88" t="s">
+        <v>635</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
+        <v>636</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>2</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>556</v>
+      </c>
+      <c r="X88" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>638</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>639</v>
+      </c>
+      <c r="J89" t="s">
+        <v>640</v>
+      </c>
+      <c r="K89" t="s">
+        <v>641</v>
+      </c>
+      <c r="L89" t="s">
+        <v>642</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>636</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>556</v>
+      </c>
+      <c r="X89" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>644</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>645</v>
+      </c>
+      <c r="J90" t="s">
+        <v>646</v>
+      </c>
+      <c r="K90" t="s">
+        <v>647</v>
+      </c>
+      <c r="L90" t="s">
+        <v>648</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>556</v>
+      </c>
+      <c r="X90" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>650</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>651</v>
+      </c>
+      <c r="J91" t="s">
+        <v>652</v>
+      </c>
+      <c r="K91" t="s">
+        <v>653</v>
+      </c>
+      <c r="L91" t="s">
+        <v>654</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s">
+        <v>655</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>656</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>657</v>
+      </c>
+      <c r="J92" t="s">
+        <v>658</v>
+      </c>
+      <c r="K92" t="s">
+        <v>659</v>
+      </c>
+      <c r="L92" t="s">
+        <v>660</v>
+      </c>
+      <c r="M92" t="n">
+        <v>2</v>
+      </c>
+      <c r="N92" t="s">
+        <v>661</v>
+      </c>
+      <c r="O92" t="s">
+        <v>67</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R92" t="n">
+        <v>3</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>3</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>662</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>663</v>
+      </c>
+      <c r="J93" t="s">
+        <v>664</v>
+      </c>
+      <c r="K93" t="s">
+        <v>665</v>
+      </c>
+      <c r="L93" t="s">
+        <v>666</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>667</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>668</v>
+      </c>
+      <c r="J94" t="s">
+        <v>669</v>
+      </c>
+      <c r="K94" t="s">
+        <v>670</v>
+      </c>
+      <c r="L94" t="s">
+        <v>671</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>672</v>
+      </c>
+      <c r="O94" t="s">
+        <v>67</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>673</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>674</v>
+      </c>
+      <c r="J95" t="s">
+        <v>675</v>
+      </c>
+      <c r="K95" t="s">
+        <v>676</v>
+      </c>
+      <c r="L95" t="s">
+        <v>677</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>678</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>679</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>680</v>
+      </c>
+      <c r="J96" t="s">
+        <v>681</v>
+      </c>
+      <c r="K96" t="s">
+        <v>682</v>
+      </c>
+      <c r="L96" t="s">
+        <v>683</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>684</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>3</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>686</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>687</v>
+      </c>
+      <c r="J97" t="s">
+        <v>688</v>
+      </c>
+      <c r="K97" t="s">
+        <v>689</v>
+      </c>
+      <c r="L97" t="s">
+        <v>690</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="s">
+        <v>691</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="s"/>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>692</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>693</v>
+      </c>
+      <c r="J98" t="s">
+        <v>694</v>
+      </c>
+      <c r="K98" t="s">
+        <v>695</v>
+      </c>
+      <c r="L98" t="s">
+        <v>696</v>
+      </c>
+      <c r="M98" t="n">
+        <v>3</v>
+      </c>
+      <c r="N98" t="s">
+        <v>691</v>
+      </c>
+      <c r="O98" t="s">
+        <v>143</v>
+      </c>
+      <c r="P98" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>2</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>697</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>698</v>
+      </c>
+      <c r="J99" t="s">
+        <v>699</v>
+      </c>
+      <c r="K99" t="s">
+        <v>700</v>
+      </c>
+      <c r="L99" t="s">
+        <v>701</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="n">
+        <v>3</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>702</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>703</v>
+      </c>
+      <c r="J100" t="s">
+        <v>699</v>
+      </c>
+      <c r="K100" t="s"/>
+      <c r="L100" t="s"/>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>691</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>704</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>705</v>
+      </c>
+      <c r="J101" t="s">
+        <v>706</v>
+      </c>
+      <c r="K101" t="s">
+        <v>707</v>
+      </c>
+      <c r="L101" t="s">
+        <v>708</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>691</v>
+      </c>
+      <c r="O101" t="s">
+        <v>67</v>
+      </c>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="s"/>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>709</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>710</v>
+      </c>
+      <c r="J102" t="s">
+        <v>711</v>
+      </c>
+      <c r="K102" t="s">
+        <v>712</v>
+      </c>
+      <c r="L102" t="s">
+        <v>713</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>714</v>
+      </c>
+      <c r="O102" t="s">
+        <v>281</v>
+      </c>
+      <c r="P102" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>4</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>715</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>716</v>
+      </c>
+      <c r="J103" t="s">
+        <v>717</v>
+      </c>
+      <c r="K103" t="s">
+        <v>718</v>
+      </c>
+      <c r="L103" t="s">
+        <v>719</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="s">
+        <v>720</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>3</v>
+      </c>
+      <c r="R103" t="n">
+        <v>3</v>
+      </c>
+      <c r="S103" t="n">
+        <v>1</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>1</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>722</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>723</v>
+      </c>
+      <c r="J104" t="s">
+        <v>724</v>
+      </c>
+      <c r="K104" t="s">
+        <v>725</v>
+      </c>
+      <c r="L104" t="s">
+        <v>726</v>
+      </c>
+      <c r="M104" t="n">
+        <v>2</v>
+      </c>
+      <c r="N104" t="s">
+        <v>720</v>
+      </c>
+      <c r="O104" t="s">
+        <v>53</v>
+      </c>
+      <c r="P104" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>2</v>
+      </c>
+      <c r="R104" t="n">
+        <v>3</v>
+      </c>
+      <c r="S104" t="n">
+        <v>1</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>4</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>728</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>729</v>
+      </c>
+      <c r="J105" t="s">
+        <v>730</v>
+      </c>
+      <c r="K105" t="s">
+        <v>731</v>
+      </c>
+      <c r="L105" t="s">
+        <v>732</v>
+      </c>
+      <c r="M105" t="n">
+        <v>3</v>
+      </c>
+      <c r="N105" t="s">
+        <v>720</v>
+      </c>
+      <c r="O105" t="s">
+        <v>143</v>
+      </c>
+      <c r="P105" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>3</v>
+      </c>
+      <c r="R105" t="n">
+        <v>2</v>
+      </c>
+      <c r="S105" t="n">
+        <v>2</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>734</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>735</v>
+      </c>
+      <c r="J106" t="s">
+        <v>736</v>
+      </c>
+      <c r="K106" t="s">
+        <v>737</v>
+      </c>
+      <c r="L106" t="s">
+        <v>738</v>
+      </c>
+      <c r="M106" t="n">
+        <v>2</v>
+      </c>
+      <c r="N106" t="s">
+        <v>739</v>
+      </c>
+      <c r="O106" t="s">
+        <v>143</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>4</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>3</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>2</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>741</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>742</v>
+      </c>
+      <c r="J107" t="s">
+        <v>743</v>
+      </c>
+      <c r="K107" t="s">
+        <v>744</v>
+      </c>
+      <c r="L107" t="s">
+        <v>745</v>
+      </c>
+      <c r="M107" t="n">
+        <v>3</v>
+      </c>
+      <c r="N107" t="s">
+        <v>746</v>
+      </c>
+      <c r="O107" t="s">
+        <v>67</v>
+      </c>
+      <c r="P107" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>3</v>
+      </c>
+      <c r="R107" t="n">
+        <v>4</v>
+      </c>
+      <c r="S107" t="n">
+        <v>3</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>2</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>748</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>749</v>
+      </c>
+      <c r="J108" t="s">
+        <v>750</v>
+      </c>
+      <c r="K108" t="s">
+        <v>751</v>
+      </c>
+      <c r="L108" t="s">
+        <v>752</v>
+      </c>
+      <c r="M108" t="n">
+        <v>3</v>
+      </c>
+      <c r="N108" t="s">
+        <v>678</v>
+      </c>
+      <c r="O108" t="s">
+        <v>143</v>
+      </c>
+      <c r="P108" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>3</v>
+      </c>
+      <c r="R108" t="n">
+        <v>3</v>
+      </c>
+      <c r="S108" t="n">
+        <v>4</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>2</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>754</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>755</v>
+      </c>
+      <c r="J109" t="s">
+        <v>756</v>
+      </c>
+      <c r="K109" t="s">
+        <v>757</v>
+      </c>
+      <c r="L109" t="s">
+        <v>758</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s">
+        <v>759</v>
+      </c>
+      <c r="O109" t="s">
+        <v>53</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>4</v>
+      </c>
+      <c r="R109" t="n">
+        <v>4</v>
+      </c>
+      <c r="S109" t="n">
+        <v>4</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>761</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>762</v>
+      </c>
+      <c r="J110" t="s">
+        <v>763</v>
+      </c>
+      <c r="K110" t="s">
+        <v>764</v>
+      </c>
+      <c r="L110" t="s">
+        <v>765</v>
+      </c>
+      <c r="M110" t="n">
+        <v>4</v>
+      </c>
+      <c r="N110" t="s">
+        <v>759</v>
+      </c>
+      <c r="O110" t="s">
+        <v>53</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>4</v>
+      </c>
+      <c r="R110" t="n">
+        <v>5</v>
+      </c>
+      <c r="S110" t="n">
+        <v>4</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>767</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>768</v>
+      </c>
+      <c r="J111" t="s">
+        <v>769</v>
+      </c>
+      <c r="K111" t="s">
+        <v>770</v>
+      </c>
+      <c r="L111" t="s">
+        <v>771</v>
+      </c>
+      <c r="M111" t="n">
+        <v>4</v>
+      </c>
+      <c r="N111" t="s"/>
+      <c r="O111" t="s"/>
+      <c r="P111" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>4</v>
+      </c>
+      <c r="R111" t="n">
+        <v>5</v>
+      </c>
+      <c r="S111" t="n">
+        <v>5</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>5</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>772</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>773</v>
+      </c>
+      <c r="J112" t="s">
+        <v>774</v>
+      </c>
+      <c r="K112" t="s">
+        <v>775</v>
+      </c>
+      <c r="L112" t="s">
+        <v>776</v>
+      </c>
+      <c r="M112" t="n">
+        <v>4</v>
+      </c>
+      <c r="N112" t="s">
+        <v>777</v>
+      </c>
+      <c r="O112" t="s">
+        <v>67</v>
+      </c>
+      <c r="P112" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>4</v>
+      </c>
+      <c r="R112" t="n">
+        <v>5</v>
+      </c>
+      <c r="S112" t="n">
+        <v>5</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>4</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>778</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>779</v>
+      </c>
+      <c r="J113" t="s">
+        <v>780</v>
+      </c>
+      <c r="K113" t="s">
+        <v>781</v>
+      </c>
+      <c r="L113" t="s">
+        <v>782</v>
+      </c>
+      <c r="M113" t="n">
+        <v>4</v>
+      </c>
+      <c r="N113" t="s">
+        <v>777</v>
+      </c>
+      <c r="O113" t="s">
+        <v>184</v>
+      </c>
+      <c r="P113" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>5</v>
+      </c>
+      <c r="R113" t="n">
+        <v>5</v>
+      </c>
+      <c r="S113" t="n">
+        <v>5</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>5</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>784</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>785</v>
+      </c>
+      <c r="J114" t="s">
+        <v>786</v>
+      </c>
+      <c r="K114" t="s">
+        <v>787</v>
+      </c>
+      <c r="L114" t="s">
+        <v>788</v>
+      </c>
+      <c r="M114" t="n">
+        <v>2</v>
+      </c>
+      <c r="N114" t="s">
+        <v>789</v>
+      </c>
+      <c r="O114" t="s">
+        <v>143</v>
+      </c>
+      <c r="P114" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q114" t="s"/>
+      <c r="R114" t="s"/>
+      <c r="S114" t="n">
+        <v>2</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>2</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>791</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>792</v>
+      </c>
+      <c r="J115" t="s">
+        <v>793</v>
+      </c>
+      <c r="K115" t="s">
+        <v>794</v>
+      </c>
+      <c r="L115" t="s">
+        <v>795</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="s">
+        <v>796</v>
+      </c>
+      <c r="O115" t="s">
+        <v>53</v>
+      </c>
+      <c r="P115" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>1</v>
+      </c>
+      <c r="R115" t="n">
+        <v>3</v>
+      </c>
+      <c r="S115" t="n">
+        <v>1</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>1</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>798</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>799</v>
+      </c>
+      <c r="J116" t="s">
+        <v>800</v>
+      </c>
+      <c r="K116" t="s">
+        <v>801</v>
+      </c>
+      <c r="L116" t="s">
+        <v>802</v>
+      </c>
+      <c r="M116" t="n">
+        <v>3</v>
+      </c>
+      <c r="N116" t="s">
+        <v>803</v>
+      </c>
+      <c r="O116" t="s">
+        <v>67</v>
+      </c>
+      <c r="P116" t="s"/>
+      <c r="Q116" t="s"/>
+      <c r="R116" t="s"/>
+      <c r="S116" t="s"/>
+      <c r="T116" t="s"/>
+      <c r="U116" t="s"/>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s"/>
+      <c r="X116" t="s"/>
+      <c r="Y116" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B117" t="s"/>
+      <c r="C117" t="s"/>
+      <c r="D117" t="n">
+        <v>116</v>
+      </c>
+      <c r="E117" t="s">
+        <v>44</v>
+      </c>
+      <c r="F117" t="s">
+        <v>804</v>
+      </c>
+      <c r="G117" t="s">
+        <v>46</v>
+      </c>
+      <c r="H117" t="s">
+        <v>47</v>
+      </c>
+      <c r="I117" t="s">
+        <v>805</v>
+      </c>
+      <c r="J117" t="s">
+        <v>806</v>
+      </c>
+      <c r="K117" t="s">
+        <v>807</v>
+      </c>
+      <c r="L117" t="s">
+        <v>808</v>
+      </c>
+      <c r="M117" t="n">
+        <v>5</v>
+      </c>
+      <c r="N117" t="s">
+        <v>809</v>
+      </c>
+      <c r="O117" t="s">
+        <v>67</v>
+      </c>
+      <c r="P117" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>5</v>
+      </c>
+      <c r="R117" t="n">
+        <v>4</v>
+      </c>
+      <c r="S117" t="n">
+        <v>5</v>
+      </c>
+      <c r="T117" t="s"/>
+      <c r="U117" t="n">
+        <v>5</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="s"/>
+      <c r="X117" t="s"/>
+      <c r="Y117" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B118" t="s"/>
+      <c r="C118" t="s"/>
+      <c r="D118" t="n">
+        <v>117</v>
+      </c>
+      <c r="E118" t="s">
+        <v>44</v>
+      </c>
+      <c r="F118" t="s">
+        <v>810</v>
+      </c>
+      <c r="G118" t="s">
+        <v>46</v>
+      </c>
+      <c r="H118" t="s">
+        <v>47</v>
+      </c>
+      <c r="I118" t="s">
+        <v>811</v>
+      </c>
+      <c r="J118" t="s">
+        <v>812</v>
+      </c>
+      <c r="K118" t="s">
+        <v>813</v>
+      </c>
+      <c r="L118" t="s">
+        <v>814</v>
+      </c>
+      <c r="M118" t="n">
+        <v>4</v>
+      </c>
+      <c r="N118" t="s">
+        <v>809</v>
+      </c>
+      <c r="O118" t="s">
+        <v>53</v>
+      </c>
+      <c r="P118" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>4</v>
+      </c>
+      <c r="R118" t="n">
+        <v>5</v>
+      </c>
+      <c r="S118" t="n">
+        <v>4</v>
+      </c>
+      <c r="T118" t="s"/>
+      <c r="U118" t="n">
+        <v>4</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
+      <c r="W118" t="s"/>
+      <c r="X118" t="s"/>
+      <c r="Y118" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B119" t="s"/>
+      <c r="C119" t="s"/>
+      <c r="D119" t="n">
+        <v>118</v>
+      </c>
+      <c r="E119" t="s">
+        <v>44</v>
+      </c>
+      <c r="F119" t="s">
+        <v>815</v>
+      </c>
+      <c r="G119" t="s">
+        <v>46</v>
+      </c>
+      <c r="H119" t="s">
+        <v>47</v>
+      </c>
+      <c r="I119" t="s">
+        <v>816</v>
+      </c>
+      <c r="J119" t="s">
+        <v>817</v>
+      </c>
+      <c r="K119" t="s">
+        <v>818</v>
+      </c>
+      <c r="L119" t="s">
+        <v>819</v>
+      </c>
+      <c r="M119" t="n">
+        <v>4</v>
+      </c>
+      <c r="N119" t="s">
+        <v>820</v>
+      </c>
+      <c r="O119" t="s">
+        <v>67</v>
+      </c>
+      <c r="P119" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>5</v>
+      </c>
+      <c r="R119" t="n">
+        <v>5</v>
+      </c>
+      <c r="S119" t="n">
+        <v>5</v>
+      </c>
+      <c r="T119" t="s"/>
+      <c r="U119" t="n">
+        <v>4</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" t="s"/>
+      <c r="X119" t="s"/>
+      <c r="Y119" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B120" t="s"/>
+      <c r="C120" t="s"/>
+      <c r="D120" t="n">
+        <v>119</v>
+      </c>
+      <c r="E120" t="s">
+        <v>44</v>
+      </c>
+      <c r="F120" t="s">
+        <v>822</v>
+      </c>
+      <c r="G120" t="s">
+        <v>46</v>
+      </c>
+      <c r="H120" t="s">
+        <v>47</v>
+      </c>
+      <c r="I120" t="s">
+        <v>823</v>
+      </c>
+      <c r="J120" t="s">
+        <v>824</v>
+      </c>
+      <c r="K120" t="s">
+        <v>825</v>
+      </c>
+      <c r="L120" t="s">
+        <v>826</v>
+      </c>
+      <c r="M120" t="n">
+        <v>5</v>
+      </c>
+      <c r="N120" t="s">
+        <v>820</v>
+      </c>
+      <c r="O120" t="s">
+        <v>67</v>
+      </c>
+      <c r="P120" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>5</v>
+      </c>
+      <c r="R120" t="n">
+        <v>4</v>
+      </c>
+      <c r="S120" t="n">
+        <v>4</v>
+      </c>
+      <c r="T120" t="s"/>
+      <c r="U120" t="n">
+        <v>5</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0</v>
+      </c>
+      <c r="W120" t="s"/>
+      <c r="X120" t="s"/>
+      <c r="Y120" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B121" t="s"/>
+      <c r="C121" t="s"/>
+      <c r="D121" t="n">
+        <v>120</v>
+      </c>
+      <c r="E121" t="s">
+        <v>44</v>
+      </c>
+      <c r="F121" t="s">
+        <v>827</v>
+      </c>
+      <c r="G121" t="s">
+        <v>46</v>
+      </c>
+      <c r="H121" t="s">
+        <v>47</v>
+      </c>
+      <c r="I121" t="s">
+        <v>828</v>
+      </c>
+      <c r="J121" t="s">
+        <v>829</v>
+      </c>
+      <c r="K121" t="s">
+        <v>830</v>
+      </c>
+      <c r="L121" t="s">
+        <v>831</v>
+      </c>
+      <c r="M121" t="n">
+        <v>5</v>
+      </c>
+      <c r="N121" t="s">
+        <v>832</v>
+      </c>
+      <c r="O121" t="s">
+        <v>184</v>
+      </c>
+      <c r="P121" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>5</v>
+      </c>
+      <c r="R121" t="n">
+        <v>5</v>
+      </c>
+      <c r="S121" t="n">
+        <v>5</v>
+      </c>
+      <c r="T121" t="s"/>
+      <c r="U121" t="n">
+        <v>5</v>
+      </c>
+      <c r="V121" t="n">
+        <v>0</v>
+      </c>
+      <c r="W121" t="s"/>
+      <c r="X121" t="s"/>
+      <c r="Y121" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B122" t="s"/>
+      <c r="C122" t="s"/>
+      <c r="D122" t="n">
+        <v>121</v>
+      </c>
+      <c r="E122" t="s">
+        <v>44</v>
+      </c>
+      <c r="F122" t="s">
+        <v>833</v>
+      </c>
+      <c r="G122" t="s">
+        <v>46</v>
+      </c>
+      <c r="H122" t="s">
+        <v>47</v>
+      </c>
+      <c r="I122" t="s">
+        <v>834</v>
+      </c>
+      <c r="J122" t="s">
+        <v>835</v>
+      </c>
+      <c r="K122" t="s">
+        <v>836</v>
+      </c>
+      <c r="L122" t="s">
+        <v>837</v>
+      </c>
+      <c r="M122" t="n">
+        <v>4</v>
+      </c>
+      <c r="N122" t="s">
+        <v>832</v>
+      </c>
+      <c r="O122" t="s">
+        <v>67</v>
+      </c>
+      <c r="P122" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>3</v>
+      </c>
+      <c r="R122" t="n">
+        <v>5</v>
+      </c>
+      <c r="S122" t="n">
+        <v>3</v>
+      </c>
+      <c r="T122" t="s"/>
+      <c r="U122" t="n">
+        <v>5</v>
+      </c>
+      <c r="V122" t="n">
+        <v>0</v>
+      </c>
+      <c r="W122" t="s"/>
+      <c r="X122" t="s"/>
+      <c r="Y122" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B123" t="s"/>
+      <c r="C123" t="s"/>
+      <c r="D123" t="n">
+        <v>122</v>
+      </c>
+      <c r="E123" t="s">
+        <v>44</v>
+      </c>
+      <c r="F123" t="s">
+        <v>839</v>
+      </c>
+      <c r="G123" t="s">
+        <v>46</v>
+      </c>
+      <c r="H123" t="s">
+        <v>47</v>
+      </c>
+      <c r="I123" t="s">
+        <v>840</v>
+      </c>
+      <c r="J123" t="s">
+        <v>841</v>
+      </c>
+      <c r="K123" t="s">
+        <v>842</v>
+      </c>
+      <c r="L123" t="s">
+        <v>843</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="s">
+        <v>844</v>
+      </c>
+      <c r="O123" t="s">
+        <v>53</v>
+      </c>
+      <c r="P123" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>3</v>
+      </c>
+      <c r="R123" t="n">
+        <v>3</v>
+      </c>
+      <c r="S123" t="n">
+        <v>1</v>
+      </c>
+      <c r="T123" t="s"/>
+      <c r="U123" t="n">
+        <v>2</v>
+      </c>
+      <c r="V123" t="n">
+        <v>0</v>
+      </c>
+      <c r="W123" t="s"/>
+      <c r="X123" t="s"/>
+      <c r="Y123" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>36957</v>
+      </c>
+      <c r="B124" t="s"/>
+      <c r="C124" t="s"/>
+      <c r="D124" t="n">
+        <v>123</v>
+      </c>
+      <c r="E124" t="s">
+        <v>44</v>
+      </c>
+      <c r="F124" t="s">
+        <v>845</v>
+      </c>
+      <c r="G124" t="s">
+        <v>46</v>
+      </c>
+      <c r="H124" t="s">
+        <v>47</v>
+      </c>
+      <c r="I124" t="s">
+        <v>846</v>
+      </c>
+      <c r="J124" t="s">
+        <v>847</v>
+      </c>
+      <c r="K124" t="s">
+        <v>848</v>
+      </c>
+      <c r="L124" t="s">
+        <v>849</v>
+      </c>
+      <c r="M124" t="n">
+        <v>2</v>
+      </c>
+      <c r="N124" t="s"/>
+      <c r="O124" t="s"/>
+      <c r="P124" t="s"/>
+      <c r="Q124" t="s"/>
+      <c r="R124" t="s"/>
+      <c r="S124" t="s"/>
+      <c r="T124" t="s"/>
+      <c r="U124" t="s"/>
+      <c r="V124" t="n">
+        <v>0</v>
+      </c>
+      <c r="W124" t="s"/>
+      <c r="X124" t="s"/>
+      <c r="Y124" t="s">
+        <v>850</v>
       </c>
     </row>
   </sheetData>
